--- a/list_p6_event_2019.xlsx
+++ b/list_p6_event_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E6CA19-0152-D64B-9074-3993FBDF881D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65D68F2-070B-1C4B-8A2D-D852C0F2D1F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37640" yWindow="1360" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list_p6!$E$1:$E$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list_p6!$F$1:$F$71</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="503">
   <si>
     <t>管理対象ID</t>
   </si>
@@ -1799,6 +1799,10 @@
   </si>
   <si>
     <t>https://omatsurijapan.com/blog/murakami-taisai-2019/</t>
+  </si>
+  <si>
+    <t>開催年</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -2468,7 +2472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2549,9 +2553,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2912,19 +2913,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K72" sqref="K72"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="10" max="11" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33" customHeight="1">
+    <row r="1" spans="1:15" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -2935,40 +2936,43 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="409.6">
+    <row r="2" spans="1:15" ht="409.6">
       <c r="A2" s="11">
         <v>33</v>
       </c>
@@ -2976,53 +2980,58 @@
       <c r="C2">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>2019</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>177</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>280</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="M2" s="23">
+      <c r="N2" s="23">
         <v>2</v>
       </c>
-      <c r="N2" s="4" t="str">
+      <c r="O2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
-    rdfs:label """&amp;D2&amp;"""@ja .
+    rdfs:label """&amp;E2&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2019/"&amp;B2&amp;"&gt;
     rdf:type crm:E5 ;
+    crm:P170 "&amp;D2&amp;" ;
     crm:P17 ifcp:"&amp;A2&amp;" ;
-    crm:P7 &lt;"&amp;H2&amp;"&gt; ;
-    crm:P14 """&amp;I2&amp;""" ;
-    crm:P67 &lt;"&amp;L2&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;J2&amp;""" ;
-        crm:P115 """&amp;K2&amp;""" 
-    ] . "</f>
-        <v xml:space="preserve">ifcp:33
+    crm:P7 &lt;"&amp;I2&amp;"&gt; ;
+    crm:P14 """&amp;J2&amp;""" ;
+    crm:P67 &lt;"&amp;M2&amp;"&gt; ;
+    crm:P4 [
+        crm:P116 """&amp;K2&amp;""" ;
+        crm:P115 """&amp;L2&amp;""" 
+    ] ."</f>
+        <v>ifcp:33
     rdfs:label "日立風流物"@ja .
 &lt;https://w3id.org/ifcp/33/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:33 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08202-20041101&gt; ;
     crm:P14 "日立郷土芸能保存会" ;
@@ -3030,10 +3039,10 @@
     crm:P4 [
         crm:P116 "2019-05-03" ;
         crm:P115 "2019-05-05" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="409.6">
       <c r="A3" s="11">
         <v>63</v>
       </c>
@@ -3041,53 +3050,58 @@
       <c r="C3">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>2019</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>274</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>178</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>281</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="M3" s="23">
+      <c r="N3" s="23">
         <v>4</v>
       </c>
-      <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N66" si="0">"ifcp:"&amp;A3&amp;"
-    rdfs:label """&amp;D3&amp;"""@ja .
+      <c r="O3" s="4" t="str">
+        <f t="shared" ref="O3:O66" si="0">"ifcp:"&amp;A3&amp;"
+    rdfs:label """&amp;E3&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2019/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
+    crm:P170 "&amp;D3&amp;" ;
     crm:P17 ifcp:"&amp;A3&amp;" ;
-    crm:P7 &lt;"&amp;H3&amp;"&gt; ;
-    crm:P14 """&amp;I3&amp;""" ;
-    crm:P67 &lt;"&amp;L3&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;J3&amp;""" ;
-        crm:P115 """&amp;K3&amp;""" 
-    ] . "</f>
-        <v xml:space="preserve">ifcp:63
+    crm:P7 &lt;"&amp;I3&amp;"&gt; ;
+    crm:P14 """&amp;J3&amp;""" ;
+    crm:P67 &lt;"&amp;M3&amp;"&gt; ;
+    crm:P4 [
+        crm:P116 """&amp;K3&amp;""" ;
+        crm:P115 """&amp;L3&amp;""" 
+    ] ."</f>
+        <v>ifcp:63
     rdfs:label "烏山の山あげ行事"@ja .
 &lt;https://w3id.org/ifcp/63/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:63 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09215-20120801&gt; ;
     crm:P14 "烏山山あげ保存会" ;
@@ -3095,10 +3109,10 @@
     crm:P4 [
         crm:P116 "2019-07-26" ;
         crm:P115 "2019-07-28" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="409.6">
       <c r="A4" s="12">
         <v>64</v>
       </c>
@@ -3106,42 +3120,46 @@
       <c r="C4">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>2019</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>260</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>179</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>282</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>355</v>
       </c>
-      <c r="M4" s="23">
+      <c r="N4" s="23">
         <v>4</v>
       </c>
-      <c r="N4" s="4" t="str">
+      <c r="O4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:64
+        <v>ifcp:64
     rdfs:label "秩父祭の屋台行事と神楽"@ja .
 &lt;https://w3id.org/ifcp/64/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:64 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11207-20050401&gt; ;
     crm:P14 "秩父祭保存委員会" ;
@@ -3149,10 +3167,10 @@
     crm:P4 [
         crm:P116 "2019-12-02" ;
         crm:P115 "2019-12-03" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="409.6">
       <c r="A5" s="12">
         <v>66</v>
       </c>
@@ -3160,42 +3178,46 @@
       <c r="C5">
         <v>56</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>2019</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>275</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>180</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="M5" s="23">
+      <c r="N5" s="23">
         <v>3</v>
       </c>
-      <c r="N5" s="4" t="str">
+      <c r="O5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:66
+        <v>ifcp:66
     rdfs:label "高岡御車山祭の御車山行事"@ja .
 &lt;https://w3id.org/ifcp/66/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:66 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16202-20051101&gt; ;
     crm:P14 "高岡御車山保存会" ;
@@ -3203,10 +3225,10 @@
     crm:P4 [
         crm:P116 "2019-04-30" ;
         crm:P115 "2019-05-01" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="8" customFormat="1" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="8" customFormat="1" ht="409.6">
       <c r="A6" s="11">
         <v>69</v>
       </c>
@@ -3216,64 +3238,57 @@
       <c r="C6">
         <v>74</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>2019</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>90</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>255</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>181</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>283</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>108</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="M6" s="23">
+      <c r="N6" s="23">
         <v>4</v>
       </c>
-      <c r="N6" s="4" t="str">
-        <f>"ifcp:"&amp;A6&amp;"
-    rdfs:label """&amp;D6&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A6&amp;"/held/2019/"&amp;B6&amp;"&gt;
-    rdf:type crm:E5 ;
-    crm:P17 ifcp:"&amp;A6&amp;" ;
-    crm:P7 &lt;"&amp;H6&amp;"&gt; ;
-    crm:P14 """&amp;I6&amp;""" ;
-    crm:P67 &lt;"&amp;L6&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;J7&amp;""" ;
-        crm:P115 """&amp;K7&amp;""" 
-    ] . "</f>
-        <v xml:space="preserve">ifcp:69
+      <c r="O6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ifcp:69
     rdfs:label "高山祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/69/held/2019/1&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:69 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
     crm:P14 "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
     crm:P67 &lt;https://omatsurijapan.com/blog/spring-takayama-festival-2019/#i-2&gt; ;
     crm:P4 [
-        crm:P116 "2019-10-09" ;
-        crm:P115 "2019-10-10" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="8" customFormat="1" ht="409.6">
+        crm:P116 "2019-04-14" ;
+        crm:P115 "2019-04-15" 
+    ] .</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="8" customFormat="1" ht="409.6">
       <c r="A7" s="11">
         <v>69</v>
       </c>
@@ -3283,64 +3298,57 @@
       <c r="C7">
         <v>74</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>2019</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>90</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>255</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>182</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>283</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="M7" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="M7" s="23">
+      <c r="N7" s="23">
         <v>4</v>
       </c>
-      <c r="N7" s="4" t="str">
-        <f>"ifcp:"&amp;A7&amp;"
-    rdfs:label """&amp;D7&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A7&amp;"/held/2019/"&amp;B7&amp;"&gt;
-    rdf:type crm:E5 ;
-    crm:P17 ifcp:"&amp;A7&amp;" ;
-    crm:P7 &lt;"&amp;H7&amp;"&gt; ;
-    crm:P14 """&amp;I7&amp;""" ;
-    crm:P67 &lt;"&amp;L7&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;J8&amp;""" ;
-        crm:P115 """&amp;K8&amp;""" 
-    ] . "</f>
-        <v xml:space="preserve">ifcp:69
+      <c r="O7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ifcp:69
     rdfs:label "高山祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/69/held/2019/2&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:69 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
     crm:P14 "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
     crm:P67 &lt;https://nanotown01.com/akino-takayama-matsuri/#toc3&gt; ;
     crm:P4 [
-        crm:P116 "2019-04-13" ;
-        crm:P115 "2019-04-16" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="409.6">
+        crm:P116 "2019-10-09" ;
+        crm:P115 "2019-10-10" 
+    ] .</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="409.6">
       <c r="A8" s="11">
         <v>71</v>
       </c>
@@ -3348,42 +3356,46 @@
       <c r="C8">
         <v>94</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>2019</v>
+      </c>
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>367</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>264</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>183</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>284</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>109</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="M8" s="23">
+      <c r="N8" s="23">
         <v>4</v>
       </c>
-      <c r="N8" s="4" t="str">
+      <c r="O8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:71
+        <v>ifcp:71
     rdfs:label "長浜曳山祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/71/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:71 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25203-20100101&gt; ;
     crm:P14 "（公益財団法人）長浜曳山文化協会" ;
@@ -3391,10 +3403,10 @@
     crm:P4 [
         crm:P116 "2019-04-13" ;
         crm:P115 "2019-04-16" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="409.6">
       <c r="A9" s="12">
         <v>72</v>
       </c>
@@ -3402,42 +3414,46 @@
       <c r="C9">
         <v>97</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>2019</v>
+      </c>
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>92</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>256</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>184</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>285</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>110</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="M9" s="23">
+      <c r="N9" s="23">
         <v>4</v>
       </c>
-      <c r="N9" s="4" t="str">
+      <c r="O9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:72
+        <v>ifcp:72
     rdfs:label "京都祇園祭の山鉾行事"@ja .
 &lt;https://w3id.org/ifcp/72/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:72 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26100-20041220&gt; ;
     crm:P14 "公益財団法人祇園祭山鉾連合会" ;
@@ -3445,10 +3461,10 @@
     crm:P4 [
         crm:P116 "2019-07-01" ;
         crm:P115 "2019-07-31" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="409.6">
       <c r="A10" s="11">
         <v>79</v>
       </c>
@@ -3456,42 +3472,46 @@
       <c r="C10">
         <v>133</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>2019</v>
+      </c>
+      <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>276</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>185</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>374</v>
       </c>
-      <c r="M10" s="23">
+      <c r="N10" s="23">
         <v>2</v>
       </c>
-      <c r="N10" s="4" t="str">
+      <c r="O10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:79
+        <v>ifcp:79
     rdfs:label "博多祇園山笠行事"@ja .
 &lt;https://w3id.org/ifcp/79/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:79 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40132-19720401&gt; ;
     crm:P14 "博多祇園山笠振興会" ;
@@ -3499,10 +3519,10 @@
     crm:P4 [
         crm:P116 "2019-07-01" ;
         crm:P115 "2019-07-15" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="409.6">
       <c r="A11" s="11">
         <v>81</v>
       </c>
@@ -3510,42 +3530,46 @@
       <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>2019</v>
+      </c>
+      <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>93</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>268</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>186</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>286</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="M11" s="23">
+      <c r="N11" s="23">
         <v>4</v>
       </c>
-      <c r="N11" s="4" t="str">
+      <c r="O11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:81
+        <v>ifcp:81
     rdfs:label "青森のねぶた"@ja .
 &lt;https://w3id.org/ifcp/81/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:81 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02201-20070901&gt; ;
     crm:P14 "青森ねぶた祭保存会" ;
@@ -3553,10 +3577,10 @@
     crm:P4 [
         crm:P116 "2019-08-02" ;
         crm:P115 "2019-08-07" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="409.6">
       <c r="A12" s="12">
         <v>82</v>
       </c>
@@ -3564,42 +3588,46 @@
       <c r="C12">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <v>2019</v>
+      </c>
+      <c r="E12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>93</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>268</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>187</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>287</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>113</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="M12" s="23">
+      <c r="N12" s="23">
         <v>2</v>
       </c>
-      <c r="N12" s="4" t="str">
+      <c r="O12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:82
+        <v>ifcp:82
     rdfs:label "弘前のねぷた"@ja .
 &lt;https://w3id.org/ifcp/82/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:82 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
     crm:P14 "弘前ねぷた保存会" ;
@@ -3607,10 +3635,10 @@
     crm:P4 [
         crm:P116 "2019-08-01" ;
         crm:P115 "2019-08-07" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="409.6">
       <c r="A13" s="12">
         <v>84</v>
       </c>
@@ -3618,42 +3646,46 @@
       <c r="C13">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>2019</v>
+      </c>
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>4</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>265</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>188</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>288</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="M13" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="M13" s="23">
+      <c r="N13" s="23">
         <v>2</v>
       </c>
-      <c r="N13" s="4" t="str">
+      <c r="O13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:84
+        <v>ifcp:84
     rdfs:label "秋田の竿灯"@ja .
 &lt;https://w3id.org/ifcp/84/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:84 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
     crm:P14 "秋田市竿灯会" ;
@@ -3661,10 +3693,10 @@
     crm:P4 [
         crm:P116 "2019-08-04" ;
         crm:P115 "2019-08-07" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="409.6">
       <c r="A14" s="11">
         <v>85</v>
       </c>
@@ -3672,42 +3704,46 @@
       <c r="C14">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14">
+        <v>2019</v>
+      </c>
+      <c r="E14" t="s">
         <v>33</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>5</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>277</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>189</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>383</v>
       </c>
-      <c r="M14" s="23">
+      <c r="N14" s="23">
         <v>2</v>
       </c>
-      <c r="N14" s="4" t="str">
+      <c r="O14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:85
+        <v>ifcp:85
     rdfs:label "金沢の羽山ごもり"@ja .
 &lt;https://w3id.org/ifcp/85/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:85 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07201-20080701&gt; ;
     crm:P14 "羽山ごもり保存会" ;
@@ -3715,10 +3751,10 @@
     crm:P4 [
         crm:P116 "2019-12-12" ;
         crm:P115 "2019-12-14" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="409.6">
       <c r="A15" s="12">
         <v>90</v>
       </c>
@@ -3726,42 +3762,46 @@
       <c r="C15">
         <v>76</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>2019</v>
+      </c>
+      <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>90</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>255</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>190</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>289</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="M15" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="M15" s="23">
+      <c r="N15" s="23">
         <v>2</v>
       </c>
-      <c r="N15" s="4" t="str">
+      <c r="O15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:90
+        <v>ifcp:90
     rdfs:label "古川祭の起し太鼓・屋台行事"@ja .
 &lt;https://w3id.org/ifcp/90/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:90 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21217-20040201&gt; ;
     crm:P14 "古川祭保存会" ;
@@ -3769,10 +3809,10 @@
     crm:P4 [
         crm:P116 "2019-04-19" ;
         crm:P115 "2019-04-20" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="409.6">
       <c r="A16" s="11">
         <v>91</v>
       </c>
@@ -3780,42 +3820,46 @@
       <c r="C16">
         <v>86</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16">
+        <v>2019</v>
+      </c>
+      <c r="E16" t="s">
         <v>35</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>251</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>191</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>290</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>117</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="M16" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="M16" s="23">
+      <c r="N16" s="23">
         <v>4</v>
       </c>
-      <c r="N16" s="4" t="str">
+      <c r="O16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:91
+        <v>ifcp:91
     rdfs:label "尾張津島天王祭の車楽舟行事"@ja .
 &lt;https://w3id.org/ifcp/91/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:91 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23208-19900401&gt; ;
     crm:P14 "尾張津島天王祭協賛会" ;
@@ -3823,10 +3867,10 @@
     crm:P4 [
         crm:P116 "2019-07-27" ;
         crm:P115 "2019-07-28" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="409.6">
       <c r="A17" s="12">
         <v>92</v>
       </c>
@@ -3834,42 +3878,46 @@
       <c r="C17">
         <v>87</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17">
+        <v>2019</v>
+      </c>
+      <c r="E17" t="s">
         <v>36</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>13</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>251</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>192</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>291</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>118</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>391</v>
       </c>
-      <c r="M17" s="23">
+      <c r="N17" s="23">
         <v>2</v>
       </c>
-      <c r="N17" s="4" t="str">
+      <c r="O17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:92
+        <v>ifcp:92
     rdfs:label "豊橋神明社の鬼祭"@ja .
 &lt;https://w3id.org/ifcp/92/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:92 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23201-19990401&gt; ;
     crm:P14 "豊橋鬼祭保存会" ;
@@ -3877,10 +3925,10 @@
     crm:P4 [
         crm:P116 "2019-02-10" ;
         crm:P115 "2019-02-11" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="409.6">
       <c r="A18" s="11">
         <v>95</v>
       </c>
@@ -3888,42 +3936,46 @@
       <c r="C18">
         <v>135</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18">
+        <v>2019</v>
+      </c>
+      <c r="E18" t="s">
         <v>37</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>16</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>276</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>193</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>292</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>119</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="M18" t="s">
         <v>394</v>
       </c>
-      <c r="M18" s="23">
+      <c r="N18" s="23">
         <v>2</v>
       </c>
-      <c r="N18" s="4" t="str">
+      <c r="O18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:95
+        <v>ifcp:95
     rdfs:label "戸畑祇園大山笠行事"@ja .
 &lt;https://w3id.org/ifcp/95/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:95 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40100-20081001&gt; ;
     crm:P14 "戸畑祇園大山笠振興会" ;
@@ -3931,10 +3983,10 @@
     crm:P4 [
         crm:P116 "2019-07-27" ;
         crm:P115 "2019-07-27" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="409.6">
       <c r="A19" s="12">
         <v>96</v>
       </c>
@@ -3942,42 +3994,46 @@
       <c r="C19">
         <v>138</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19">
+        <v>2019</v>
+      </c>
+      <c r="E19" t="s">
         <v>38</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>17</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>259</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>194</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>293</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>120</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>395</v>
       </c>
-      <c r="M19" s="23">
+      <c r="N19" s="23">
         <v>4</v>
       </c>
-      <c r="N19" s="4" t="str">
+      <c r="O19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:96
+        <v>ifcp:96
     rdfs:label "唐津くんちの曳山行事"@ja .
 &lt;https://w3id.org/ifcp/96/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:96 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41202-20060101&gt; ;
     crm:P14 "唐津曳山取締会" ;
@@ -3985,10 +4041,10 @@
     crm:P4 [
         crm:P116 "2019-11-02" ;
         crm:P115 "2019-11-04" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="409.6">
       <c r="A20" s="12">
         <v>100</v>
       </c>
@@ -3996,42 +4052,46 @@
       <c r="C20">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20">
+        <v>2019</v>
+      </c>
+      <c r="E20" t="s">
         <v>39</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>5</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>277</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>195</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>294</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>121</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="M20" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="M20" s="23">
+      <c r="N20" s="23">
         <v>2</v>
       </c>
-      <c r="N20" s="4" t="str">
+      <c r="O20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:100
+        <v>ifcp:100
     rdfs:label "田島祇園祭のおとうや行事"@ja .
 &lt;https://w3id.org/ifcp/100/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:100 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07368-20060320&gt; ;
     crm:P14 "田島祇園祭のおとうや行事保存会" ;
@@ -4039,10 +4099,10 @@
     crm:P4 [
         crm:P116 "2019-07-22" ;
         crm:P115 "2019-07-24" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="409.6">
       <c r="A21" s="12">
         <v>102</v>
       </c>
@@ -4050,42 +4110,46 @@
       <c r="C21">
         <v>61</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21">
+        <v>2019</v>
+      </c>
+      <c r="E21" t="s">
         <v>40</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>270</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>196</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>295</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>122</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="M21" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="M21" s="23">
+      <c r="N21" s="23">
         <v>4</v>
       </c>
-      <c r="N21" s="4" t="str">
+      <c r="O21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:102
+        <v>ifcp:102
     rdfs:label "熊甲二十日祭の枠旗行事"@ja .
 &lt;https://w3id.org/ifcp/102/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:102 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17202-20090901&gt; ;
     crm:P14 "お熊甲祭奉賛会" ;
@@ -4093,10 +4157,10 @@
     crm:P4 [
         crm:P116 "2019-09-20" ;
         crm:P115 "2019-09-20" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="409.6">
       <c r="A22" s="12">
         <v>114</v>
       </c>
@@ -4104,42 +4168,46 @@
       <c r="C22">
         <v>62</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22">
+        <v>2019</v>
+      </c>
+      <c r="E22" t="s">
         <v>41</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>270</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>197</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>123</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>403</v>
       </c>
-      <c r="M22" s="23">
+      <c r="N22" s="23">
         <v>1</v>
       </c>
-      <c r="N22" s="4" t="str">
+      <c r="O22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:114
+        <v>ifcp:114
     rdfs:label "青柏祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/114/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:114 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172020010&gt; ;
     crm:P14 "青柏祭でか山保存会" ;
@@ -4147,10 +4215,10 @@
     crm:P4 [
         crm:P116 "2019-05-03" ;
         crm:P115 "2019-05-05" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="409.6">
       <c r="A23" s="12">
         <v>120</v>
       </c>
@@ -4158,42 +4226,46 @@
       <c r="C23">
         <v>5</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23">
+        <v>2019</v>
+      </c>
+      <c r="E23" t="s">
         <v>42</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>93</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>268</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>198</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>287</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>124</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>404</v>
       </c>
-      <c r="M23" s="23">
+      <c r="N23" s="23">
         <v>4</v>
       </c>
-      <c r="N23" s="4" t="str">
+      <c r="O23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:120
+        <v>ifcp:120
     rdfs:label "岩木山の登拝行事"@ja .
 &lt;https://w3id.org/ifcp/120/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:120 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
     crm:P14 "お山参詣保存会" ;
@@ -4201,10 +4273,10 @@
     crm:P4 [
         crm:P116 "2019-08-28" ;
         crm:P115 "2019-08-30" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="409.6">
       <c r="A24" s="12">
         <v>122</v>
       </c>
@@ -4212,42 +4284,46 @@
       <c r="C24">
         <v>11</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24">
+        <v>2019</v>
+      </c>
+      <c r="E24" t="s">
         <v>43</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>3</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>254</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>199</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>296</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>125</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="M24" t="s">
         <v>407</v>
       </c>
-      <c r="M24" s="23">
+      <c r="N24" s="23">
         <v>4</v>
       </c>
-      <c r="N24" s="4" t="str">
+      <c r="O24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:122
+        <v>ifcp:122
     rdfs:label "室根神社祭のマツリバ行事"@ja .
 &lt;https://w3id.org/ifcp/122/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:122 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C03209-20170904&gt; ;
     crm:P14 "室根神社祭保存会" ;
@@ -4255,10 +4331,10 @@
     crm:P4 [
         crm:P116 "開催せず" ;
         crm:P115 "開催せず" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="16" customFormat="1" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="16" customFormat="1" ht="409.6">
       <c r="A25" s="14">
         <v>126</v>
       </c>
@@ -4266,42 +4342,46 @@
       <c r="C25" s="16">
         <v>22</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25">
+        <v>2019</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="F25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>265</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="H25" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="I25" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="J25" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="J25" s="18" t="s">
+      <c r="K25" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="K25" s="18" t="s">
+      <c r="L25" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="M25" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="M25" s="23">
+      <c r="N25" s="23">
         <v>1</v>
       </c>
-      <c r="N25" s="4" t="str">
+      <c r="O25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:126
+        <v>ifcp:126
     rdfs:label "東湖八坂神社のトウニン（統人）行事"@ja .
 &lt;https://w3id.org/ifcp/126/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:126 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05211-20050322&gt; ;
     crm:P14 "東湖八坂神社崇敬会、船越町内連合会" ;
@@ -4309,10 +4389,10 @@
     crm:P4 [
         crm:P116 "2019-07-07" ;
         crm:P115 "2019-07-08" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="409.6">
       <c r="A26" s="11">
         <v>129</v>
       </c>
@@ -4320,42 +4400,46 @@
       <c r="C26">
         <v>100</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26">
+        <v>2019</v>
+      </c>
+      <c r="E26" t="s">
         <v>45</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>92</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>256</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>201</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>298</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>127</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="M26" t="s">
         <v>413</v>
       </c>
-      <c r="M26" s="23">
+      <c r="N26" s="23">
         <v>3</v>
       </c>
-      <c r="N26" s="4" t="str">
+      <c r="O26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:129
+        <v>ifcp:129
     rdfs:label "涌出宮の宮座行事"@ja .
 &lt;https://w3id.org/ifcp/129/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:129 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26214-20070312&gt; ;
     crm:P14 "涌出宮宮座行事保存会" ;
@@ -4363,10 +4447,10 @@
     crm:P4 [
         crm:P116 "2019-02-17" ;
         crm:P115 "2019-02-17" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="409.6">
       <c r="A27" s="11">
         <v>149</v>
       </c>
@@ -4374,42 +4458,46 @@
       <c r="C27">
         <v>23</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27">
+        <v>2019</v>
+      </c>
+      <c r="E27" t="s">
         <v>46</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>4</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>265</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>202</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>128</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="M27" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="M27" s="23">
+      <c r="N27" s="23">
         <v>1</v>
       </c>
-      <c r="N27" s="4" t="str">
+      <c r="O27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:149
+        <v>ifcp:149
     rdfs:label "角館祭りのやま行事"@ja .
 &lt;https://w3id.org/ifcp/149/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:149 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052150130&gt; ;
     crm:P14 "角館のお祭り保存会" ;
@@ -4417,10 +4505,10 @@
     crm:P4 [
         crm:P116 "2019-09-07" ;
         crm:P115 "2019-09-09" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="409.6">
       <c r="A28" s="12">
         <v>150</v>
       </c>
@@ -4428,42 +4516,46 @@
       <c r="C28">
         <v>95</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28">
+        <v>2019</v>
+      </c>
+      <c r="E28" t="s">
         <v>175</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>91</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>264</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="H28" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="I28" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>129</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="M28" t="s">
         <v>418</v>
       </c>
-      <c r="M28" s="23">
+      <c r="N28" s="23">
         <v>2</v>
       </c>
-      <c r="N28" s="4" t="str">
+      <c r="O28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:150
+        <v>ifcp:150
     rdfs:label "近江中山の芋競べ祭り"@ja .
 &lt;https://w3id.org/ifcp/150/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:150 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25383-19700401&gt; ;
     crm:P14 "芋くらべ祭保存会" ;
@@ -4471,10 +4563,10 @@
     crm:P4 [
         crm:P116 "2019-09-01" ;
         crm:P115 "2019-09-01" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="409.6">
       <c r="A29" s="11">
         <v>153</v>
       </c>
@@ -4482,31 +4574,35 @@
       <c r="C29">
         <v>41</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29">
+        <v>2019</v>
+      </c>
+      <c r="E29" t="s">
         <v>47</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>94</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>271</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>204</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>299</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>130</v>
       </c>
-      <c r="M29" s="23"/>
-      <c r="N29" s="4" t="str">
+      <c r="N29" s="23"/>
+      <c r="O29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:153
+        <v>ifcp:153
     rdfs:label "白間津のオオマチ（大祭）行事"@ja .
 &lt;https://w3id.org/ifcp/153/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:153 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12466-20060320&gt; ;
     crm:P14 "白間津区" ;
@@ -4514,10 +4610,10 @@
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="409.6">
       <c r="A30" s="11">
         <v>171</v>
       </c>
@@ -4525,42 +4621,46 @@
       <c r="C30">
         <v>677</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30">
+        <v>2019</v>
+      </c>
+      <c r="E30" t="s">
         <v>48</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>89</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>274</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>205</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>300</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>131</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="M30" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="M30" s="23">
+      <c r="N30" s="23">
         <v>3</v>
       </c>
-      <c r="N30" s="4" t="str">
+      <c r="O30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:171
+        <v>ifcp:171
     rdfs:label "発光路の強飯式"@ja .
 &lt;https://w3id.org/ifcp/171/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:171 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09205-20120801&gt; ;
     crm:P14 "発光路妙見神社青年部" ;
@@ -4568,10 +4668,10 @@
     crm:P4 [
         crm:P116 "2019-01-03" ;
         crm:P115 "2019-01-03" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="409.6">
       <c r="A31" s="12">
         <v>172</v>
       </c>
@@ -4579,42 +4679,46 @@
       <c r="C31">
         <v>674</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31">
+        <v>2019</v>
+      </c>
+      <c r="E31" t="s">
         <v>49</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>8</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>267</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>206</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>301</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>132</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>422</v>
       </c>
-      <c r="M31" s="23">
+      <c r="N31" s="23">
         <v>1</v>
       </c>
-      <c r="N31" s="4" t="str">
+      <c r="O31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:172
+        <v>ifcp:172
     rdfs:label "貴船神社の船祭り"@ja .
 &lt;https://w3id.org/ifcp/172/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:172 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14383-19700401&gt; ;
     crm:P14 "貴船祭保存会" ;
@@ -4622,10 +4726,10 @@
     crm:P4 [
         crm:P116 "2019-07-27" ;
         crm:P115 "2019-07-28" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="409.6">
       <c r="A32" s="12">
         <v>176</v>
       </c>
@@ -4633,42 +4737,46 @@
       <c r="C32">
         <v>680</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32">
+        <v>2019</v>
+      </c>
+      <c r="E32" t="s">
         <v>50</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>95</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>272</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>207</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>302</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>133</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>423</v>
       </c>
-      <c r="M32" s="23">
+      <c r="N32" s="23">
         <v>1</v>
       </c>
-      <c r="N32" s="4" t="str">
+      <c r="O32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:176
+        <v>ifcp:176
     rdfs:label "日田祗園の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/176/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:176 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C44204-20050322&gt; ;
     crm:P14 "日田祗園山鉾振興会" ;
@@ -4676,10 +4784,10 @@
     crm:P4 [
         crm:P116 "2019-07-27" ;
         crm:P115 "2019-07-28" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="409.6">
       <c r="A33" s="12">
         <v>178</v>
       </c>
@@ -4687,42 +4795,46 @@
       <c r="C33">
         <v>673</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33">
+        <v>2019</v>
+      </c>
+      <c r="E33" t="s">
         <v>51</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>4</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>265</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>208</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>288</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>134</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="K33" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>424</v>
       </c>
-      <c r="M33" s="23">
+      <c r="N33" s="23">
         <v>1</v>
       </c>
-      <c r="N33" s="4" t="str">
+      <c r="O33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:178
+        <v>ifcp:178
     rdfs:label "土崎神明社祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/178/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:178 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
     crm:P14 "土崎神明社奉賛会" ;
@@ -4730,10 +4842,10 @@
     crm:P4 [
         crm:P116 "2019-07-20" ;
         crm:P115 "2019-07-21" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="8" customFormat="1" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="8" customFormat="1" ht="409.6">
       <c r="A34" s="24">
         <v>180</v>
       </c>
@@ -4741,42 +4853,46 @@
       <c r="C34" s="8">
         <v>676</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34">
+        <v>2019</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="F34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="G34" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="I34" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="J34" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="K34" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="L34" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="M34" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="M34" s="26">
+      <c r="N34" s="26">
         <v>4</v>
       </c>
-      <c r="N34" s="27" t="str">
+      <c r="O34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:180
+        <v>ifcp:180
     rdfs:label "魚津のタテモン行事"@ja .
 &lt;https://w3id.org/ifcp/180/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:180 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16204-19890601&gt; ;
     crm:P14 "魚津たてもん保存会" ;
@@ -4784,10 +4900,10 @@
     crm:P4 [
         crm:P116 "2019-08-02" ;
         crm:P115 "2019-08-03" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="409.6">
       <c r="A35" s="12">
         <v>182</v>
       </c>
@@ -4795,42 +4911,46 @@
       <c r="C35">
         <v>678</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35">
+        <v>2019</v>
+      </c>
+      <c r="E35" t="s">
         <v>53</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>14</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>261</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>210</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="I35" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>136</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="M35" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="M35" s="23">
+      <c r="N35" s="23">
         <v>2</v>
       </c>
-      <c r="N35" s="4" t="str">
+      <c r="O35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:182
+        <v>ifcp:182
     rdfs:label "鳥出神社の鯨船行事"@ja .
 &lt;https://w3id.org/ifcp/182/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:182 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24202-20001101&gt; ;
     crm:P14 "富田鯨船保存会連合会" ;
@@ -4838,10 +4958,10 @@
     crm:P4 [
         crm:P116 "2019-08-14" ;
         crm:P115 "2019-08-15" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="409.6">
       <c r="A36" s="11">
         <v>187</v>
       </c>
@@ -4849,42 +4969,46 @@
       <c r="C36">
         <v>682</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36">
+        <v>2019</v>
+      </c>
+      <c r="E36" t="s">
         <v>54</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>18</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>253</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>211</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>305</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>137</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>432</v>
       </c>
-      <c r="M36" s="23">
+      <c r="N36" s="23">
         <v>3</v>
       </c>
-      <c r="N36" s="4" t="str">
+      <c r="O36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:187
+        <v>ifcp:187
     rdfs:label "塩屋湾のウンガミ"@ja .
 &lt;https://w3id.org/ifcp/187/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:187 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47302-19780601&gt; ;
     crm:P14 "田港区、屋古区、塩屋区、白浜区" ;
@@ -4892,10 +5016,10 @@
     crm:P4 [
         crm:P116 "209-08-18" ;
         crm:P115 "2019-08-18" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="409.6">
       <c r="A37" s="12">
         <v>192</v>
       </c>
@@ -4903,42 +5027,46 @@
       <c r="C37">
         <v>663</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37">
+        <v>2019</v>
+      </c>
+      <c r="E37" t="s">
         <v>55</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>16</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>276</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>212</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>306</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>138</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="M37" t="s">
         <v>435</v>
       </c>
-      <c r="M37" s="23">
+      <c r="N37" s="23">
         <v>4</v>
       </c>
-      <c r="N37" s="4" t="str">
+      <c r="O37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:192
+        <v>ifcp:192
     rdfs:label "等覚寺の松会"@ja .
 &lt;https://w3id.org/ifcp/192/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:192 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40621-19700401&gt; ;
     crm:P14 "等覚寺松会保存会" ;
@@ -4946,10 +5074,10 @@
     crm:P4 [
         crm:P116 "2019-04-21" ;
         crm:P115 "2019-04-21" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="16" customFormat="1" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="16" customFormat="1" ht="409.6">
       <c r="A38" s="19">
         <v>197</v>
       </c>
@@ -4957,33 +5085,37 @@
       <c r="C38" s="16">
         <v>714</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38">
+        <v>2019</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="F38" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="G38" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="H38" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="H38" s="21" t="s">
+      <c r="I38" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="I38" s="16" t="s">
+      <c r="J38" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="J38" s="18"/>
       <c r="K38" s="18"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="4" t="str">
+      <c r="L38" s="18"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:197
+        <v>ifcp:197
     rdfs:label "山北のボタモチ祭り"@ja .
 &lt;https://w3id.org/ifcp/197/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:197 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15212-20080401&gt; ;
     crm:P14 "中浜ボタモチ祭保存会、杉平ボタモチ祭保存会、岩石ボタモチ保存会" ;
@@ -4991,10 +5123,10 @@
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" s="8" customFormat="1" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="8" customFormat="1" ht="409.6">
       <c r="A39" s="12">
         <v>198</v>
       </c>
@@ -5002,42 +5134,46 @@
       <c r="C39">
         <v>715</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39">
+        <v>2019</v>
+      </c>
+      <c r="E39" t="s">
         <v>56</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>10</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>275</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>214</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>308</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>140</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>373</v>
       </c>
       <c r="K39" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="M39" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="M39" s="23">
+      <c r="N39" s="23">
         <v>4</v>
       </c>
-      <c r="N39" s="4" t="str">
+      <c r="O39" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:198
+        <v>ifcp:198
     rdfs:label "滑川のネブタ流し"@ja .
 &lt;https://w3id.org/ifcp/198/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:198 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16206-19910325&gt; ;
     crm:P14 "中川原、常盤町一区・二区・三区" ;
@@ -5045,53 +5181,57 @@
     crm:P4 [
         crm:P116 "2019-07-31" ;
         crm:P115 "2019-07-31" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" s="8" customFormat="1" ht="409.6">
-      <c r="A40" s="28">
+    ] .</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="8" customFormat="1" ht="409.6">
+      <c r="A40" s="27">
         <v>199</v>
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="8">
         <v>716</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40">
+        <v>2019</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="F40" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="G40" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="H40" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="I40" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="J40" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>440</v>
       </c>
       <c r="K40" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="L40" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="M40" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="M40" s="26">
+      <c r="N40" s="26">
         <v>4</v>
       </c>
-      <c r="N40" s="27" t="str">
+      <c r="O40" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:199
+        <v>ifcp:199
     rdfs:label "大江八幡神社の御船行事"@ja .
 &lt;https://w3id.org/ifcp/199/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:199 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22226-20051011&gt; ;
     crm:P14 "大江氏子会" ;
@@ -5099,53 +5239,57 @@
     crm:P4 [
         crm:P116 "2019-09-15" ;
         crm:P115 "2019-09-15" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="8" customFormat="1" ht="409.6">
-      <c r="A41" s="28">
+    ] .</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="8" customFormat="1" ht="409.6">
+      <c r="A41" s="27">
         <v>201</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="8">
         <v>717</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41">
+        <v>2019</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="F41" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="G41" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="H41" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="I41" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="J41" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="K41" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="L41" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="M41" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="M41" s="26">
+      <c r="N41" s="26">
         <v>3</v>
       </c>
-      <c r="N41" s="27" t="str">
+      <c r="O41" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:201
+        <v>ifcp:201
     rdfs:label "河内祭の御舟行事"@ja .
 &lt;https://w3id.org/ifcp/201/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:201 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30423-20050401&gt; ;
     crm:P14 "古座川河内祭保存会、古座獅子舞保存会" ;
@@ -5153,10 +5297,10 @@
     crm:P4 [
         crm:P116 "2019-07-28" ;
         crm:P115 "2019-07-29" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="409.6">
       <c r="A42" s="11">
         <v>205</v>
       </c>
@@ -5164,42 +5308,46 @@
       <c r="C42">
         <v>736</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42">
+        <v>2019</v>
+      </c>
+      <c r="E42" t="s">
         <v>59</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>98</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>258</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>217</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>311</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>143</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="M42" t="s">
         <v>443</v>
       </c>
-      <c r="M42" s="23">
+      <c r="N42" s="23">
         <v>4</v>
       </c>
-      <c r="N42" s="4" t="str">
+      <c r="O42" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:205
+        <v>ifcp:205
     rdfs:label "片品の猿追い祭"@ja .
 &lt;https://w3id.org/ifcp/205/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:205 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C10443-19700401&gt; ;
     crm:P14 "猿追い祭保存会" ;
@@ -5207,10 +5355,10 @@
     crm:P4 [
         crm:P116 "2019-10-14" ;
         crm:P115 "2019-10-14" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="409.6">
       <c r="A43" s="12">
         <v>206</v>
       </c>
@@ -5218,42 +5366,46 @@
       <c r="C43">
         <v>737</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43">
+        <v>2019</v>
+      </c>
+      <c r="E43" t="s">
         <v>60</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>270</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>218</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>312</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>144</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="M43" t="s">
         <v>445</v>
       </c>
-      <c r="M43" s="23">
+      <c r="N43" s="23">
         <v>4</v>
       </c>
-      <c r="N43" s="4" t="str">
+      <c r="O43" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:206
+        <v>ifcp:206
     rdfs:label "気多の鵜祭の習俗"@ja .
 &lt;https://w3id.org/ifcp/206/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:206 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172021060&gt; ;
     crm:P14 "気多大社、鵜浦町会" ;
@@ -5261,10 +5413,10 @@
     crm:P4 [
         crm:P116 "2019-12-16" ;
         crm:P115 "2019-12-16" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="409.6">
       <c r="A44" s="12">
         <v>208</v>
       </c>
@@ -5272,42 +5424,46 @@
       <c r="C44">
         <v>738</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44">
+        <v>2019</v>
+      </c>
+      <c r="E44" t="s">
         <v>61</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="G44" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>219</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>313</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>145</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="K44" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>447</v>
       </c>
-      <c r="M44" s="23">
+      <c r="N44" s="23">
         <v>3</v>
       </c>
-      <c r="N44" s="4" t="str">
+      <c r="O44" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:208
+        <v>ifcp:208
     rdfs:label "見付天神裸祭"@ja .
 &lt;https://w3id.org/ifcp/208/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:208 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22211-20090217&gt; ;
     crm:P14 "見付天神裸祭保存会" ;
@@ -5315,10 +5471,10 @@
     crm:P4 [
         crm:P116 "2019-09-07" ;
         crm:P115 "2019-09-08" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="409.6">
       <c r="A45" s="11">
         <v>215</v>
       </c>
@@ -5326,42 +5482,46 @@
       <c r="C45">
         <v>746</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45">
+        <v>2019</v>
+      </c>
+      <c r="E45" t="s">
         <v>62</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>10</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>275</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>220</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>314</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>146</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M45" t="s">
         <v>449</v>
       </c>
-      <c r="M45" s="23">
+      <c r="N45" s="23">
         <v>4</v>
       </c>
-      <c r="N45" s="4" t="str">
+      <c r="O45" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:215
+        <v>ifcp:215
     rdfs:label "城端神明宮祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/215/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:215 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16210-20041101&gt; ;
     crm:P14 "城端曳山祭保存会" ;
@@ -5369,10 +5529,10 @@
     crm:P4 [
         crm:P116 "2019-05-05" ;
         crm:P115 "2019-05-05" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="409.6">
       <c r="A46" s="12">
         <v>216</v>
       </c>
@@ -5380,42 +5540,46 @@
       <c r="C46">
         <v>747</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46">
+        <v>2019</v>
+      </c>
+      <c r="E46" t="s">
         <v>63</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>14</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>261</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>221</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>315</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>147</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="M46" t="s">
         <v>450</v>
       </c>
-      <c r="M46" s="23">
+      <c r="N46" s="23">
         <v>1</v>
       </c>
-      <c r="N46" s="4" t="str">
+      <c r="O46" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:216
+        <v>ifcp:216
     rdfs:label "上野天神祭のダンジリ行事"@ja .
 &lt;https://w3id.org/ifcp/216/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:216 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24216-20041101&gt; ;
     crm:P14 "上野文化美術保存会" ;
@@ -5423,10 +5587,10 @@
     crm:P4 [
         crm:P116 "2019-10-20" ;
         crm:P115 "2019-10-20" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="409.6">
       <c r="A47" s="11">
         <v>219</v>
       </c>
@@ -5434,42 +5598,46 @@
       <c r="C47">
         <v>754</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47">
+        <v>2019</v>
+      </c>
+      <c r="E47" t="s">
         <v>64</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>89</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>274</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>222</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>345</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>148</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="M47" t="s">
         <v>452</v>
       </c>
-      <c r="M47" s="23">
+      <c r="N47" s="23">
         <v>4</v>
       </c>
-      <c r="N47" s="4" t="str">
+      <c r="O47" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:219
+        <v>ifcp:219
     rdfs:label "鹿沼今宮神社祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/219/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:219 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S092050100&gt; ;
     crm:P14 "鹿沼いまみや付け祭り保存会" ;
@@ -5477,10 +5645,10 @@
     crm:P4 [
         crm:P116 "開催せず" ;
         crm:P115 "開催せず" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="409.6">
       <c r="A48" s="12">
         <v>220</v>
       </c>
@@ -5488,42 +5656,46 @@
       <c r="C48">
         <v>764</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48">
+        <v>2019</v>
+      </c>
+      <c r="E48" t="s">
         <v>65</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>93</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>268</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>223</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>316</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>149</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="K48" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="L48" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>454</v>
       </c>
-      <c r="M48" s="23">
+      <c r="N48" s="23">
         <v>2</v>
       </c>
-      <c r="N48" s="4" t="str">
+      <c r="O48" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:220
+        <v>ifcp:220
     rdfs:label "八戸三社大祭の山車行事"@ja .
 &lt;https://w3id.org/ifcp/220/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:220 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02203-20170101&gt; ;
     crm:P14 "八戸三社大祭山車祭り行事保存会" ;
@@ -5531,10 +5703,10 @@
     crm:P4 [
         crm:P116 "2019-07-31" ;
         crm:P115 "2019-08-04" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" s="16" customFormat="1" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="16" customFormat="1" ht="409.6">
       <c r="A49" s="14">
         <v>226</v>
       </c>
@@ -5542,42 +5714,46 @@
       <c r="C49" s="16">
         <v>767</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49">
+        <v>2019</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="F49" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>271</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="H49" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="H49" s="16" t="s">
+      <c r="I49" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="I49" s="16" t="s">
+      <c r="J49" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="J49" s="18" t="s">
+      <c r="K49" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="K49" s="18" t="s">
+      <c r="L49" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="L49" s="16" t="s">
+      <c r="M49" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="M49" s="23">
+      <c r="N49" s="23">
         <v>4</v>
       </c>
-      <c r="N49" s="4" t="str">
+      <c r="O49" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:226
+        <v>ifcp:226
     rdfs:label "佐原の山車行事"@ja .
 &lt;https://w3id.org/ifcp/226/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:226 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12236-20060327&gt; ;
     crm:P14 "佐原山車行事伝承保存会" ;
@@ -5585,10 +5761,10 @@
     crm:P4 [
         crm:P116 "2019-10-11" ;
         crm:P115 "2019-10-13" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="409.6">
       <c r="A50" s="11">
         <v>231</v>
       </c>
@@ -5596,42 +5772,46 @@
       <c r="C50">
         <v>795</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50">
+        <v>2019</v>
+      </c>
+      <c r="E50" t="s">
         <v>67</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>7</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>260</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>225</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>318</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>151</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="K50" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>458</v>
       </c>
-      <c r="M50" s="23">
+      <c r="N50" s="23">
         <v>4</v>
       </c>
-      <c r="N50" s="4" t="str">
+      <c r="O50" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:231
+        <v>ifcp:231
     rdfs:label "川越氷川祭の山車行事"@ja .
 &lt;https://w3id.org/ifcp/231/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:231 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11201-20030401&gt; ;
     crm:P14 "川越氷川祭の山車行事保存会" ;
@@ -5639,10 +5819,10 @@
     crm:P4 [
         crm:P116 "2019-10-19" ;
         crm:P115 "2019-10-20" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="409.6">
       <c r="A51" s="12">
         <v>232</v>
       </c>
@@ -5650,42 +5830,46 @@
       <c r="C51">
         <v>797</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51">
+        <v>2019</v>
+      </c>
+      <c r="E51" t="s">
         <v>68</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>94</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>271</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>226</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>346</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>152</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="K51" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="L51" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>460</v>
       </c>
-      <c r="M51" s="23">
+      <c r="N51" s="23">
         <v>4</v>
       </c>
-      <c r="N51" s="4" t="str">
+      <c r="O51" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:232
+        <v>ifcp:232
     rdfs:label "茂名の里芋祭"@ja .
 &lt;https://w3id.org/ifcp/232/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:232 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S122050440&gt; ;
     crm:P14 "茂名区" ;
@@ -5693,10 +5877,10 @@
     crm:P4 [
         crm:P116 "2019-02-19" ;
         crm:P115 "2019-02-21" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="409.6">
       <c r="A52" s="12">
         <v>234</v>
       </c>
@@ -5704,42 +5888,46 @@
       <c r="C52">
         <v>798</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52">
+        <v>2019</v>
+      </c>
+      <c r="E52" t="s">
         <v>69</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>91</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>264</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>227</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="I52" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>153</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="M52" t="s">
         <v>463</v>
       </c>
-      <c r="M52" s="23">
+      <c r="N52" s="23">
         <v>4</v>
       </c>
-      <c r="N52" s="4" t="str">
+      <c r="O52" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:234
+        <v>ifcp:234
     rdfs:label "三上のずいき祭"@ja .
 &lt;https://w3id.org/ifcp/234/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:234 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S252100330&gt; ;
     crm:P14 "ずいき祭保存会" ;
@@ -5747,10 +5935,10 @@
     crm:P4 [
         crm:P116 "2019-10-14" ;
         crm:P115 "2019-10-14" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="409.6">
       <c r="A53" s="11">
         <v>243</v>
       </c>
@@ -5758,42 +5946,46 @@
       <c r="C53">
         <v>811</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53">
+        <v>2019</v>
+      </c>
+      <c r="E53" t="s">
         <v>70</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>13</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>251</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>228</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="I53" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>154</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="K53" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="L53" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>464</v>
       </c>
-      <c r="M53" s="23">
+      <c r="N53" s="23">
         <v>4</v>
       </c>
-      <c r="N53" s="4" t="str">
+      <c r="O53" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:243
+        <v>ifcp:243
     rdfs:label "犬山祭の車山行事"@ja .
 &lt;https://w3id.org/ifcp/243/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:243 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23215-19830301&gt; ;
     crm:P14 "犬山祭保存会" ;
@@ -5801,10 +5993,10 @@
     crm:P4 [
         crm:P116 "2019-04-06" ;
         crm:P115 "2019-04-07" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="409.6">
       <c r="A54" s="12">
         <v>244</v>
       </c>
@@ -5812,42 +6004,46 @@
       <c r="C54">
         <v>812</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54">
+        <v>2019</v>
+      </c>
+      <c r="E54" t="s">
         <v>71</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>13</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>251</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>229</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>320</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>155</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="K54" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>468</v>
       </c>
-      <c r="M54" s="23">
+      <c r="N54" s="23">
         <v>2</v>
       </c>
-      <c r="N54" s="4" t="str">
+      <c r="O54" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:244
+        <v>ifcp:244
     rdfs:label "亀崎潮干祭の山車行事"@ja .
 &lt;https://w3id.org/ifcp/244/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:244 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23205-19950901&gt; ;
     crm:P14 "亀崎潮干祭保存会" ;
@@ -5855,10 +6051,10 @@
     crm:P4 [
         crm:P116 "2019-05-03" ;
         crm:P115 "2019-05-04" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="409.6">
       <c r="A55" s="11">
         <v>249</v>
       </c>
@@ -5866,42 +6062,46 @@
       <c r="C55">
         <v>823</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55">
+        <v>2019</v>
+      </c>
+      <c r="E55" t="s">
         <v>72</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>14</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>261</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>230</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>321</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>156</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="K55" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="L55" s="5" t="s">
+      <c r="M55" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="M55" s="23">
+      <c r="N55" s="23">
         <v>1</v>
       </c>
-      <c r="N55" s="4" t="str">
+      <c r="O55" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:249
+        <v>ifcp:249
     rdfs:label "桑名石取祭の祭車行事"@ja .
 &lt;https://w3id.org/ifcp/249/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:249 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24205-20041206&gt; ;
     crm:P14 "桑名石取祭保存会" ;
@@ -5909,10 +6109,10 @@
     crm:P4 [
         crm:P116 "2019-08-03" ;
         crm:P115 "2019-08-04" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="409.6">
       <c r="A56" s="11">
         <v>259</v>
       </c>
@@ -5920,42 +6120,46 @@
       <c r="C56">
         <v>853</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56">
+        <v>2019</v>
+      </c>
+      <c r="E56" t="s">
         <v>176</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>6</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>262</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>231</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>322</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>157</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="K56" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="L56" s="5" t="s">
+      <c r="M56" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="M56" s="23">
+      <c r="N56" s="23">
         <v>3</v>
       </c>
-      <c r="N56" s="4" t="str">
+      <c r="O56" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:259
+        <v>ifcp:259
     rdfs:label "新庄まつりの山車行事"@ja .
 &lt;https://w3id.org/ifcp/259/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:259 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06205-20050218&gt; ;
     crm:P14 "新庄まつり山車行事保存会" ;
@@ -5963,10 +6167,10 @@
     crm:P4 [
         crm:P116 "2019-08-24" ;
         crm:P115 "2019-08-26" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" s="8" customFormat="1" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="8" customFormat="1" ht="409.6">
       <c r="A57" s="24">
         <v>270</v>
       </c>
@@ -5974,42 +6178,46 @@
       <c r="C57" s="8">
         <v>875</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57">
+        <v>2019</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="F57" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="G57" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="H57" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="I57" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="I57" s="8" t="s">
+      <c r="J57" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>426</v>
       </c>
       <c r="K57" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="L57" s="8" t="s">
+      <c r="L57" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="M57" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="M57" s="26">
+      <c r="N57" s="26">
         <v>2</v>
       </c>
-      <c r="N57" s="27" t="str">
+      <c r="O57" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:270
+        <v>ifcp:270
     rdfs:label "小菅の柱松行事"@ja .
 &lt;https://w3id.org/ifcp/270/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:270 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20213-20000401&gt; ;
     crm:P14 "小菅柱松保存会" ;
@@ -6017,10 +6225,10 @@
     crm:P4 [
         crm:P116 "2019-07-21" ;
         crm:P115 "2019-07-21" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="409.6">
       <c r="A58" s="12">
         <v>272</v>
       </c>
@@ -6028,42 +6236,46 @@
       <c r="C58">
         <v>876</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58">
+        <v>2019</v>
+      </c>
+      <c r="E58" t="s">
         <v>74</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>99</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>257</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>103</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>324</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>159</v>
       </c>
-      <c r="J58" s="7" t="s">
+      <c r="K58" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="L58" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>474</v>
       </c>
-      <c r="M58" s="23">
+      <c r="N58" s="23">
         <v>4</v>
       </c>
-      <c r="N58" s="4" t="str">
+      <c r="O58" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:272
+        <v>ifcp:272
     rdfs:label "八代妙見祭の神幸行事"@ja .
 &lt;https://w3id.org/ifcp/272/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:272 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C43202-20050801&gt; ;
     crm:P14 "八代妙見祭保存振興会" ;
@@ -6071,10 +6283,10 @@
     crm:P4 [
         crm:P116 "2019-11-22" ;
         crm:P115 "2019-11-23" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="409.6">
       <c r="A59" s="11">
         <v>273</v>
       </c>
@@ -6082,42 +6294,46 @@
       <c r="C59">
         <v>881</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59">
+        <v>2019</v>
+      </c>
+      <c r="E59" t="s">
         <v>75</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>100</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>263</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>232</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>325</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>160</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="K59" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="K59" s="7" t="s">
+      <c r="L59" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="L59" s="5" t="s">
+      <c r="M59" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="M59" s="23">
+      <c r="N59" s="23">
         <v>4</v>
       </c>
-      <c r="N59" s="4" t="str">
+      <c r="O59" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:273
+        <v>ifcp:273
     rdfs:label "吉田の火祭"@ja .
 &lt;https://w3id.org/ifcp/273/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:273 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C19202-19700401&gt; ;
     crm:P14 "吉田の火祭保存会" ;
@@ -6125,10 +6341,10 @@
     crm:P4 [
         crm:P116 "2019-08-26" ;
         crm:P115 "2019-08-27" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="409.6">
       <c r="A60" s="11">
         <v>275</v>
       </c>
@@ -6136,42 +6352,46 @@
       <c r="C60">
         <v>882</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60">
+        <v>2019</v>
+      </c>
+      <c r="E60" t="s">
         <v>76</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>13</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>251</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>233</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>326</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>161</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="K60" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="K60" s="7" t="s">
+      <c r="L60" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>479</v>
       </c>
-      <c r="M60" s="23">
+      <c r="N60" s="23">
         <v>4</v>
       </c>
-      <c r="N60" s="4" t="str">
+      <c r="O60" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:275
+        <v>ifcp:275
     rdfs:label "須成祭の車楽船行事と神葭流し"@ja .
 &lt;https://w3id.org/ifcp/275/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:275 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23425-19960701&gt; ;
     crm:P14 "須成文化財保護委員会" ;
@@ -6179,10 +6399,10 @@
     crm:P4 [
         crm:P116 "2019-08-03" ;
         crm:P115 "2019-08-04" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="409.6">
       <c r="A61" s="12">
         <v>276</v>
       </c>
@@ -6190,42 +6410,46 @@
       <c r="C61">
         <v>884</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61">
+        <v>2019</v>
+      </c>
+      <c r="E61" t="s">
         <v>77</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>15</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>278</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>234</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>327</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>162</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="L61" s="5" t="s">
+      <c r="L61" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="M61" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="M61" s="23">
+      <c r="N61" s="23">
         <v>1</v>
       </c>
-      <c r="N61" s="4" t="str">
+      <c r="O61" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:276
+        <v>ifcp:276
     rdfs:label "坂越の船祭"@ja .
 &lt;https://w3id.org/ifcp/276/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:276 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28212-19700401&gt; ;
     crm:P14 "坂越の船渡御祭保存会" ;
@@ -6233,10 +6457,10 @@
     crm:P4 [
         crm:P116 "2019-10-13" ;
         crm:P115 "2019-10-13" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="409.6">
       <c r="A62" s="12">
         <v>282</v>
       </c>
@@ -6244,42 +6468,46 @@
       <c r="C62">
         <v>893</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62">
+        <v>2019</v>
+      </c>
+      <c r="E62" t="s">
         <v>78</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>4</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>265</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>235</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="I62" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>163</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="K62" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="K62" s="7" t="s">
+      <c r="L62" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="L62" s="5" t="s">
+      <c r="M62" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="M62" s="23">
+      <c r="N62" s="23">
         <v>3</v>
       </c>
-      <c r="N62" s="4" t="str">
+      <c r="O62" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:282
+        <v>ifcp:282
     rdfs:label "花輪祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/282/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:282 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05209-19980601&gt; ;
     crm:P14 "花輪ばやし祭典委員会" ;
@@ -6287,10 +6515,10 @@
     crm:P4 [
         crm:P116 "2019-08-19" ;
         crm:P115 "2019-08-21" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="409.6">
       <c r="A63" s="11">
         <v>283</v>
       </c>
@@ -6298,42 +6526,46 @@
       <c r="C63">
         <v>894</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63">
+        <v>2019</v>
+      </c>
+      <c r="E63" t="s">
         <v>79</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>6</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>262</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>236</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>329</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>164</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="K63" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="K63" s="7" t="s">
+      <c r="L63" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>486</v>
       </c>
-      <c r="M63" s="23">
+      <c r="N63" s="23">
         <v>2</v>
       </c>
-      <c r="N63" s="4" t="str">
+      <c r="O63" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:283
+        <v>ifcp:283
     rdfs:label "松例祭の大松明行事"@ja .
 &lt;https://w3id.org/ifcp/283/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:283 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06203-20180131&gt; ;
     crm:P14 "松例祭保存会" ;
@@ -6341,10 +6573,10 @@
     crm:P4 [
         crm:P116 "2019-12-31" ;
         crm:P115 "2020-01-01" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="409.6">
       <c r="A64" s="12">
         <v>288</v>
       </c>
@@ -6352,42 +6584,46 @@
       <c r="C64">
         <v>921</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64">
+        <v>2019</v>
+      </c>
+      <c r="E64" t="s">
         <v>80</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>90</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>255</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>237</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>330</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>165</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="K64" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="L64" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="L64" s="5" t="s">
+      <c r="M64" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="M64" s="23">
+      <c r="N64" s="23">
         <v>3</v>
       </c>
-      <c r="N64" s="4" t="str">
+      <c r="O64" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:288
+        <v>ifcp:288
     rdfs:label "大垣祭の軕行事"@ja .
 &lt;https://w3id.org/ifcp/288/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:288 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21202-20091031&gt; ;
     crm:P14 "大垣祭保存会" ;
@@ -6395,10 +6631,10 @@
     crm:P4 [
         crm:P116 "2019-05-11" ;
         crm:P115 "2019-05-12" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="409.6">
       <c r="A65" s="12">
         <v>290</v>
       </c>
@@ -6406,42 +6642,46 @@
       <c r="C65">
         <v>923</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65">
+        <v>2019</v>
+      </c>
+      <c r="E65" t="s">
         <v>81</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>97</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="G65" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>238</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>331</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>166</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L65" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="M65" t="s">
         <v>490</v>
       </c>
-      <c r="M65" s="23">
+      <c r="N65" s="23">
         <v>4</v>
       </c>
-      <c r="N65" s="4" t="str">
+      <c r="O65" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:290
+        <v>ifcp:290
     rdfs:label "那智の扇祭り"@ja .
 &lt;https://w3id.org/ifcp/290/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:290 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30421-19700401&gt; ;
     crm:P14 "那智の扇祭り保存会" ;
@@ -6449,10 +6689,10 @@
     crm:P4 [
         crm:P116 "2019-07-14" ;
         crm:P115 "2019-07-14" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="409.6">
       <c r="A66" s="11">
         <v>291</v>
       </c>
@@ -6460,42 +6700,46 @@
       <c r="C66">
         <v>933</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66">
+        <v>2019</v>
+      </c>
+      <c r="E66" t="s">
         <v>82</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>91</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>264</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>239</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>332</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>167</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L66" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="M66" t="s">
         <v>492</v>
       </c>
-      <c r="M66" s="23">
+      <c r="N66" s="23">
         <v>3</v>
       </c>
-      <c r="N66" s="4" t="str">
+      <c r="O66" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:291
+        <v>ifcp:291
     rdfs:label "大津祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/291/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:291 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25201-20090401&gt; ;
     crm:P14 "大津祭保存会" ;
@@ -6503,10 +6747,10 @@
     crm:P4 [
         crm:P116 "開催せず" ;
         crm:P115 "開催せず" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" s="8" customFormat="1" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" s="8" customFormat="1" ht="409.6">
       <c r="A67" s="24">
         <v>292</v>
       </c>
@@ -6514,53 +6758,58 @@
       <c r="C67" s="8">
         <v>934</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67">
+        <v>2019</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="F67" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="G67" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="H67" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="I67" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="I67" s="8" t="s">
+      <c r="J67" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>494</v>
       </c>
       <c r="K67" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="L67" s="8" t="s">
+      <c r="L67" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="M67" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="M67" s="26">
+      <c r="N67" s="26">
         <v>3</v>
       </c>
-      <c r="N67" s="27" t="str">
-        <f t="shared" ref="N67:N71" si="1">"ifcp:"&amp;A67&amp;"
-    rdfs:label """&amp;D67&amp;"""@ja .
+      <c r="O67" s="4" t="str">
+        <f t="shared" ref="O67:O71" si="1">"ifcp:"&amp;A67&amp;"
+    rdfs:label """&amp;E67&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A67&amp;"/held/2019/"&amp;B67&amp;"&gt;
     rdf:type crm:E5 ;
+    crm:P170 "&amp;D67&amp;" ;
     crm:P17 ifcp:"&amp;A67&amp;" ;
-    crm:P7 &lt;"&amp;H67&amp;"&gt; ;
-    crm:P14 """&amp;I67&amp;""" ;
-    crm:P67 &lt;"&amp;L67&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;J67&amp;""" ;
-        crm:P115 """&amp;K67&amp;""" 
-    ] . "</f>
-        <v xml:space="preserve">ifcp:292
+    crm:P7 &lt;"&amp;I67&amp;"&gt; ;
+    crm:P14 """&amp;J67&amp;""" ;
+    crm:P67 &lt;"&amp;M67&amp;"&gt; ;
+    crm:P4 [
+        crm:P116 """&amp;K67&amp;""" ;
+        crm:P115 """&amp;L67&amp;""" 
+    ] ."</f>
+        <v>ifcp:292
     rdfs:label "新宮の速玉祭・御燈祭り"@ja .
 &lt;https://w3id.org/ifcp/292/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:292 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30207-20051001&gt; ;
     crm:P14 "熊野速玉大社祭事保存会" ;
@@ -6568,10 +6817,10 @@
     crm:P4 [
         crm:P116 "2019-02-06" ;
         crm:P115 "2019-02-06" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="409.6">
       <c r="A68" s="11">
         <v>293</v>
       </c>
@@ -6579,42 +6828,46 @@
       <c r="C68">
         <v>935</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68">
+        <v>2019</v>
+      </c>
+      <c r="E68" t="s">
         <v>84</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>101</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>252</v>
       </c>
-      <c r="G68" s="22" t="s">
+      <c r="H68" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="I68" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>169</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="M68" t="s">
         <v>495</v>
       </c>
-      <c r="M68" s="23">
+      <c r="N68" s="23">
         <v>4</v>
       </c>
-      <c r="N68" s="4" t="str">
+      <c r="O68" s="4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ifcp:293
+        <v>ifcp:293
     rdfs:label "西大寺の会陽"@ja .
 &lt;https://w3id.org/ifcp/293/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:293 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C33201-20090401&gt; ;
     crm:P14 "西大寺会陽保存会" ;
@@ -6622,10 +6875,10 @@
     crm:P4 [
         crm:P116 "2019-02-16" ;
         crm:P115 "2019-02-16" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="409.6">
       <c r="A69" s="11">
         <v>295</v>
       </c>
@@ -6633,42 +6886,46 @@
       <c r="C69">
         <v>941</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69">
+        <v>2019</v>
+      </c>
+      <c r="E69" t="s">
         <v>85</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>88</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>249</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>242</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>335</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>170</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="K69" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="K69" s="7" t="s">
+      <c r="L69" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>497</v>
       </c>
-      <c r="M69" s="23">
+      <c r="N69" s="23">
         <v>2</v>
       </c>
-      <c r="N69" s="4" t="str">
+      <c r="O69" s="4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ifcp:295
+        <v>ifcp:295
     rdfs:label "常陸大津の御船祭"@ja .
 &lt;https://w3id.org/ifcp/295/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:295 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08215-19981001&gt; ;
     crm:P14 "常陸大津の御船祭保存会" ;
@@ -6676,10 +6933,10 @@
     crm:P4 [
         crm:P116 "2019-05-02" ;
         crm:P115 "2019-05-03" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="409.6">
       <c r="A70" s="11">
         <v>301</v>
       </c>
@@ -6687,42 +6944,46 @@
       <c r="C70">
         <v>951</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70">
+        <v>2019</v>
+      </c>
+      <c r="E70" t="s">
         <v>86</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>9</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>266</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>243</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="I70" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>171</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="L70" s="5" t="s">
+      <c r="L70" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="M70" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="M70" s="23">
+      <c r="N70" s="23">
         <v>4</v>
       </c>
-      <c r="N70" s="4" t="str">
+      <c r="O70" s="4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ifcp:301
+        <v>ifcp:301
     rdfs:label "浦佐毘沙門堂の裸押合"@ja .
 &lt;https://w3id.org/ifcp/301/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:301 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15226-20051001&gt; ;
     crm:P14 "浦佐毘沙門堂裸押合大祭委員会" ;
@@ -6730,10 +6991,10 @@
     crm:P4 [
         crm:P116 "2019-03-03" ;
         crm:P115 "2019-03-03" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="409.6">
+    ] .</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="409.6">
       <c r="A71" s="12">
         <v>302</v>
       </c>
@@ -6741,42 +7002,46 @@
       <c r="C71">
         <v>950</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71">
+        <v>2019</v>
+      </c>
+      <c r="E71" t="s">
         <v>87</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>9</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>266</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>244</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>337</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>172</v>
       </c>
-      <c r="J71" s="7" t="s">
+      <c r="K71" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="K71" s="7" t="s">
+      <c r="L71" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>501</v>
       </c>
-      <c r="M71" s="23">
+      <c r="N71" s="23">
         <v>4</v>
       </c>
-      <c r="N71" s="4" t="str">
+      <c r="O71" s="4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ifcp:302
+        <v>ifcp:302
     rdfs:label "村上祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/302/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:302 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15212-20100616&gt; ;
     crm:P14 "村上まつり保存会" ;
@@ -6784,35 +7049,35 @@
     crm:P4 [
         crm:P116 "2019-07-06" ;
         crm:P115 "2019-07-08" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="N72" s="4"/>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="N73" s="4"/>
+    ] .</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="O72" s="4"/>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="O73" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E71" xr:uid="{2C1D6245-B618-534D-B1F6-4DEECE8891FB}"/>
+  <autoFilter ref="F1:F71" xr:uid="{2C1D6245-B618-534D-B1F6-4DEECE8891FB}"/>
   <phoneticPr fontId="18"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{B96028CE-791A-0C4C-ABBE-3667E82CD0FD}"/>
-    <hyperlink ref="H34" r:id="rId2" xr:uid="{B41E3D5A-054D-FF48-B9A9-354497192E16}"/>
-    <hyperlink ref="H35" r:id="rId3" xr:uid="{E8D6E37C-CE7E-6B4E-94C4-C582695AC616}"/>
-    <hyperlink ref="H53" r:id="rId4" xr:uid="{46904CFB-38E3-644D-8824-D1CE4BB69257}"/>
-    <hyperlink ref="H62" r:id="rId5" xr:uid="{00B31248-936D-2547-85BB-6C6E49D42575}"/>
-    <hyperlink ref="H68" r:id="rId6" xr:uid="{73227319-7AD1-9D41-BC7E-588DAD6D010D}"/>
-    <hyperlink ref="H70" r:id="rId7" xr:uid="{D5932380-8CE9-5C4F-850D-E62133C7A59D}"/>
-    <hyperlink ref="H5" r:id="rId8" xr:uid="{2E1878D3-CDCB-1F46-84D8-709CB0BB16C3}"/>
-    <hyperlink ref="H10" r:id="rId9" xr:uid="{6F29CB32-5464-C842-8022-60830F035917}"/>
-    <hyperlink ref="H14" r:id="rId10" xr:uid="{A58E152C-8016-BE4F-9321-8E6CB2CA5166}"/>
-    <hyperlink ref="H22" r:id="rId11" xr:uid="{6034268F-5CF0-4646-BF62-8903117AAFFC}"/>
-    <hyperlink ref="H27" r:id="rId12" xr:uid="{E0E33CB3-F726-5745-B319-DE38403C16AD}"/>
-    <hyperlink ref="L35" r:id="rId13" xr:uid="{A81369A2-76C9-1F46-80C4-730287F012C3}"/>
-    <hyperlink ref="L55" r:id="rId14" xr:uid="{F07150A1-EB20-734E-A279-2B142E9773CB}"/>
-    <hyperlink ref="L61" r:id="rId15" xr:uid="{2D30BDEA-21AA-0C47-B709-067889D39639}"/>
-    <hyperlink ref="L70" r:id="rId16" xr:uid="{07055E0E-65B0-FA4A-ABAF-76935E39088C}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{B96028CE-791A-0C4C-ABBE-3667E82CD0FD}"/>
+    <hyperlink ref="I34" r:id="rId2" xr:uid="{B41E3D5A-054D-FF48-B9A9-354497192E16}"/>
+    <hyperlink ref="I35" r:id="rId3" xr:uid="{E8D6E37C-CE7E-6B4E-94C4-C582695AC616}"/>
+    <hyperlink ref="I53" r:id="rId4" xr:uid="{46904CFB-38E3-644D-8824-D1CE4BB69257}"/>
+    <hyperlink ref="I62" r:id="rId5" xr:uid="{00B31248-936D-2547-85BB-6C6E49D42575}"/>
+    <hyperlink ref="I68" r:id="rId6" xr:uid="{73227319-7AD1-9D41-BC7E-588DAD6D010D}"/>
+    <hyperlink ref="I70" r:id="rId7" xr:uid="{D5932380-8CE9-5C4F-850D-E62133C7A59D}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{2E1878D3-CDCB-1F46-84D8-709CB0BB16C3}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{6F29CB32-5464-C842-8022-60830F035917}"/>
+    <hyperlink ref="I14" r:id="rId10" xr:uid="{A58E152C-8016-BE4F-9321-8E6CB2CA5166}"/>
+    <hyperlink ref="I22" r:id="rId11" xr:uid="{6034268F-5CF0-4646-BF62-8903117AAFFC}"/>
+    <hyperlink ref="I27" r:id="rId12" xr:uid="{E0E33CB3-F726-5745-B319-DE38403C16AD}"/>
+    <hyperlink ref="M35" r:id="rId13" xr:uid="{A81369A2-76C9-1F46-80C4-730287F012C3}"/>
+    <hyperlink ref="M55" r:id="rId14" xr:uid="{F07150A1-EB20-734E-A279-2B142E9773CB}"/>
+    <hyperlink ref="M61" r:id="rId15" xr:uid="{2D30BDEA-21AA-0C47-B709-067889D39639}"/>
+    <hyperlink ref="M70" r:id="rId16" xr:uid="{07055E0E-65B0-FA4A-ABAF-76935E39088C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_p6_event_2019.xlsx
+++ b/list_p6_event_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65D68F2-070B-1C4B-8A2D-D852C0F2D1F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61B12BB-2A48-644F-A846-E4068F50E41A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37640" yWindow="1360" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="502">
   <si>
     <t>管理対象ID</t>
   </si>
@@ -1551,10 +1551,6 @@
   </si>
   <si>
     <t>https://ryukyushimpo.jp/photo/entry-973995.html</t>
-  </si>
-  <si>
-    <t>209-08-18</t>
-    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>2019-08-18</t>
@@ -2916,8 +2912,8 @@
   <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2936,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -4994,7 +4990,7 @@
         <v>433</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M36" t="s">
         <v>432</v>
@@ -5014,7 +5010,7 @@
     crm:P14 "田港区、屋古区、塩屋区、白浜区" ;
     crm:P67 &lt;https://ryukyushimpo.jp/photo/entry-973995.html&gt; ;
     crm:P4 [
-        crm:P116 "209-08-18" ;
+        crm:P116 "2019-08-18" ;
         crm:P115 "2019-08-18" 
     ] .</v>
       </c>
@@ -5049,13 +5045,13 @@
         <v>138</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N37" s="23">
         <v>4</v>
@@ -5089,7 +5085,7 @@
         <v>2019</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>9</v>
@@ -5162,7 +5158,7 @@
         <v>373</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N39" s="23">
         <v>4</v>
@@ -5214,13 +5210,13 @@
         <v>141</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N40" s="26">
         <v>4</v>
@@ -5275,10 +5271,10 @@
         <v>354</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N41" s="26">
         <v>3</v>
@@ -5330,13 +5326,13 @@
         <v>143</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N42" s="23">
         <v>4</v>
@@ -5388,13 +5384,13 @@
         <v>144</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M43" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N43" s="23">
         <v>4</v>
@@ -5449,10 +5445,10 @@
         <v>416</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M44" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N44" s="23">
         <v>3</v>
@@ -5510,7 +5506,7 @@
         <v>351</v>
       </c>
       <c r="M45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N45" s="23">
         <v>4</v>
@@ -5562,13 +5558,13 @@
         <v>147</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N46" s="23">
         <v>1</v>
@@ -5620,13 +5616,13 @@
         <v>148</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M47" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N47" s="23">
         <v>4</v>
@@ -5684,7 +5680,7 @@
         <v>382</v>
       </c>
       <c r="M48" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N48" s="23">
         <v>2</v>
@@ -5736,13 +5732,13 @@
         <v>150</v>
       </c>
       <c r="K49" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="L49" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="L49" s="18" t="s">
-        <v>457</v>
-      </c>
       <c r="M49" s="16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N49" s="23">
         <v>4</v>
@@ -5794,13 +5790,13 @@
         <v>151</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M50" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N50" s="23">
         <v>4</v>
@@ -5852,13 +5848,13 @@
         <v>152</v>
       </c>
       <c r="K51" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="L51" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="L51" s="7" t="s">
-        <v>462</v>
-      </c>
       <c r="M51" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N51" s="23">
         <v>4</v>
@@ -5910,13 +5906,13 @@
         <v>153</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M52" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N52" s="23">
         <v>4</v>
@@ -5968,13 +5964,13 @@
         <v>154</v>
       </c>
       <c r="K53" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="L53" s="7" t="s">
-        <v>466</v>
-      </c>
       <c r="M53" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N53" s="23">
         <v>4</v>
@@ -6029,10 +6025,10 @@
         <v>350</v>
       </c>
       <c r="L54" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="M54" t="s">
         <v>467</v>
-      </c>
-      <c r="M54" t="s">
-        <v>468</v>
       </c>
       <c r="N54" s="23">
         <v>2</v>
@@ -6090,7 +6086,7 @@
         <v>382</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N55" s="23">
         <v>1</v>
@@ -6142,13 +6138,13 @@
         <v>157</v>
       </c>
       <c r="K56" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="L56" s="7" t="s">
-        <v>472</v>
-      </c>
       <c r="M56" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N56" s="23">
         <v>3</v>
@@ -6206,7 +6202,7 @@
         <v>426</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N57" s="26">
         <v>2</v>
@@ -6258,13 +6254,13 @@
         <v>159</v>
       </c>
       <c r="K58" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="L58" s="7" t="s">
-        <v>476</v>
-      </c>
       <c r="M58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N58" s="23">
         <v>4</v>
@@ -6316,13 +6312,13 @@
         <v>160</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N59" s="23">
         <v>4</v>
@@ -6380,7 +6376,7 @@
         <v>382</v>
       </c>
       <c r="M60" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N60" s="23">
         <v>4</v>
@@ -6432,13 +6428,13 @@
         <v>162</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N61" s="23">
         <v>1</v>
@@ -6490,13 +6486,13 @@
         <v>163</v>
       </c>
       <c r="K62" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="L62" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="L62" s="7" t="s">
-        <v>483</v>
-      </c>
       <c r="M62" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N62" s="23">
         <v>3</v>
@@ -6548,13 +6544,13 @@
         <v>164</v>
       </c>
       <c r="K63" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="L63" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="L63" s="7" t="s">
+      <c r="M63" t="s">
         <v>485</v>
-      </c>
-      <c r="M63" t="s">
-        <v>486</v>
       </c>
       <c r="N63" s="23">
         <v>2</v>
@@ -6606,13 +6602,13 @@
         <v>165</v>
       </c>
       <c r="K64" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="L64" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="L64" s="7" t="s">
-        <v>489</v>
-      </c>
       <c r="M64" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N64" s="23">
         <v>3</v>
@@ -6664,13 +6660,13 @@
         <v>166</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M65" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N65" s="23">
         <v>4</v>
@@ -6728,7 +6724,7 @@
         <v>408</v>
       </c>
       <c r="M66" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N66" s="23">
         <v>3</v>
@@ -6780,13 +6776,13 @@
         <v>168</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N67" s="26">
         <v>3</v>
@@ -6850,13 +6846,13 @@
         <v>169</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M68" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N68" s="23">
         <v>4</v>
@@ -6908,13 +6904,13 @@
         <v>170</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L69" s="7" t="s">
         <v>350</v>
       </c>
       <c r="M69" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N69" s="23">
         <v>2</v>
@@ -6966,13 +6962,13 @@
         <v>171</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N70" s="23">
         <v>4</v>
@@ -7030,7 +7026,7 @@
         <v>412</v>
       </c>
       <c r="M71" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N71" s="23">
         <v>4</v>

--- a/list_p6_event_2019.xlsx
+++ b/list_p6_event_2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61B12BB-2A48-644F-A846-E4068F50E41A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ED9EE0-FD5F-D840-9881-3B77E5B37EBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37640" yWindow="1360" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2912,8 +2912,8 @@
   <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3014,7 +3014,7 @@
     rdfs:label """&amp;E2&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2019/"&amp;B2&amp;"&gt;
     rdf:type crm:E5 ;
-    crm:P170 "&amp;D2&amp;" ;
+    crm:P12 "&amp;D2&amp;" ;
     crm:P17 ifcp:"&amp;A2&amp;" ;
     crm:P7 &lt;"&amp;I2&amp;"&gt; ;
     crm:P14 """&amp;J2&amp;""" ;
@@ -3027,7 +3027,7 @@
     rdfs:label "日立風流物"@ja .
 &lt;https://w3id.org/ifcp/33/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:33 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08202-20041101&gt; ;
     crm:P14 "日立郷土芸能保存会" ;
@@ -3084,7 +3084,7 @@
     rdfs:label """&amp;E3&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2019/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
-    crm:P170 "&amp;D3&amp;" ;
+    crm:P12 "&amp;D3&amp;" ;
     crm:P17 ifcp:"&amp;A3&amp;" ;
     crm:P7 &lt;"&amp;I3&amp;"&gt; ;
     crm:P14 """&amp;J3&amp;""" ;
@@ -3097,7 +3097,7 @@
     rdfs:label "烏山の山あげ行事"@ja .
 &lt;https://w3id.org/ifcp/63/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:63 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09215-20120801&gt; ;
     crm:P14 "烏山山あげ保存会" ;
@@ -3155,7 +3155,7 @@
     rdfs:label "秩父祭の屋台行事と神楽"@ja .
 &lt;https://w3id.org/ifcp/64/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:64 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11207-20050401&gt; ;
     crm:P14 "秩父祭保存委員会" ;
@@ -3213,7 +3213,7 @@
     rdfs:label "高岡御車山祭の御車山行事"@ja .
 &lt;https://w3id.org/ifcp/66/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:66 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16202-20051101&gt; ;
     crm:P14 "高岡御車山保存会" ;
@@ -3273,7 +3273,7 @@
     rdfs:label "高山祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/69/held/2019/1&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:69 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
     crm:P14 "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
@@ -3333,7 +3333,7 @@
     rdfs:label "高山祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/69/held/2019/2&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:69 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
     crm:P14 "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
@@ -3391,7 +3391,7 @@
     rdfs:label "長浜曳山祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/71/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:71 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25203-20100101&gt; ;
     crm:P14 "（公益財団法人）長浜曳山文化協会" ;
@@ -3449,7 +3449,7 @@
     rdfs:label "京都祇園祭の山鉾行事"@ja .
 &lt;https://w3id.org/ifcp/72/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:72 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26100-20041220&gt; ;
     crm:P14 "公益財団法人祇園祭山鉾連合会" ;
@@ -3507,7 +3507,7 @@
     rdfs:label "博多祇園山笠行事"@ja .
 &lt;https://w3id.org/ifcp/79/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:79 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40132-19720401&gt; ;
     crm:P14 "博多祇園山笠振興会" ;
@@ -3565,7 +3565,7 @@
     rdfs:label "青森のねぶた"@ja .
 &lt;https://w3id.org/ifcp/81/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:81 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02201-20070901&gt; ;
     crm:P14 "青森ねぶた祭保存会" ;
@@ -3623,7 +3623,7 @@
     rdfs:label "弘前のねぷた"@ja .
 &lt;https://w3id.org/ifcp/82/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:82 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
     crm:P14 "弘前ねぷた保存会" ;
@@ -3681,7 +3681,7 @@
     rdfs:label "秋田の竿灯"@ja .
 &lt;https://w3id.org/ifcp/84/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:84 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
     crm:P14 "秋田市竿灯会" ;
@@ -3739,7 +3739,7 @@
     rdfs:label "金沢の羽山ごもり"@ja .
 &lt;https://w3id.org/ifcp/85/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:85 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07201-20080701&gt; ;
     crm:P14 "羽山ごもり保存会" ;
@@ -3797,7 +3797,7 @@
     rdfs:label "古川祭の起し太鼓・屋台行事"@ja .
 &lt;https://w3id.org/ifcp/90/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:90 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21217-20040201&gt; ;
     crm:P14 "古川祭保存会" ;
@@ -3855,7 +3855,7 @@
     rdfs:label "尾張津島天王祭の車楽舟行事"@ja .
 &lt;https://w3id.org/ifcp/91/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:91 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23208-19900401&gt; ;
     crm:P14 "尾張津島天王祭協賛会" ;
@@ -3913,7 +3913,7 @@
     rdfs:label "豊橋神明社の鬼祭"@ja .
 &lt;https://w3id.org/ifcp/92/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:92 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23201-19990401&gt; ;
     crm:P14 "豊橋鬼祭保存会" ;
@@ -3971,7 +3971,7 @@
     rdfs:label "戸畑祇園大山笠行事"@ja .
 &lt;https://w3id.org/ifcp/95/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:95 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40100-20081001&gt; ;
     crm:P14 "戸畑祇園大山笠振興会" ;
@@ -4029,7 +4029,7 @@
     rdfs:label "唐津くんちの曳山行事"@ja .
 &lt;https://w3id.org/ifcp/96/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:96 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41202-20060101&gt; ;
     crm:P14 "唐津曳山取締会" ;
@@ -4087,7 +4087,7 @@
     rdfs:label "田島祇園祭のおとうや行事"@ja .
 &lt;https://w3id.org/ifcp/100/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:100 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07368-20060320&gt; ;
     crm:P14 "田島祇園祭のおとうや行事保存会" ;
@@ -4145,7 +4145,7 @@
     rdfs:label "熊甲二十日祭の枠旗行事"@ja .
 &lt;https://w3id.org/ifcp/102/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:102 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17202-20090901&gt; ;
     crm:P14 "お熊甲祭奉賛会" ;
@@ -4203,7 +4203,7 @@
     rdfs:label "青柏祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/114/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:114 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172020010&gt; ;
     crm:P14 "青柏祭でか山保存会" ;
@@ -4261,7 +4261,7 @@
     rdfs:label "岩木山の登拝行事"@ja .
 &lt;https://w3id.org/ifcp/120/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:120 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
     crm:P14 "お山参詣保存会" ;
@@ -4319,7 +4319,7 @@
     rdfs:label "室根神社祭のマツリバ行事"@ja .
 &lt;https://w3id.org/ifcp/122/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:122 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C03209-20170904&gt; ;
     crm:P14 "室根神社祭保存会" ;
@@ -4377,7 +4377,7 @@
     rdfs:label "東湖八坂神社のトウニン（統人）行事"@ja .
 &lt;https://w3id.org/ifcp/126/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:126 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05211-20050322&gt; ;
     crm:P14 "東湖八坂神社崇敬会、船越町内連合会" ;
@@ -4435,7 +4435,7 @@
     rdfs:label "涌出宮の宮座行事"@ja .
 &lt;https://w3id.org/ifcp/129/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:129 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26214-20070312&gt; ;
     crm:P14 "涌出宮宮座行事保存会" ;
@@ -4493,7 +4493,7 @@
     rdfs:label "角館祭りのやま行事"@ja .
 &lt;https://w3id.org/ifcp/149/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:149 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052150130&gt; ;
     crm:P14 "角館のお祭り保存会" ;
@@ -4551,7 +4551,7 @@
     rdfs:label "近江中山の芋競べ祭り"@ja .
 &lt;https://w3id.org/ifcp/150/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:150 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25383-19700401&gt; ;
     crm:P14 "芋くらべ祭保存会" ;
@@ -4598,7 +4598,7 @@
     rdfs:label "白間津のオオマチ（大祭）行事"@ja .
 &lt;https://w3id.org/ifcp/153/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:153 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12466-20060320&gt; ;
     crm:P14 "白間津区" ;
@@ -4656,7 +4656,7 @@
     rdfs:label "発光路の強飯式"@ja .
 &lt;https://w3id.org/ifcp/171/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:171 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09205-20120801&gt; ;
     crm:P14 "発光路妙見神社青年部" ;
@@ -4714,7 +4714,7 @@
     rdfs:label "貴船神社の船祭り"@ja .
 &lt;https://w3id.org/ifcp/172/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:172 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14383-19700401&gt; ;
     crm:P14 "貴船祭保存会" ;
@@ -4772,7 +4772,7 @@
     rdfs:label "日田祗園の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/176/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:176 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C44204-20050322&gt; ;
     crm:P14 "日田祗園山鉾振興会" ;
@@ -4830,7 +4830,7 @@
     rdfs:label "土崎神明社祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/178/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:178 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
     crm:P14 "土崎神明社奉賛会" ;
@@ -4888,7 +4888,7 @@
     rdfs:label "魚津のタテモン行事"@ja .
 &lt;https://w3id.org/ifcp/180/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:180 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16204-19890601&gt; ;
     crm:P14 "魚津たてもん保存会" ;
@@ -4946,7 +4946,7 @@
     rdfs:label "鳥出神社の鯨船行事"@ja .
 &lt;https://w3id.org/ifcp/182/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:182 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24202-20001101&gt; ;
     crm:P14 "富田鯨船保存会連合会" ;
@@ -5004,7 +5004,7 @@
     rdfs:label "塩屋湾のウンガミ"@ja .
 &lt;https://w3id.org/ifcp/187/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:187 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47302-19780601&gt; ;
     crm:P14 "田港区、屋古区、塩屋区、白浜区" ;
@@ -5062,7 +5062,7 @@
     rdfs:label "等覚寺の松会"@ja .
 &lt;https://w3id.org/ifcp/192/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:192 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40621-19700401&gt; ;
     crm:P14 "等覚寺松会保存会" ;
@@ -5111,7 +5111,7 @@
     rdfs:label "山北のボタモチ祭り"@ja .
 &lt;https://w3id.org/ifcp/197/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:197 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15212-20080401&gt; ;
     crm:P14 "中浜ボタモチ祭保存会、杉平ボタモチ祭保存会、岩石ボタモチ保存会" ;
@@ -5169,7 +5169,7 @@
     rdfs:label "滑川のネブタ流し"@ja .
 &lt;https://w3id.org/ifcp/198/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:198 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16206-19910325&gt; ;
     crm:P14 "中川原、常盤町一区・二区・三区" ;
@@ -5227,7 +5227,7 @@
     rdfs:label "大江八幡神社の御船行事"@ja .
 &lt;https://w3id.org/ifcp/199/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:199 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22226-20051011&gt; ;
     crm:P14 "大江氏子会" ;
@@ -5285,7 +5285,7 @@
     rdfs:label "河内祭の御舟行事"@ja .
 &lt;https://w3id.org/ifcp/201/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:201 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30423-20050401&gt; ;
     crm:P14 "古座川河内祭保存会、古座獅子舞保存会" ;
@@ -5343,7 +5343,7 @@
     rdfs:label "片品の猿追い祭"@ja .
 &lt;https://w3id.org/ifcp/205/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:205 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C10443-19700401&gt; ;
     crm:P14 "猿追い祭保存会" ;
@@ -5401,7 +5401,7 @@
     rdfs:label "気多の鵜祭の習俗"@ja .
 &lt;https://w3id.org/ifcp/206/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:206 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172021060&gt; ;
     crm:P14 "気多大社、鵜浦町会" ;
@@ -5459,7 +5459,7 @@
     rdfs:label "見付天神裸祭"@ja .
 &lt;https://w3id.org/ifcp/208/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:208 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22211-20090217&gt; ;
     crm:P14 "見付天神裸祭保存会" ;
@@ -5517,7 +5517,7 @@
     rdfs:label "城端神明宮祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/215/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:215 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16210-20041101&gt; ;
     crm:P14 "城端曳山祭保存会" ;
@@ -5575,7 +5575,7 @@
     rdfs:label "上野天神祭のダンジリ行事"@ja .
 &lt;https://w3id.org/ifcp/216/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:216 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24216-20041101&gt; ;
     crm:P14 "上野文化美術保存会" ;
@@ -5633,7 +5633,7 @@
     rdfs:label "鹿沼今宮神社祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/219/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:219 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S092050100&gt; ;
     crm:P14 "鹿沼いまみや付け祭り保存会" ;
@@ -5691,7 +5691,7 @@
     rdfs:label "八戸三社大祭の山車行事"@ja .
 &lt;https://w3id.org/ifcp/220/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:220 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02203-20170101&gt; ;
     crm:P14 "八戸三社大祭山車祭り行事保存会" ;
@@ -5749,7 +5749,7 @@
     rdfs:label "佐原の山車行事"@ja .
 &lt;https://w3id.org/ifcp/226/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:226 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12236-20060327&gt; ;
     crm:P14 "佐原山車行事伝承保存会" ;
@@ -5807,7 +5807,7 @@
     rdfs:label "川越氷川祭の山車行事"@ja .
 &lt;https://w3id.org/ifcp/231/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:231 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11201-20030401&gt; ;
     crm:P14 "川越氷川祭の山車行事保存会" ;
@@ -5865,7 +5865,7 @@
     rdfs:label "茂名の里芋祭"@ja .
 &lt;https://w3id.org/ifcp/232/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:232 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S122050440&gt; ;
     crm:P14 "茂名区" ;
@@ -5923,7 +5923,7 @@
     rdfs:label "三上のずいき祭"@ja .
 &lt;https://w3id.org/ifcp/234/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:234 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S252100330&gt; ;
     crm:P14 "ずいき祭保存会" ;
@@ -5981,7 +5981,7 @@
     rdfs:label "犬山祭の車山行事"@ja .
 &lt;https://w3id.org/ifcp/243/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:243 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23215-19830301&gt; ;
     crm:P14 "犬山祭保存会" ;
@@ -6039,7 +6039,7 @@
     rdfs:label "亀崎潮干祭の山車行事"@ja .
 &lt;https://w3id.org/ifcp/244/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:244 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23205-19950901&gt; ;
     crm:P14 "亀崎潮干祭保存会" ;
@@ -6097,7 +6097,7 @@
     rdfs:label "桑名石取祭の祭車行事"@ja .
 &lt;https://w3id.org/ifcp/249/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:249 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24205-20041206&gt; ;
     crm:P14 "桑名石取祭保存会" ;
@@ -6155,7 +6155,7 @@
     rdfs:label "新庄まつりの山車行事"@ja .
 &lt;https://w3id.org/ifcp/259/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:259 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06205-20050218&gt; ;
     crm:P14 "新庄まつり山車行事保存会" ;
@@ -6213,7 +6213,7 @@
     rdfs:label "小菅の柱松行事"@ja .
 &lt;https://w3id.org/ifcp/270/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:270 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20213-20000401&gt; ;
     crm:P14 "小菅柱松保存会" ;
@@ -6271,7 +6271,7 @@
     rdfs:label "八代妙見祭の神幸行事"@ja .
 &lt;https://w3id.org/ifcp/272/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:272 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C43202-20050801&gt; ;
     crm:P14 "八代妙見祭保存振興会" ;
@@ -6329,7 +6329,7 @@
     rdfs:label "吉田の火祭"@ja .
 &lt;https://w3id.org/ifcp/273/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:273 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C19202-19700401&gt; ;
     crm:P14 "吉田の火祭保存会" ;
@@ -6387,7 +6387,7 @@
     rdfs:label "須成祭の車楽船行事と神葭流し"@ja .
 &lt;https://w3id.org/ifcp/275/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:275 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23425-19960701&gt; ;
     crm:P14 "須成文化財保護委員会" ;
@@ -6445,7 +6445,7 @@
     rdfs:label "坂越の船祭"@ja .
 &lt;https://w3id.org/ifcp/276/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:276 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28212-19700401&gt; ;
     crm:P14 "坂越の船渡御祭保存会" ;
@@ -6503,7 +6503,7 @@
     rdfs:label "花輪祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/282/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:282 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05209-19980601&gt; ;
     crm:P14 "花輪ばやし祭典委員会" ;
@@ -6561,7 +6561,7 @@
     rdfs:label "松例祭の大松明行事"@ja .
 &lt;https://w3id.org/ifcp/283/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:283 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06203-20180131&gt; ;
     crm:P14 "松例祭保存会" ;
@@ -6619,7 +6619,7 @@
     rdfs:label "大垣祭の軕行事"@ja .
 &lt;https://w3id.org/ifcp/288/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:288 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21202-20091031&gt; ;
     crm:P14 "大垣祭保存会" ;
@@ -6677,7 +6677,7 @@
     rdfs:label "那智の扇祭り"@ja .
 &lt;https://w3id.org/ifcp/290/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:290 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30421-19700401&gt; ;
     crm:P14 "那智の扇祭り保存会" ;
@@ -6735,7 +6735,7 @@
     rdfs:label "大津祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/291/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:291 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25201-20090401&gt; ;
     crm:P14 "大津祭保存会" ;
@@ -6792,7 +6792,7 @@
     rdfs:label """&amp;E67&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A67&amp;"/held/2019/"&amp;B67&amp;"&gt;
     rdf:type crm:E5 ;
-    crm:P170 "&amp;D67&amp;" ;
+    crm:P12 "&amp;D67&amp;" ;
     crm:P17 ifcp:"&amp;A67&amp;" ;
     crm:P7 &lt;"&amp;I67&amp;"&gt; ;
     crm:P14 """&amp;J67&amp;""" ;
@@ -6805,7 +6805,7 @@
     rdfs:label "新宮の速玉祭・御燈祭り"@ja .
 &lt;https://w3id.org/ifcp/292/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:292 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30207-20051001&gt; ;
     crm:P14 "熊野速玉大社祭事保存会" ;
@@ -6863,7 +6863,7 @@
     rdfs:label "西大寺の会陽"@ja .
 &lt;https://w3id.org/ifcp/293/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:293 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C33201-20090401&gt; ;
     crm:P14 "西大寺会陽保存会" ;
@@ -6921,7 +6921,7 @@
     rdfs:label "常陸大津の御船祭"@ja .
 &lt;https://w3id.org/ifcp/295/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:295 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08215-19981001&gt; ;
     crm:P14 "常陸大津の御船祭保存会" ;
@@ -6979,7 +6979,7 @@
     rdfs:label "浦佐毘沙門堂の裸押合"@ja .
 &lt;https://w3id.org/ifcp/301/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:301 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15226-20051001&gt; ;
     crm:P14 "浦佐毘沙門堂裸押合大祭委員会" ;
@@ -7037,7 +7037,7 @@
     rdfs:label "村上祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/302/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:302 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15212-20100616&gt; ;
     crm:P14 "村上まつり保存会" ;

--- a/list_p6_event_2019.xlsx
+++ b/list_p6_event_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ED9EE0-FD5F-D840-9881-3B77E5B37EBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE473822-A2F4-4140-879B-59AB3C281C2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37640" yWindow="1360" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
@@ -1204,16 +1204,6 @@
     <t>http://data.e-stat.go.jp/lod/sac/C15212-20100616</t>
   </si>
   <si>
-    <t>"@base &lt;https://w3id.org/ifcp/&gt; .
-@prefix rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; .
-@prefix rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; .
-@prefix crm: &lt;http://purl.org/NET/cidoc-crm/core#&gt; .
-@prefix skos: &lt;http://www.w3.org/2004/02/skos/core#&gt; .
-@prefix ifcp: &lt;https://w3id.org/ifcp/&gt; .
-@prefix cate: &lt;https://w3id.org/ifcp/category/&gt; ."</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>http://data.e-stat.go.jp/lod/sac/C16202-20051101</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1798,6 +1788,16 @@
   </si>
   <si>
     <t>開催年</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>"@base &lt;https://w3id.org/ifcp/&gt; .
+@prefix rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; .
+@prefix rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; .
+@prefix crm: &lt;http://www.cidoc-crm.org/cidoc-crm/&gt; .
+@prefix skos: &lt;http://www.w3.org/2004/02/skos/core#&gt; .
+@prefix ifcp: &lt;https://w3id.org/ifcp/&gt; .
+@prefix cate: &lt;https://w3id.org/ifcp/category/&gt; ."</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -2962,10 +2962,10 @@
         <v>21</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>338</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="409.6">
@@ -2998,13 +2998,13 @@
         <v>104</v>
       </c>
       <c r="K2" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>351</v>
-      </c>
       <c r="M2" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N2" s="23">
         <v>2</v>
@@ -3012,29 +3012,29 @@
       <c r="O2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
     rdfs:label """&amp;E2&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2019/"&amp;B2&amp;"&gt;
-    rdf:type crm:E5 ;
-    crm:P12 "&amp;D2&amp;" ;
-    crm:P17 ifcp:"&amp;A2&amp;" ;
-    crm:P7 &lt;"&amp;I2&amp;"&gt; ;
-    crm:P14 """&amp;J2&amp;""" ;
-    crm:P67 &lt;"&amp;M2&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;K2&amp;""" ;
-        crm:P115 """&amp;L2&amp;""" 
+&lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of "&amp;D2&amp;" ;
+    crm:P17_was_motivated_by ifcp:"&amp;A2&amp;" ;
+    crm:P7_took_place_at &lt;"&amp;I2&amp;"&gt; ;
+    crm:P14_carried_out_by """&amp;J2&amp;""" ;
+    crm:P67_refers_to &lt;"&amp;M2&amp;"&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts """&amp;K2&amp;""" ;
+        crm:P115_finishes """&amp;L2&amp;""" 
     ] ."</f>
         <v>ifcp:33
     rdfs:label "日立風流物"@ja .
-&lt;https://w3id.org/ifcp/33/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:33 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08202-20041101&gt; ;
-    crm:P14 "日立郷土芸能保存会" ;
-    crm:P67 &lt;https://www.ibarakiguide.jp/events/events-140738.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-05-03" ;
-        crm:P115 "2019-05-05" 
+&lt;https://w3id.org/ifcp/33/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:33 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C08202-20041101&gt; ;
+    crm:P14_carried_out_by "日立郷土芸能保存会" ;
+    crm:P67_refers_to &lt;https://www.ibarakiguide.jp/events/events-140738.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-05-03" ;
+        crm:P115_finishes "2019-05-05" 
     ] .</v>
       </c>
     </row>
@@ -3068,13 +3068,13 @@
         <v>105</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>354</v>
-      </c>
       <c r="M3" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N3" s="23">
         <v>4</v>
@@ -3082,29 +3082,29 @@
       <c r="O3" s="4" t="str">
         <f t="shared" ref="O3:O66" si="0">"ifcp:"&amp;A3&amp;"
     rdfs:label """&amp;E3&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2019/"&amp;B3&amp;"&gt;
-    rdf:type crm:E5 ;
-    crm:P12 "&amp;D3&amp;" ;
-    crm:P17 ifcp:"&amp;A3&amp;" ;
-    crm:P7 &lt;"&amp;I3&amp;"&gt; ;
-    crm:P14 """&amp;J3&amp;""" ;
-    crm:P67 &lt;"&amp;M3&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;K3&amp;""" ;
-        crm:P115 """&amp;L3&amp;""" 
+&lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of "&amp;D3&amp;" ;
+    crm:P17_was_motivated_by ifcp:"&amp;A3&amp;" ;
+    crm:P7_took_place_at &lt;"&amp;I3&amp;"&gt; ;
+    crm:P14_carried_out_by """&amp;J3&amp;""" ;
+    crm:P67_refers_to &lt;"&amp;M3&amp;"&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts """&amp;K3&amp;""" ;
+        crm:P115_finishes """&amp;L3&amp;""" 
     ] ."</f>
         <v>ifcp:63
     rdfs:label "烏山の山あげ行事"@ja .
-&lt;https://w3id.org/ifcp/63/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:63 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09215-20120801&gt; ;
-    crm:P14 "烏山山あげ保存会" ;
-    crm:P67 &lt;https://tabi-mag.jp/yamaagesai/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-07-26" ;
-        crm:P115 "2019-07-28" 
+&lt;https://w3id.org/ifcp/63/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:63 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C09215-20120801&gt; ;
+    crm:P14_carried_out_by "烏山山あげ保存会" ;
+    crm:P67_refers_to &lt;https://tabi-mag.jp/yamaagesai/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-07-26" ;
+        crm:P115_finishes "2019-07-28" 
     ] .</v>
       </c>
     </row>
@@ -3138,13 +3138,13 @@
         <v>106</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>357</v>
-      </c>
       <c r="M4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N4" s="23">
         <v>4</v>
@@ -3153,16 +3153,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:64
     rdfs:label "秩父祭の屋台行事と神楽"@ja .
-&lt;https://w3id.org/ifcp/64/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:64 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11207-20050401&gt; ;
-    crm:P14 "秩父祭保存委員会" ;
-    crm:P67 &lt;http://www.chichibuji.gr.jp/yomatsuri2019/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-12-02" ;
-        crm:P115 "2019-12-03" 
+&lt;https://w3id.org/ifcp/64/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:64 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C11207-20050401&gt; ;
+    crm:P14_carried_out_by "秩父祭保存委員会" ;
+    crm:P67_refers_to &lt;http://www.chichibuji.gr.jp/yomatsuri2019/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-12-02" ;
+        crm:P115_finishes "2019-12-03" 
     ] .</v>
       </c>
     </row>
@@ -3190,19 +3190,19 @@
         <v>180</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J5" t="s">
         <v>107</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>360</v>
-      </c>
       <c r="M5" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N5" s="23">
         <v>3</v>
@@ -3211,16 +3211,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:66
     rdfs:label "高岡御車山祭の御車山行事"@ja .
-&lt;https://w3id.org/ifcp/66/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:66 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16202-20051101&gt; ;
-    crm:P14 "高岡御車山保存会" ;
-    crm:P67 &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000019360&gt; ;
-    crm:P4 [
-        crm:P116 "2019-04-30" ;
-        crm:P115 "2019-05-01" 
+&lt;https://w3id.org/ifcp/66/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:66 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C16202-20051101&gt; ;
+    crm:P14_carried_out_by "高岡御車山保存会" ;
+    crm:P67_refers_to &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000019360&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-04-30" ;
+        crm:P115_finishes "2019-05-01" 
     ] .</v>
       </c>
     </row>
@@ -3256,13 +3256,13 @@
         <v>108</v>
       </c>
       <c r="K6" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="M6" s="10" t="s">
         <v>364</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>365</v>
       </c>
       <c r="N6" s="23">
         <v>4</v>
@@ -3271,16 +3271,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:69
     rdfs:label "高山祭の屋台行事"@ja .
-&lt;https://w3id.org/ifcp/69/held/2019/1&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:69 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
-    crm:P14 "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
-    crm:P67 &lt;https://omatsurijapan.com/blog/spring-takayama-festival-2019/#i-2&gt; ;
-    crm:P4 [
-        crm:P116 "2019-04-14" ;
-        crm:P115 "2019-04-15" 
+&lt;https://w3id.org/ifcp/69/held/2018/1&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:69 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
+    crm:P14_carried_out_by "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
+    crm:P67_refers_to &lt;https://omatsurijapan.com/blog/spring-takayama-festival-2019/#i-2&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-04-14" ;
+        crm:P115_finishes "2019-04-15" 
     ] .</v>
       </c>
     </row>
@@ -3316,13 +3316,13 @@
         <v>108</v>
       </c>
       <c r="K7" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>362</v>
-      </c>
       <c r="M7" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N7" s="23">
         <v>4</v>
@@ -3331,16 +3331,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:69
     rdfs:label "高山祭の屋台行事"@ja .
-&lt;https://w3id.org/ifcp/69/held/2019/2&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:69 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
-    crm:P14 "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
-    crm:P67 &lt;https://nanotown01.com/akino-takayama-matsuri/#toc3&gt; ;
-    crm:P4 [
-        crm:P116 "2019-10-09" ;
-        crm:P115 "2019-10-10" 
+&lt;https://w3id.org/ifcp/69/held/2018/2&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:69 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
+    crm:P14_carried_out_by "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
+    crm:P67_refers_to &lt;https://nanotown01.com/akino-takayama-matsuri/#toc3&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-10-09" ;
+        crm:P115_finishes "2019-10-10" 
     ] .</v>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G8" t="s">
         <v>264</v>
@@ -3374,13 +3374,13 @@
         <v>109</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>370</v>
-      </c>
       <c r="M8" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N8" s="23">
         <v>4</v>
@@ -3389,16 +3389,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:71
     rdfs:label "長浜曳山祭の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/71/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:71 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25203-20100101&gt; ;
-    crm:P14 "（公益財団法人）長浜曳山文化協会" ;
-    crm:P67 &lt;https://www.my-fav.jp/event/11142/#&gt; ;
-    crm:P4 [
-        crm:P116 "2019-04-13" ;
-        crm:P115 "2019-04-16" 
+&lt;https://w3id.org/ifcp/71/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:71 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C25203-20100101&gt; ;
+    crm:P14_carried_out_by "（公益財団法人）長浜曳山文化協会" ;
+    crm:P67_refers_to &lt;https://www.my-fav.jp/event/11142/#&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-04-13" ;
+        crm:P115_finishes "2019-04-16" 
     ] .</v>
       </c>
     </row>
@@ -3432,13 +3432,13 @@
         <v>110</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>373</v>
-      </c>
       <c r="M9" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N9" s="23">
         <v>4</v>
@@ -3447,16 +3447,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:72
     rdfs:label "京都祇園祭の山鉾行事"@ja .
-&lt;https://w3id.org/ifcp/72/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:72 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26100-20041220&gt; ;
-    crm:P14 "公益財団法人祇園祭山鉾連合会" ;
-    crm:P67 &lt;https://www.okeihan.net/recommend/natsumatsuri_gion/schedule/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-07-01" ;
-        crm:P115 "2019-07-31" 
+&lt;https://w3id.org/ifcp/72/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:72 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C26100-20041220&gt; ;
+    crm:P14_carried_out_by "公益財団法人祇園祭山鉾連合会" ;
+    crm:P67_refers_to &lt;https://www.okeihan.net/recommend/natsumatsuri_gion/schedule/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-07-01" ;
+        crm:P115_finishes "2019-07-31" 
     ] .</v>
       </c>
     </row>
@@ -3484,19 +3484,19 @@
         <v>185</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J10" t="s">
         <v>111</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N10" s="23">
         <v>2</v>
@@ -3505,16 +3505,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:79
     rdfs:label "博多祇園山笠行事"@ja .
-&lt;https://w3id.org/ifcp/79/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:79 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40132-19720401&gt; ;
-    crm:P14 "博多祇園山笠振興会" ;
-    crm:P67 &lt;https://www.hakatayamakasa.com/106019.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-07-01" ;
-        crm:P115 "2019-07-15" 
+&lt;https://w3id.org/ifcp/79/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:79 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C40132-19720401&gt; ;
+    crm:P14_carried_out_by "博多祇園山笠振興会" ;
+    crm:P67_refers_to &lt;https://www.hakatayamakasa.com/106019.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-07-01" ;
+        crm:P115_finishes "2019-07-15" 
     ] .</v>
       </c>
     </row>
@@ -3548,13 +3548,13 @@
         <v>112</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>378</v>
-      </c>
       <c r="M11" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N11" s="23">
         <v>4</v>
@@ -3563,16 +3563,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:81
     rdfs:label "青森のねぶた"@ja .
-&lt;https://w3id.org/ifcp/81/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:81 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02201-20070901&gt; ;
-    crm:P14 "青森ねぶた祭保存会" ;
-    crm:P67 &lt;https://omatsurijapan.com/blog/aomorinebuta-2019/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-08-02" ;
-        crm:P115 "2019-08-07" 
+&lt;https://w3id.org/ifcp/81/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:81 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C02201-20070901&gt; ;
+    crm:P14_carried_out_by "青森ねぶた祭保存会" ;
+    crm:P67_refers_to &lt;https://omatsurijapan.com/blog/aomorinebuta-2019/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-08-02" ;
+        crm:P115_finishes "2019-08-07" 
     ] .</v>
       </c>
     </row>
@@ -3606,13 +3606,13 @@
         <v>113</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="N12" s="23">
         <v>2</v>
@@ -3621,16 +3621,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:82
     rdfs:label "弘前のねぷた"@ja .
-&lt;https://w3id.org/ifcp/82/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:82 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
-    crm:P14 "弘前ねぷた保存会" ;
-    crm:P67 &lt;https://www.hirosaki-kanko.or.jp/web/edit.html?id=cat02_summer_neputa_past&gt; ;
-    crm:P4 [
-        crm:P116 "2019-08-01" ;
-        crm:P115 "2019-08-07" 
+&lt;https://w3id.org/ifcp/82/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:82 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
+    crm:P14_carried_out_by "弘前ねぷた保存会" ;
+    crm:P67_refers_to &lt;https://www.hirosaki-kanko.or.jp/web/edit.html?id=cat02_summer_neputa_past&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-08-01" ;
+        crm:P115_finishes "2019-08-07" 
     ] .</v>
       </c>
     </row>
@@ -3664,13 +3664,13 @@
         <v>114</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N13" s="23">
         <v>2</v>
@@ -3679,16 +3679,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:84
     rdfs:label "秋田の竿灯"@ja .
-&lt;https://w3id.org/ifcp/84/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:84 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
-    crm:P14 "秋田市竿灯会" ;
-    crm:P67 &lt;http://www.kantou.gr.jp/reflect/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-08-04" ;
-        crm:P115 "2019-08-07" 
+&lt;https://w3id.org/ifcp/84/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:84 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
+    crm:P14_carried_out_by "秋田市竿灯会" ;
+    crm:P67_refers_to &lt;http://www.kantou.gr.jp/reflect/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-08-04" ;
+        crm:P115_finishes "2019-08-07" 
     ] .</v>
       </c>
     </row>
@@ -3716,19 +3716,19 @@
         <v>189</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J14" t="s">
         <v>115</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>385</v>
-      </c>
       <c r="M14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N14" s="23">
         <v>2</v>
@@ -3737,16 +3737,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:85
     rdfs:label "金沢の羽山ごもり"@ja .
-&lt;https://w3id.org/ifcp/85/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:85 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07201-20080701&gt; ;
-    crm:P14 "羽山ごもり保存会" ;
-    crm:P67 &lt;https://www.matsukawa-kanko.jp/?p=2077&gt; ;
-    crm:P4 [
-        crm:P116 "2019-12-12" ;
-        crm:P115 "2019-12-14" 
+&lt;https://w3id.org/ifcp/85/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:85 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C07201-20080701&gt; ;
+    crm:P14_carried_out_by "羽山ごもり保存会" ;
+    crm:P67_refers_to &lt;https://www.matsukawa-kanko.jp/?p=2077&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-12-12" ;
+        crm:P115_finishes "2019-12-14" 
     ] .</v>
       </c>
     </row>
@@ -3780,13 +3780,13 @@
         <v>116</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>388</v>
-      </c>
       <c r="M15" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N15" s="23">
         <v>2</v>
@@ -3795,16 +3795,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:90
     rdfs:label "古川祭の起し太鼓・屋台行事"@ja .
-&lt;https://w3id.org/ifcp/90/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:90 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21217-20040201&gt; ;
-    crm:P14 "古川祭保存会" ;
-    crm:P67 &lt;https://www.hida-tourism.com/furukawa-festival&gt; ;
-    crm:P4 [
-        crm:P116 "2019-04-19" ;
-        crm:P115 "2019-04-20" 
+&lt;https://w3id.org/ifcp/90/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:90 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C21217-20040201&gt; ;
+    crm:P14_carried_out_by "古川祭保存会" ;
+    crm:P67_refers_to &lt;https://www.hida-tourism.com/furukawa-festival&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-04-19" ;
+        crm:P115_finishes "2019-04-20" 
     ] .</v>
       </c>
     </row>
@@ -3838,13 +3838,13 @@
         <v>117</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N16" s="23">
         <v>4</v>
@@ -3853,16 +3853,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:91
     rdfs:label "尾張津島天王祭の車楽舟行事"@ja .
-&lt;https://w3id.org/ifcp/91/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:91 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23208-19900401&gt; ;
-    crm:P14 "尾張津島天王祭協賛会" ;
-    crm:P67 &lt;http://event.xtone.jp/amp/archives/tsushima_tennosai_2019.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-07-27" ;
-        crm:P115 "2019-07-28" 
+&lt;https://w3id.org/ifcp/91/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:91 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23208-19900401&gt; ;
+    crm:P14_carried_out_by "尾張津島天王祭協賛会" ;
+    crm:P67_refers_to &lt;http://event.xtone.jp/amp/archives/tsushima_tennosai_2019.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-07-27" ;
+        crm:P115_finishes "2019-07-28" 
     ] .</v>
       </c>
     </row>
@@ -3896,13 +3896,13 @@
         <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>393</v>
-      </c>
       <c r="M17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N17" s="23">
         <v>2</v>
@@ -3911,16 +3911,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:92
     rdfs:label "豊橋神明社の鬼祭"@ja .
-&lt;https://w3id.org/ifcp/92/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:92 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23201-19990401&gt; ;
-    crm:P14 "豊橋鬼祭保存会" ;
-    crm:P67 &lt;http://www.honokuni.or.jp/toyohashi/topics/?Mode=detail&amp;code=463&gt; ;
-    crm:P4 [
-        crm:P116 "2019-02-10" ;
-        crm:P115 "2019-02-11" 
+&lt;https://w3id.org/ifcp/92/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:92 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23201-19990401&gt; ;
+    crm:P14_carried_out_by "豊橋鬼祭保存会" ;
+    crm:P67_refers_to &lt;http://www.honokuni.or.jp/toyohashi/topics/?Mode=detail&amp;code=463&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-02-10" ;
+        crm:P115_finishes "2019-02-11" 
     ] .</v>
       </c>
     </row>
@@ -3954,13 +3954,13 @@
         <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N18" s="23">
         <v>2</v>
@@ -3969,16 +3969,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:95
     rdfs:label "戸畑祇園大山笠行事"@ja .
-&lt;https://w3id.org/ifcp/95/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:95 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40100-20081001&gt; ;
-    crm:P14 "戸畑祇園大山笠振興会" ;
-    crm:P67 &lt;http://tobatagion.jp/pdf/66_houkoku.pdf&gt; ;
-    crm:P4 [
-        crm:P116 "2019-07-27" ;
-        crm:P115 "2019-07-27" 
+&lt;https://w3id.org/ifcp/95/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:95 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C40100-20081001&gt; ;
+    crm:P14_carried_out_by "戸畑祇園大山笠振興会" ;
+    crm:P67_refers_to &lt;http://tobatagion.jp/pdf/66_houkoku.pdf&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-07-27" ;
+        crm:P115_finishes "2019-07-27" 
     ] .</v>
       </c>
     </row>
@@ -4012,13 +4012,13 @@
         <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>397</v>
-      </c>
       <c r="M19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N19" s="23">
         <v>4</v>
@@ -4027,16 +4027,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:96
     rdfs:label "唐津くんちの曳山行事"@ja .
-&lt;https://w3id.org/ifcp/96/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:96 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41202-20060101&gt; ;
-    crm:P14 "唐津曳山取締会" ;
-    crm:P67 &lt;https://omatsurijapan.com/blog/karatsukunchi/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-11-02" ;
-        crm:P115 "2019-11-04" 
+&lt;https://w3id.org/ifcp/96/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:96 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C41202-20060101&gt; ;
+    crm:P14_carried_out_by "唐津曳山取締会" ;
+    crm:P67_refers_to &lt;https://omatsurijapan.com/blog/karatsukunchi/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-11-02" ;
+        crm:P115_finishes "2019-11-04" 
     ] .</v>
       </c>
     </row>
@@ -4070,13 +4070,13 @@
         <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>400</v>
-      </c>
       <c r="M20" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N20" s="23">
         <v>2</v>
@@ -4085,16 +4085,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:100
     rdfs:label "田島祇園祭のおとうや行事"@ja .
-&lt;https://w3id.org/ifcp/100/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:100 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07368-20060320&gt; ;
-    crm:P14 "田島祇園祭のおとうや行事保存会" ;
-    crm:P67 &lt;https://tif.ne.jp/jp/event/event_disp.php?id=4995&gt; ;
-    crm:P4 [
-        crm:P116 "2019-07-22" ;
-        crm:P115 "2019-07-24" 
+&lt;https://w3id.org/ifcp/100/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:100 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C07368-20060320&gt; ;
+    crm:P14_carried_out_by "田島祇園祭のおとうや行事保存会" ;
+    crm:P67_refers_to &lt;https://tif.ne.jp/jp/event/event_disp.php?id=4995&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-07-22" ;
+        crm:P115_finishes "2019-07-24" 
     ] .</v>
       </c>
     </row>
@@ -4128,13 +4128,13 @@
         <v>122</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N21" s="23">
         <v>4</v>
@@ -4143,16 +4143,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:102
     rdfs:label "熊甲二十日祭の枠旗行事"@ja .
-&lt;https://w3id.org/ifcp/102/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:102 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17202-20090901&gt; ;
-    crm:P14 "お熊甲祭奉賛会" ;
-    crm:P67 &lt;https://iijikanazawa.com/news/contributiondetail.php?cid=6926&gt; ;
-    crm:P4 [
-        crm:P116 "2019-09-20" ;
-        crm:P115 "2019-09-20" 
+&lt;https://w3id.org/ifcp/102/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:102 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C17202-20090901&gt; ;
+    crm:P14_carried_out_by "お熊甲祭奉賛会" ;
+    crm:P67_refers_to &lt;https://iijikanazawa.com/news/contributiondetail.php?cid=6926&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-09-20" ;
+        crm:P115_finishes "2019-09-20" 
     ] .</v>
       </c>
     </row>
@@ -4180,19 +4180,19 @@
         <v>197</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J22" t="s">
         <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>351</v>
-      </c>
       <c r="M22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N22" s="23">
         <v>1</v>
@@ -4201,16 +4201,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:114
     rdfs:label "青柏祭の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/114/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:114 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172020010&gt; ;
-    crm:P14 "青柏祭でか山保存会" ;
-    crm:P67 &lt;https://www.city.nanao.lg.jp/shoukan/event/5gatsu/seihakusai.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-05-03" ;
-        crm:P115 "2019-05-05" 
+&lt;https://w3id.org/ifcp/114/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:114 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172020010&gt; ;
+    crm:P14_carried_out_by "青柏祭でか山保存会" ;
+    crm:P67_refers_to &lt;https://www.city.nanao.lg.jp/shoukan/event/5gatsu/seihakusai.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-05-03" ;
+        crm:P115_finishes "2019-05-05" 
     ] .</v>
       </c>
     </row>
@@ -4244,13 +4244,13 @@
         <v>124</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>406</v>
-      </c>
       <c r="M23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N23" s="23">
         <v>4</v>
@@ -4259,16 +4259,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:120
     rdfs:label "岩木山の登拝行事"@ja .
-&lt;https://w3id.org/ifcp/120/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:120 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
-    crm:P14 "お山参詣保存会" ;
-    crm:P67 &lt;https://rurubu.jp/andmore/spot/20003055&gt; ;
-    crm:P4 [
-        crm:P116 "2019-08-28" ;
-        crm:P115 "2019-08-30" 
+&lt;https://w3id.org/ifcp/120/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:120 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
+    crm:P14_carried_out_by "お山参詣保存会" ;
+    crm:P67_refers_to &lt;https://rurubu.jp/andmore/spot/20003055&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-08-28" ;
+        crm:P115_finishes "2019-08-30" 
     ] .</v>
       </c>
     </row>
@@ -4302,13 +4302,13 @@
         <v>125</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N24" s="23">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:122
     rdfs:label "室根神社祭のマツリバ行事"@ja .
-&lt;https://w3id.org/ifcp/122/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:122 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C03209-20170904&gt; ;
-    crm:P14 "室根神社祭保存会" ;
-    crm:P67 &lt;https://www.nihon-kankou.or.jp/iwate/detail/03425ba2210113854&gt; ;
-    crm:P4 [
-        crm:P116 "開催せず" ;
-        crm:P115 "開催せず" 
+&lt;https://w3id.org/ifcp/122/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:122 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C03209-20170904&gt; ;
+    crm:P14_carried_out_by "室根神社祭保存会" ;
+    crm:P67_refers_to &lt;https://www.nihon-kankou.or.jp/iwate/detail/03425ba2210113854&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "開催せず" ;
+        crm:P115_finishes "開催せず" 
     ] .</v>
       </c>
     </row>
@@ -4360,13 +4360,13 @@
         <v>126</v>
       </c>
       <c r="K25" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="L25" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="L25" s="18" t="s">
-        <v>412</v>
-      </c>
       <c r="M25" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N25" s="23">
         <v>1</v>
@@ -4375,16 +4375,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:126
     rdfs:label "東湖八坂神社のトウニン（統人）行事"@ja .
-&lt;https://w3id.org/ifcp/126/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:126 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05211-20050322&gt; ;
-    crm:P14 "東湖八坂神社崇敬会、船越町内連合会" ;
-    crm:P67 &lt;http://www.city.katagami.lg.jp/index.cfm/8,0,36,144,html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-07-07" ;
-        crm:P115 "2019-07-08" 
+&lt;https://w3id.org/ifcp/126/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:126 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05211-20050322&gt; ;
+    crm:P14_carried_out_by "東湖八坂神社崇敬会、船越町内連合会" ;
+    crm:P67_refers_to &lt;http://www.city.katagami.lg.jp/index.cfm/8,0,36,144,html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-07-07" ;
+        crm:P115_finishes "2019-07-08" 
     ] .</v>
       </c>
     </row>
@@ -4418,13 +4418,13 @@
         <v>127</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N26" s="23">
         <v>3</v>
@@ -4433,16 +4433,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:129
     rdfs:label "涌出宮の宮座行事"@ja .
-&lt;https://w3id.org/ifcp/129/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:129 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26214-20070312&gt; ;
-    crm:P14 "涌出宮宮座行事保存会" ;
-    crm:P67 &lt;https://www.kyoto-np.co.jp/articles/-/3714&gt; ;
-    crm:P4 [
-        crm:P116 "2019-02-17" ;
-        crm:P115 "2019-02-17" 
+&lt;https://w3id.org/ifcp/129/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:129 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C26214-20070312&gt; ;
+    crm:P14_carried_out_by "涌出宮宮座行事保存会" ;
+    crm:P67_refers_to &lt;https://www.kyoto-np.co.jp/articles/-/3714&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-02-17" ;
+        crm:P115_finishes "2019-02-17" 
     ] .</v>
       </c>
     </row>
@@ -4470,19 +4470,19 @@
         <v>202</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J27" t="s">
         <v>128</v>
       </c>
       <c r="K27" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="L27" s="7" t="s">
-        <v>417</v>
-      </c>
       <c r="M27" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N27" s="23">
         <v>1</v>
@@ -4491,16 +4491,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:149
     rdfs:label "角館祭りのやま行事"@ja .
-&lt;https://w3id.org/ifcp/149/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:149 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052150130&gt; ;
-    crm:P14 "角館のお祭り保存会" ;
-    crm:P67 &lt;https://www.city.semboku.akita.jp/event/event.php?id=1003&gt; ;
-    crm:P4 [
-        crm:P116 "2019-09-07" ;
-        crm:P115 "2019-09-09" 
+&lt;https://w3id.org/ifcp/149/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:149 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052150130&gt; ;
+    crm:P14_carried_out_by "角館のお祭り保存会" ;
+    crm:P67_refers_to &lt;https://www.city.semboku.akita.jp/event/event.php?id=1003&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-09-07" ;
+        crm:P115_finishes "2019-09-09" 
     ] .</v>
       </c>
     </row>
@@ -4528,19 +4528,19 @@
         <v>203</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J28" t="s">
         <v>129</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N28" s="23">
         <v>2</v>
@@ -4549,16 +4549,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:150
     rdfs:label "近江中山の芋競べ祭り"@ja .
-&lt;https://w3id.org/ifcp/150/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:150 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25383-19700401&gt; ;
-    crm:P14 "芋くらべ祭保存会" ;
-    crm:P67 &lt;https://www.biwako-visitors.jp/event/detail/344&gt; ;
-    crm:P4 [
-        crm:P116 "2019-09-01" ;
-        crm:P115 "2019-09-01" 
+&lt;https://w3id.org/ifcp/150/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:150 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C25383-19700401&gt; ;
+    crm:P14_carried_out_by "芋くらべ祭保存会" ;
+    crm:P67_refers_to &lt;https://www.biwako-visitors.jp/event/detail/344&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-09-01" ;
+        crm:P115_finishes "2019-09-01" 
     ] .</v>
       </c>
     </row>
@@ -4596,16 +4596,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:153
     rdfs:label "白間津のオオマチ（大祭）行事"@ja .
-&lt;https://w3id.org/ifcp/153/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:153 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12466-20060320&gt; ;
-    crm:P14 "白間津区" ;
-    crm:P67 &lt;&gt; ;
-    crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+&lt;https://w3id.org/ifcp/153/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:153 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C12466-20060320&gt; ;
+    crm:P14_carried_out_by "白間津区" ;
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "" ;
+        crm:P115_finishes "" 
     ] .</v>
       </c>
     </row>
@@ -4639,13 +4639,13 @@
         <v>131</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N30" s="23">
         <v>3</v>
@@ -4654,16 +4654,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:171
     rdfs:label "発光路の強飯式"@ja .
-&lt;https://w3id.org/ifcp/171/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:171 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09205-20120801&gt; ;
-    crm:P14 "発光路妙見神社青年部" ;
-    crm:P67 &lt;https://mainichi.jp/articles/20190104/ddl/k09/040/073000c&gt; ;
-    crm:P4 [
-        crm:P116 "2019-01-03" ;
-        crm:P115 "2019-01-03" 
+&lt;https://w3id.org/ifcp/171/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:171 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C09205-20120801&gt; ;
+    crm:P14_carried_out_by "発光路妙見神社青年部" ;
+    crm:P67_refers_to &lt;https://mainichi.jp/articles/20190104/ddl/k09/040/073000c&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-01-03" ;
+        crm:P115_finishes "2019-01-03" 
     ] .</v>
       </c>
     </row>
@@ -4697,13 +4697,13 @@
         <v>132</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N31" s="23">
         <v>1</v>
@@ -4712,16 +4712,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:172
     rdfs:label "貴船神社の船祭り"@ja .
-&lt;https://w3id.org/ifcp/172/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:172 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14383-19700401&gt; ;
-    crm:P14 "貴船祭保存会" ;
-    crm:P67 &lt;http://www.town.manazuru.kanagawa.jp/juyo/1239.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-07-27" ;
-        crm:P115 "2019-07-28" 
+&lt;https://w3id.org/ifcp/172/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:172 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C14383-19700401&gt; ;
+    crm:P14_carried_out_by "貴船祭保存会" ;
+    crm:P67_refers_to &lt;http://www.town.manazuru.kanagawa.jp/juyo/1239.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-07-27" ;
+        crm:P115_finishes "2019-07-28" 
     ] .</v>
       </c>
     </row>
@@ -4755,13 +4755,13 @@
         <v>133</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N32" s="23">
         <v>1</v>
@@ -4770,16 +4770,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:176
     rdfs:label "日田祗園の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/176/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:176 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C44204-20050322&gt; ;
-    crm:P14 "日田祗園山鉾振興会" ;
-    crm:P67 &lt;https://www.city.hita.oita.jp/event/10768.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-07-27" ;
-        crm:P115 "2019-07-28" 
+&lt;https://w3id.org/ifcp/176/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:176 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C44204-20050322&gt; ;
+    crm:P14_carried_out_by "日田祗園山鉾振興会" ;
+    crm:P67_refers_to &lt;https://www.city.hita.oita.jp/event/10768.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-07-27" ;
+        crm:P115_finishes "2019-07-28" 
     ] .</v>
       </c>
     </row>
@@ -4813,13 +4813,13 @@
         <v>134</v>
       </c>
       <c r="K33" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="L33" s="7" t="s">
-        <v>426</v>
-      </c>
       <c r="M33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N33" s="23">
         <v>1</v>
@@ -4828,16 +4828,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:178
     rdfs:label "土崎神明社祭の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/178/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:178 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
-    crm:P14 "土崎神明社奉賛会" ;
-    crm:P67 &lt;https://www.city.akita.lg.jp/kurashi/kyodo-chiiki/1005328/1004620/1009756/1004625.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-07-20" ;
-        crm:P115 "2019-07-21" 
+&lt;https://w3id.org/ifcp/178/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:178 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
+    crm:P14_carried_out_by "土崎神明社奉賛会" ;
+    crm:P67_refers_to &lt;https://www.city.akita.lg.jp/kurashi/kyodo-chiiki/1005328/1004620/1009756/1004625.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-07-20" ;
+        crm:P115_finishes "2019-07-21" 
     ] .</v>
       </c>
     </row>
@@ -4871,13 +4871,13 @@
         <v>135</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N34" s="26">
         <v>4</v>
@@ -4886,16 +4886,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:180
     rdfs:label "魚津のタテモン行事"@ja .
-&lt;https://w3id.org/ifcp/180/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:180 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16204-19890601&gt; ;
-    crm:P14 "魚津たてもん保存会" ;
-    crm:P67 &lt;https://toyama-asbb.com/archives/34473&gt; ;
-    crm:P4 [
-        crm:P116 "2019-08-02" ;
-        crm:P115 "2019-08-03" 
+&lt;https://w3id.org/ifcp/180/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:180 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C16204-19890601&gt; ;
+    crm:P14_carried_out_by "魚津たてもん保存会" ;
+    crm:P67_refers_to &lt;https://toyama-asbb.com/archives/34473&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-08-02" ;
+        crm:P115_finishes "2019-08-03" 
     ] .</v>
       </c>
     </row>
@@ -4929,13 +4929,13 @@
         <v>136</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="L35" s="7" t="s">
-        <v>431</v>
-      </c>
       <c r="M35" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N35" s="23">
         <v>2</v>
@@ -4944,16 +4944,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:182
     rdfs:label "鳥出神社の鯨船行事"@ja .
-&lt;https://w3id.org/ifcp/182/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:182 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24202-20001101&gt; ;
-    crm:P14 "富田鯨船保存会連合会" ;
-    crm:P67 &lt;https://www.kankomie.or.jp/event/detail_17783.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-08-14" ;
-        crm:P115 "2019-08-15" 
+&lt;https://w3id.org/ifcp/182/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:182 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C24202-20001101&gt; ;
+    crm:P14_carried_out_by "富田鯨船保存会連合会" ;
+    crm:P67_refers_to &lt;https://www.kankomie.or.jp/event/detail_17783.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-08-14" ;
+        crm:P115_finishes "2019-08-15" 
     ] .</v>
       </c>
     </row>
@@ -4987,13 +4987,13 @@
         <v>137</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M36" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N36" s="23">
         <v>3</v>
@@ -5002,16 +5002,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:187
     rdfs:label "塩屋湾のウンガミ"@ja .
-&lt;https://w3id.org/ifcp/187/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:187 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47302-19780601&gt; ;
-    crm:P14 "田港区、屋古区、塩屋区、白浜区" ;
-    crm:P67 &lt;https://ryukyushimpo.jp/photo/entry-973995.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-08-18" ;
-        crm:P115 "2019-08-18" 
+&lt;https://w3id.org/ifcp/187/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:187 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C47302-19780601&gt; ;
+    crm:P14_carried_out_by "田港区、屋古区、塩屋区、白浜区" ;
+    crm:P67_refers_to &lt;https://ryukyushimpo.jp/photo/entry-973995.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-08-18" ;
+        crm:P115_finishes "2019-08-18" 
     ] .</v>
       </c>
     </row>
@@ -5045,13 +5045,13 @@
         <v>138</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N37" s="23">
         <v>4</v>
@@ -5060,16 +5060,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:192
     rdfs:label "等覚寺の松会"@ja .
-&lt;https://w3id.org/ifcp/192/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:192 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40621-19700401&gt; ;
-    crm:P14 "等覚寺松会保存会" ;
-    crm:P67 &lt;http://blowinthewind.net/digitalshot/shot152-tokakuji.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-04-21" ;
-        crm:P115 "2019-04-21" 
+&lt;https://w3id.org/ifcp/192/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:192 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C40621-19700401&gt; ;
+    crm:P14_carried_out_by "等覚寺松会保存会" ;
+    crm:P67_refers_to &lt;http://blowinthewind.net/digitalshot/shot152-tokakuji.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-04-21" ;
+        crm:P115_finishes "2019-04-21" 
     ] .</v>
       </c>
     </row>
@@ -5085,7 +5085,7 @@
         <v>2019</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>9</v>
@@ -5109,16 +5109,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:197
     rdfs:label "山北のボタモチ祭り"@ja .
-&lt;https://w3id.org/ifcp/197/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:197 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15212-20080401&gt; ;
-    crm:P14 "中浜ボタモチ祭保存会、杉平ボタモチ祭保存会、岩石ボタモチ保存会" ;
-    crm:P67 &lt;&gt; ;
-    crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+&lt;https://w3id.org/ifcp/197/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:197 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C15212-20080401&gt; ;
+    crm:P14_carried_out_by "中浜ボタモチ祭保存会、杉平ボタモチ祭保存会、岩石ボタモチ保存会" ;
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "" ;
+        crm:P115_finishes "" 
     ] .</v>
       </c>
     </row>
@@ -5152,13 +5152,13 @@
         <v>140</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N39" s="23">
         <v>4</v>
@@ -5167,16 +5167,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:198
     rdfs:label "滑川のネブタ流し"@ja .
-&lt;https://w3id.org/ifcp/198/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:198 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16206-19910325&gt; ;
-    crm:P14 "中川原、常盤町一区・二区・三区" ;
-    crm:P67 &lt;https://vr-hokuriku.jp/namerikawa-nebuta/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-07-31" ;
-        crm:P115 "2019-07-31" 
+&lt;https://w3id.org/ifcp/198/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:198 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C16206-19910325&gt; ;
+    crm:P14_carried_out_by "中川原、常盤町一区・二区・三区" ;
+    crm:P67_refers_to &lt;https://vr-hokuriku.jp/namerikawa-nebuta/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-07-31" ;
+        crm:P115_finishes "2019-07-31" 
     ] .</v>
       </c>
     </row>
@@ -5210,13 +5210,13 @@
         <v>141</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N40" s="26">
         <v>4</v>
@@ -5225,16 +5225,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:199
     rdfs:label "大江八幡神社の御船行事"@ja .
-&lt;https://w3id.org/ifcp/199/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:199 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22226-20051011&gt; ;
-    crm:P14 "大江氏子会" ;
-    crm:P67 &lt;https://shizuoka-hamamatsu-izu.com/hamamatsu/makinohara-city/ooe-ofunesinji/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-09-15" ;
-        crm:P115 "2019-09-15" 
+&lt;https://w3id.org/ifcp/199/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:199 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C22226-20051011&gt; ;
+    crm:P14_carried_out_by "大江氏子会" ;
+    crm:P67_refers_to &lt;https://shizuoka-hamamatsu-izu.com/hamamatsu/makinohara-city/ooe-ofunesinji/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-09-15" ;
+        crm:P115_finishes "2019-09-15" 
     ] .</v>
       </c>
     </row>
@@ -5268,13 +5268,13 @@
         <v>142</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N41" s="26">
         <v>3</v>
@@ -5283,16 +5283,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:201
     rdfs:label "河内祭の御舟行事"@ja .
-&lt;https://w3id.org/ifcp/201/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:201 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30423-20050401&gt; ;
-    crm:P14 "古座川河内祭保存会、古座獅子舞保存会" ;
-    crm:P67 &lt;https://www.agara.co.jp/article/16037&gt; ;
-    crm:P4 [
-        crm:P116 "2019-07-28" ;
-        crm:P115 "2019-07-29" 
+&lt;https://w3id.org/ifcp/201/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:201 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C30423-20050401&gt; ;
+    crm:P14_carried_out_by "古座川河内祭保存会、古座獅子舞保存会" ;
+    crm:P67_refers_to &lt;https://www.agara.co.jp/article/16037&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-07-28" ;
+        crm:P115_finishes "2019-07-29" 
     ] .</v>
       </c>
     </row>
@@ -5326,13 +5326,13 @@
         <v>143</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N42" s="23">
         <v>4</v>
@@ -5341,16 +5341,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:205
     rdfs:label "片品の猿追い祭"@ja .
-&lt;https://w3id.org/ifcp/205/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:205 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C10443-19700401&gt; ;
-    crm:P14 "猿追い祭保存会" ;
-    crm:P67 &lt;https://matsuri-no-hi.com/matsuri/7807&gt; ;
-    crm:P4 [
-        crm:P116 "2019-10-14" ;
-        crm:P115 "2019-10-14" 
+&lt;https://w3id.org/ifcp/205/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:205 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C10443-19700401&gt; ;
+    crm:P14_carried_out_by "猿追い祭保存会" ;
+    crm:P67_refers_to &lt;https://matsuri-no-hi.com/matsuri/7807&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-10-14" ;
+        crm:P115_finishes "2019-10-14" 
     ] .</v>
       </c>
     </row>
@@ -5384,13 +5384,13 @@
         <v>144</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M43" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N43" s="23">
         <v>4</v>
@@ -5399,16 +5399,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:206
     rdfs:label "気多の鵜祭の習俗"@ja .
-&lt;https://w3id.org/ifcp/206/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:206 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172021060&gt; ;
-    crm:P14 "気多大社、鵜浦町会" ;
-    crm:P67 &lt;https://iko-yo.net/events/212195&gt; ;
-    crm:P4 [
-        crm:P116 "2019-12-16" ;
-        crm:P115 "2019-12-16" 
+&lt;https://w3id.org/ifcp/206/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:206 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172021060&gt; ;
+    crm:P14_carried_out_by "気多大社、鵜浦町会" ;
+    crm:P67_refers_to &lt;https://iko-yo.net/events/212195&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-12-16" ;
+        crm:P115_finishes "2019-12-16" 
     ] .</v>
       </c>
     </row>
@@ -5442,13 +5442,13 @@
         <v>145</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M44" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N44" s="23">
         <v>3</v>
@@ -5457,16 +5457,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:208
     rdfs:label "見付天神裸祭"@ja .
-&lt;https://w3id.org/ifcp/208/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:208 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22211-20090217&gt; ;
-    crm:P14 "見付天神裸祭保存会" ;
-    crm:P67 &lt;http://www.at-s.com/event/article/festival/122649.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-09-07" ;
-        crm:P115 "2019-09-08" 
+&lt;https://w3id.org/ifcp/208/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:208 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C22211-20090217&gt; ;
+    crm:P14_carried_out_by "見付天神裸祭保存会" ;
+    crm:P67_refers_to &lt;http://www.at-s.com/event/article/festival/122649.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-09-07" ;
+        crm:P115_finishes "2019-09-08" 
     ] .</v>
       </c>
     </row>
@@ -5500,13 +5500,13 @@
         <v>146</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N45" s="23">
         <v>4</v>
@@ -5515,16 +5515,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:215
     rdfs:label "城端神明宮祭の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/215/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:215 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16210-20041101&gt; ;
-    crm:P14 "城端曳山祭保存会" ;
-    crm:P67 &lt;https://tabigurashi.net/festivals/chubu/jyohanaf/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-05-05" ;
-        crm:P115 "2019-05-05" 
+&lt;https://w3id.org/ifcp/215/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:215 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C16210-20041101&gt; ;
+    crm:P14_carried_out_by "城端曳山祭保存会" ;
+    crm:P67_refers_to &lt;https://tabigurashi.net/festivals/chubu/jyohanaf/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-05-05" ;
+        crm:P115_finishes "2019-05-05" 
     ] .</v>
       </c>
     </row>
@@ -5558,13 +5558,13 @@
         <v>147</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M46" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N46" s="23">
         <v>1</v>
@@ -5573,16 +5573,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:216
     rdfs:label "上野天神祭のダンジリ行事"@ja .
-&lt;https://w3id.org/ifcp/216/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:216 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24216-20041101&gt; ;
-    crm:P14 "上野文化美術保存会" ;
-    crm:P67 &lt;https://www.city.iga.lg.jp/cmsfiles/contents/0000007/7137/004-005.pdf&gt; ;
-    crm:P4 [
-        crm:P116 "2019-10-20" ;
-        crm:P115 "2019-10-20" 
+&lt;https://w3id.org/ifcp/216/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:216 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C24216-20041101&gt; ;
+    crm:P14_carried_out_by "上野文化美術保存会" ;
+    crm:P67_refers_to &lt;https://www.city.iga.lg.jp/cmsfiles/contents/0000007/7137/004-005.pdf&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-10-20" ;
+        crm:P115_finishes "2019-10-20" 
     ] .</v>
       </c>
     </row>
@@ -5610,19 +5610,19 @@
         <v>222</v>
       </c>
       <c r="I47" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J47" t="s">
         <v>148</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M47" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N47" s="23">
         <v>4</v>
@@ -5631,16 +5631,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:219
     rdfs:label "鹿沼今宮神社祭の屋台行事"@ja .
-&lt;https://w3id.org/ifcp/219/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:219 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S092050100&gt; ;
-    crm:P14 "鹿沼いまみや付け祭り保存会" ;
-    crm:P67 &lt;https://afun7.com/archives/18013.html&gt; ;
-    crm:P4 [
-        crm:P116 "開催せず" ;
-        crm:P115 "開催せず" 
+&lt;https://w3id.org/ifcp/219/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:219 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S092050100&gt; ;
+    crm:P14_carried_out_by "鹿沼いまみや付け祭り保存会" ;
+    crm:P67_refers_to &lt;https://afun7.com/archives/18013.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "開催せず" ;
+        crm:P115_finishes "開催せず" 
     ] .</v>
       </c>
     </row>
@@ -5674,13 +5674,13 @@
         <v>149</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M48" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N48" s="23">
         <v>2</v>
@@ -5689,16 +5689,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:220
     rdfs:label "八戸三社大祭の山車行事"@ja .
-&lt;https://w3id.org/ifcp/220/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:220 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02203-20170101&gt; ;
-    crm:P14 "八戸三社大祭山車祭り行事保存会" ;
-    crm:P67 &lt;https://www.aptinet.jp/Detail_display_00000028.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-07-31" ;
-        crm:P115 "2019-08-04" 
+&lt;https://w3id.org/ifcp/220/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:220 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C02203-20170101&gt; ;
+    crm:P14_carried_out_by "八戸三社大祭山車祭り行事保存会" ;
+    crm:P67_refers_to &lt;https://www.aptinet.jp/Detail_display_00000028.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-07-31" ;
+        crm:P115_finishes "2019-08-04" 
     ] .</v>
       </c>
     </row>
@@ -5732,13 +5732,13 @@
         <v>150</v>
       </c>
       <c r="K49" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="L49" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="L49" s="18" t="s">
-        <v>456</v>
-      </c>
       <c r="M49" s="16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N49" s="23">
         <v>4</v>
@@ -5747,16 +5747,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:226
     rdfs:label "佐原の山車行事"@ja .
-&lt;https://w3id.org/ifcp/226/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:226 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12236-20060327&gt; ;
-    crm:P14 "佐原山車行事伝承保存会" ;
-    crm:P67 &lt;http://www.aoyagi-food.co.jp/『2019年佐原の大祭秋祭り』が行われます！/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-10-11" ;
-        crm:P115 "2019-10-13" 
+&lt;https://w3id.org/ifcp/226/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:226 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C12236-20060327&gt; ;
+    crm:P14_carried_out_by "佐原山車行事伝承保存会" ;
+    crm:P67_refers_to &lt;http://www.aoyagi-food.co.jp/『2019年佐原の大祭秋祭り』が行われます！/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-10-11" ;
+        crm:P115_finishes "2019-10-13" 
     ] .</v>
       </c>
     </row>
@@ -5790,13 +5790,13 @@
         <v>151</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M50" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N50" s="23">
         <v>4</v>
@@ -5805,16 +5805,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:231
     rdfs:label "川越氷川祭の山車行事"@ja .
-&lt;https://w3id.org/ifcp/231/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:231 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11201-20030401&gt; ;
-    crm:P14 "川越氷川祭の山車行事保存会" ;
-    crm:P67 &lt;https://kanko-bank.com/event_spots/detail/3850/2019_10_19～10_20%E3%80%80川越まつり（川越氷川祭）&gt; ;
-    crm:P4 [
-        crm:P116 "2019-10-19" ;
-        crm:P115 "2019-10-20" 
+&lt;https://w3id.org/ifcp/231/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:231 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C11201-20030401&gt; ;
+    crm:P14_carried_out_by "川越氷川祭の山車行事保存会" ;
+    crm:P67_refers_to &lt;https://kanko-bank.com/event_spots/detail/3850/2019_10_19～10_20%E3%80%80川越まつり（川越氷川祭）&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-10-19" ;
+        crm:P115_finishes "2019-10-20" 
     ] .</v>
       </c>
     </row>
@@ -5842,19 +5842,19 @@
         <v>226</v>
       </c>
       <c r="I51" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J51" t="s">
         <v>152</v>
       </c>
       <c r="K51" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="L51" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="L51" s="7" t="s">
-        <v>461</v>
-      </c>
       <c r="M51" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N51" s="23">
         <v>4</v>
@@ -5863,16 +5863,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:232
     rdfs:label "茂名の里芋祭"@ja .
-&lt;https://w3id.org/ifcp/232/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:232 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S122050440&gt; ;
-    crm:P14 "茂名区" ;
-    crm:P67 &lt;http://yagimitinomise.livedoor.blog/archives/1793266.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-02-19" ;
-        crm:P115 "2019-02-21" 
+&lt;https://w3id.org/ifcp/232/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:232 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S122050440&gt; ;
+    crm:P14_carried_out_by "茂名区" ;
+    crm:P67_refers_to &lt;http://yagimitinomise.livedoor.blog/archives/1793266.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-02-19" ;
+        crm:P115_finishes "2019-02-21" 
     ] .</v>
       </c>
     </row>
@@ -5900,19 +5900,19 @@
         <v>227</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J52" t="s">
         <v>153</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M52" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N52" s="23">
         <v>4</v>
@@ -5921,16 +5921,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:234
     rdfs:label "三上のずいき祭"@ja .
-&lt;https://w3id.org/ifcp/234/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:234 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S252100330&gt; ;
-    crm:P14 "ずいき祭保存会" ;
-    crm:P67 &lt;http://www.photoland-aris.com/myanmar/oumi/59/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-10-14" ;
-        crm:P115 "2019-10-14" 
+&lt;https://w3id.org/ifcp/234/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:234 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S252100330&gt; ;
+    crm:P14_carried_out_by "ずいき祭保存会" ;
+    crm:P67_refers_to &lt;http://www.photoland-aris.com/myanmar/oumi/59/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-10-14" ;
+        crm:P115_finishes "2019-10-14" 
     ] .</v>
       </c>
     </row>
@@ -5964,13 +5964,13 @@
         <v>154</v>
       </c>
       <c r="K53" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="L53" s="7" t="s">
-        <v>465</v>
-      </c>
       <c r="M53" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N53" s="23">
         <v>4</v>
@@ -5979,16 +5979,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:243
     rdfs:label "犬山祭の車山行事"@ja .
-&lt;https://w3id.org/ifcp/243/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:243 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23215-19830301&gt; ;
-    crm:P14 "犬山祭保存会" ;
-    crm:P67 &lt;https://yuu-goannai.com/?p=3935&gt; ;
-    crm:P4 [
-        crm:P116 "2019-04-06" ;
-        crm:P115 "2019-04-07" 
+&lt;https://w3id.org/ifcp/243/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:243 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23215-19830301&gt; ;
+    crm:P14_carried_out_by "犬山祭保存会" ;
+    crm:P67_refers_to &lt;https://yuu-goannai.com/?p=3935&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-04-06" ;
+        crm:P115_finishes "2019-04-07" 
     ] .</v>
       </c>
     </row>
@@ -6022,13 +6022,13 @@
         <v>155</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L54" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="M54" t="s">
         <v>466</v>
-      </c>
-      <c r="M54" t="s">
-        <v>467</v>
       </c>
       <c r="N54" s="23">
         <v>2</v>
@@ -6037,16 +6037,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:244
     rdfs:label "亀崎潮干祭の山車行事"@ja .
-&lt;https://w3id.org/ifcp/244/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:244 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23205-19950901&gt; ;
-    crm:P14 "亀崎潮干祭保存会" ;
-    crm:P67 &lt;https://dashimatsuri.jp/matsuri/kamezaki&gt; ;
-    crm:P4 [
-        crm:P116 "2019-05-03" ;
-        crm:P115 "2019-05-04" 
+&lt;https://w3id.org/ifcp/244/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:244 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23205-19950901&gt; ;
+    crm:P14_carried_out_by "亀崎潮干祭保存会" ;
+    crm:P67_refers_to &lt;https://dashimatsuri.jp/matsuri/kamezaki&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-05-03" ;
+        crm:P115_finishes "2019-05-04" 
     ] .</v>
       </c>
     </row>
@@ -6080,13 +6080,13 @@
         <v>156</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N55" s="23">
         <v>1</v>
@@ -6095,16 +6095,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:249
     rdfs:label "桑名石取祭の祭車行事"@ja .
-&lt;https://w3id.org/ifcp/249/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:249 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24205-20041206&gt; ;
-    crm:P14 "桑名石取祭保存会" ;
-    crm:P67 &lt;https://www.city.kuwana.lg.jp/index.cfm/26,62805,234,790,html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-08-03" ;
-        crm:P115 "2019-08-04" 
+&lt;https://w3id.org/ifcp/249/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:249 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C24205-20041206&gt; ;
+    crm:P14_carried_out_by "桑名石取祭保存会" ;
+    crm:P67_refers_to &lt;https://www.city.kuwana.lg.jp/index.cfm/26,62805,234,790,html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-08-03" ;
+        crm:P115_finishes "2019-08-04" 
     ] .</v>
       </c>
     </row>
@@ -6138,13 +6138,13 @@
         <v>157</v>
       </c>
       <c r="K56" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="L56" s="7" t="s">
-        <v>471</v>
-      </c>
       <c r="M56" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N56" s="23">
         <v>3</v>
@@ -6153,16 +6153,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:259
     rdfs:label "新庄まつりの山車行事"@ja .
-&lt;https://w3id.org/ifcp/259/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:259 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06205-20050218&gt; ;
-    crm:P14 "新庄まつり山車行事保存会" ;
-    crm:P67 &lt;https://www.kankokeizai.com/豪華絢爛「新庄まつり」、時代絵巻に観客ら感動/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-08-24" ;
-        crm:P115 "2019-08-26" 
+&lt;https://w3id.org/ifcp/259/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:259 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C06205-20050218&gt; ;
+    crm:P14_carried_out_by "新庄まつり山車行事保存会" ;
+    crm:P67_refers_to &lt;https://www.kankokeizai.com/豪華絢爛「新庄まつり」、時代絵巻に観客ら感動/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-08-24" ;
+        crm:P115_finishes "2019-08-26" 
     ] .</v>
       </c>
     </row>
@@ -6196,13 +6196,13 @@
         <v>158</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N57" s="26">
         <v>2</v>
@@ -6211,16 +6211,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:270
     rdfs:label "小菅の柱松行事"@ja .
-&lt;https://w3id.org/ifcp/270/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:270 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20213-20000401&gt; ;
-    crm:P14 "小菅柱松保存会" ;
-    crm:P67 &lt;http://kosugejinja.jp/post349/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-07-21" ;
-        crm:P115 "2019-07-21" 
+&lt;https://w3id.org/ifcp/270/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:270 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C20213-20000401&gt; ;
+    crm:P14_carried_out_by "小菅柱松保存会" ;
+    crm:P67_refers_to &lt;http://kosugejinja.jp/post349/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-07-21" ;
+        crm:P115_finishes "2019-07-21" 
     ] .</v>
       </c>
     </row>
@@ -6254,13 +6254,13 @@
         <v>159</v>
       </c>
       <c r="K58" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="L58" s="7" t="s">
-        <v>475</v>
-      </c>
       <c r="M58" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N58" s="23">
         <v>4</v>
@@ -6269,16 +6269,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:272
     rdfs:label "八代妙見祭の神幸行事"@ja .
-&lt;https://w3id.org/ifcp/272/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:272 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C43202-20050801&gt; ;
-    crm:P14 "八代妙見祭保存振興会" ;
-    crm:P67 &lt;https://omatsurijapan.com/search/m/1410/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-11-22" ;
-        crm:P115 "2019-11-23" 
+&lt;https://w3id.org/ifcp/272/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:272 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C43202-20050801&gt; ;
+    crm:P14_carried_out_by "八代妙見祭保存振興会" ;
+    crm:P67_refers_to &lt;https://omatsurijapan.com/search/m/1410/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-11-22" ;
+        crm:P115_finishes "2019-11-23" 
     ] .</v>
       </c>
     </row>
@@ -6312,13 +6312,13 @@
         <v>160</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N59" s="23">
         <v>4</v>
@@ -6327,16 +6327,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:273
     rdfs:label "吉田の火祭"@ja .
-&lt;https://w3id.org/ifcp/273/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:273 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C19202-19700401&gt; ;
-    crm:P14 "吉田の火祭保存会" ;
-    crm:P67 &lt;https://nanotown01.com/yoshidano-himatsuri/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-08-26" ;
-        crm:P115 "2019-08-27" 
+&lt;https://w3id.org/ifcp/273/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:273 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C19202-19700401&gt; ;
+    crm:P14_carried_out_by "吉田の火祭保存会" ;
+    crm:P67_refers_to &lt;https://nanotown01.com/yoshidano-himatsuri/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-08-26" ;
+        crm:P115_finishes "2019-08-27" 
     ] .</v>
       </c>
     </row>
@@ -6370,13 +6370,13 @@
         <v>161</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M60" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N60" s="23">
         <v>4</v>
@@ -6385,16 +6385,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:275
     rdfs:label "須成祭の車楽船行事と神葭流し"@ja .
-&lt;https://w3id.org/ifcp/275/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:275 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23425-19960701&gt; ;
-    crm:P14 "須成文化財保護委員会" ;
-    crm:P67 &lt;https://www.jalan.net/event/evt_239782/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-08-03" ;
-        crm:P115 "2019-08-04" 
+&lt;https://w3id.org/ifcp/275/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:275 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23425-19960701&gt; ;
+    crm:P14_carried_out_by "須成文化財保護委員会" ;
+    crm:P67_refers_to &lt;https://www.jalan.net/event/evt_239782/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-08-03" ;
+        crm:P115_finishes "2019-08-04" 
     ] .</v>
       </c>
     </row>
@@ -6428,13 +6428,13 @@
         <v>162</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N61" s="23">
         <v>1</v>
@@ -6443,16 +6443,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:276
     rdfs:label "坂越の船祭"@ja .
-&lt;https://w3id.org/ifcp/276/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:276 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28212-19700401&gt; ;
-    crm:P14 "坂越の船渡御祭保存会" ;
-    crm:P67 &lt;http://www.city.ako.lg.jp/channelako/funamaturi.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-10-13" ;
-        crm:P115 "2019-10-13" 
+&lt;https://w3id.org/ifcp/276/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:276 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C28212-19700401&gt; ;
+    crm:P14_carried_out_by "坂越の船渡御祭保存会" ;
+    crm:P67_refers_to &lt;http://www.city.ako.lg.jp/channelako/funamaturi.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-10-13" ;
+        crm:P115_finishes "2019-10-13" 
     ] .</v>
       </c>
     </row>
@@ -6486,13 +6486,13 @@
         <v>163</v>
       </c>
       <c r="K62" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="L62" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="L62" s="7" t="s">
-        <v>482</v>
-      </c>
       <c r="M62" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N62" s="23">
         <v>3</v>
@@ -6501,16 +6501,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:282
     rdfs:label "花輪祭の屋台行事"@ja .
-&lt;https://w3id.org/ifcp/282/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:282 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05209-19980601&gt; ;
-    crm:P14 "花輪ばやし祭典委員会" ;
-    crm:P67 &lt;https://www.kahoku.co.jp/tohokunews/201908/20190820_45020.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-08-19" ;
-        crm:P115 "2019-08-21" 
+&lt;https://w3id.org/ifcp/282/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:282 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05209-19980601&gt; ;
+    crm:P14_carried_out_by "花輪ばやし祭典委員会" ;
+    crm:P67_refers_to &lt;https://www.kahoku.co.jp/tohokunews/201908/20190820_45020.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-08-19" ;
+        crm:P115_finishes "2019-08-21" 
     ] .</v>
       </c>
     </row>
@@ -6544,13 +6544,13 @@
         <v>164</v>
       </c>
       <c r="K63" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="L63" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="L63" s="7" t="s">
+      <c r="M63" t="s">
         <v>484</v>
-      </c>
-      <c r="M63" t="s">
-        <v>485</v>
       </c>
       <c r="N63" s="23">
         <v>2</v>
@@ -6559,16 +6559,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:283
     rdfs:label "松例祭の大松明行事"@ja .
-&lt;https://w3id.org/ifcp/283/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:283 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06203-20180131&gt; ;
-    crm:P14 "松例祭保存会" ;
-    crm:P67 &lt;https://hagurokanko.jp/p3644/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-12-31" ;
-        crm:P115 "2020-01-01" 
+&lt;https://w3id.org/ifcp/283/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:283 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C06203-20180131&gt; ;
+    crm:P14_carried_out_by "松例祭保存会" ;
+    crm:P67_refers_to &lt;https://hagurokanko.jp/p3644/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-12-31" ;
+        crm:P115_finishes "2020-01-01" 
     ] .</v>
       </c>
     </row>
@@ -6602,13 +6602,13 @@
         <v>165</v>
       </c>
       <c r="K64" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="L64" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="L64" s="7" t="s">
-        <v>488</v>
-      </c>
       <c r="M64" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N64" s="23">
         <v>3</v>
@@ -6617,16 +6617,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:288
     rdfs:label "大垣祭の軕行事"@ja .
-&lt;https://w3id.org/ifcp/288/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:288 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21202-20091031&gt; ;
-    crm:P14 "大垣祭保存会" ;
-    crm:P67 &lt;https://www.asahi.com/articles/ASM5C3FPKM5COHGB001.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-05-11" ;
-        crm:P115 "2019-05-12" 
+&lt;https://w3id.org/ifcp/288/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:288 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C21202-20091031&gt; ;
+    crm:P14_carried_out_by "大垣祭保存会" ;
+    crm:P67_refers_to &lt;https://www.asahi.com/articles/ASM5C3FPKM5COHGB001.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-05-11" ;
+        crm:P115_finishes "2019-05-12" 
     ] .</v>
       </c>
     </row>
@@ -6660,13 +6660,13 @@
         <v>166</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M65" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N65" s="23">
         <v>4</v>
@@ -6675,16 +6675,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:290
     rdfs:label "那智の扇祭り"@ja .
-&lt;https://w3id.org/ifcp/290/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:290 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30421-19700401&gt; ;
-    crm:P14 "那智の扇祭り保存会" ;
-    crm:P67 &lt;https://www.ticwakayama.jp/tour/nachi-ougimaturi2019/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-07-14" ;
-        crm:P115 "2019-07-14" 
+&lt;https://w3id.org/ifcp/290/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:290 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C30421-19700401&gt; ;
+    crm:P14_carried_out_by "那智の扇祭り保存会" ;
+    crm:P67_refers_to &lt;https://www.ticwakayama.jp/tour/nachi-ougimaturi2019/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-07-14" ;
+        crm:P115_finishes "2019-07-14" 
     ] .</v>
       </c>
     </row>
@@ -6718,13 +6718,13 @@
         <v>167</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M66" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N66" s="23">
         <v>3</v>
@@ -6733,16 +6733,16 @@
         <f t="shared" si="0"/>
         <v>ifcp:291
     rdfs:label "大津祭の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/291/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:291 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25201-20090401&gt; ;
-    crm:P14 "大津祭保存会" ;
-    crm:P67 &lt;https://www.kyoto-np.co.jp/articles/-/32789&gt; ;
-    crm:P4 [
-        crm:P116 "開催せず" ;
-        crm:P115 "開催せず" 
+&lt;https://w3id.org/ifcp/291/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:291 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C25201-20090401&gt; ;
+    crm:P14_carried_out_by "大津祭保存会" ;
+    crm:P67_refers_to &lt;https://www.kyoto-np.co.jp/articles/-/32789&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "開催せず" ;
+        crm:P115_finishes "開催せず" 
     ] .</v>
       </c>
     </row>
@@ -6776,13 +6776,13 @@
         <v>168</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N67" s="26">
         <v>3</v>
@@ -6790,29 +6790,29 @@
       <c r="O67" s="4" t="str">
         <f t="shared" ref="O67:O71" si="1">"ifcp:"&amp;A67&amp;"
     rdfs:label """&amp;E67&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A67&amp;"/held/2019/"&amp;B67&amp;"&gt;
-    rdf:type crm:E5 ;
-    crm:P12 "&amp;D67&amp;" ;
-    crm:P17 ifcp:"&amp;A67&amp;" ;
-    crm:P7 &lt;"&amp;I67&amp;"&gt; ;
-    crm:P14 """&amp;J67&amp;""" ;
-    crm:P67 &lt;"&amp;M67&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;K67&amp;""" ;
-        crm:P115 """&amp;L67&amp;""" 
+&lt;https://w3id.org/ifcp/"&amp;A67&amp;"/held/2018/"&amp;B67&amp;"&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of "&amp;D67&amp;" ;
+    crm:P17_was_motivated_by ifcp:"&amp;A67&amp;" ;
+    crm:P7_took_place_at &lt;"&amp;I67&amp;"&gt; ;
+    crm:P14_carried_out_by """&amp;J67&amp;""" ;
+    crm:P67_refers_to &lt;"&amp;M67&amp;"&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts """&amp;K67&amp;""" ;
+        crm:P115_finishes """&amp;L67&amp;""" 
     ] ."</f>
         <v>ifcp:292
     rdfs:label "新宮の速玉祭・御燈祭り"@ja .
-&lt;https://w3id.org/ifcp/292/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:292 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30207-20051001&gt; ;
-    crm:P14 "熊野速玉大社祭事保存会" ;
-    crm:P67 &lt;https://www.asahi.com/articles/ASM264PQ6M26PXLB007.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-02-06" ;
-        crm:P115 "2019-02-06" 
+&lt;https://w3id.org/ifcp/292/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:292 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C30207-20051001&gt; ;
+    crm:P14_carried_out_by "熊野速玉大社祭事保存会" ;
+    crm:P67_refers_to &lt;https://www.asahi.com/articles/ASM264PQ6M26PXLB007.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-02-06" ;
+        crm:P115_finishes "2019-02-06" 
     ] .</v>
       </c>
     </row>
@@ -6846,13 +6846,13 @@
         <v>169</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M68" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N68" s="23">
         <v>4</v>
@@ -6861,16 +6861,16 @@
         <f t="shared" si="1"/>
         <v>ifcp:293
     rdfs:label "西大寺の会陽"@ja .
-&lt;https://w3id.org/ifcp/293/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:293 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C33201-20090401&gt; ;
-    crm:P14 "西大寺会陽保存会" ;
-    crm:P67 &lt;https://omatsurijapan.com/blog/saidaijieyou-2019/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-02-16" ;
-        crm:P115 "2019-02-16" 
+&lt;https://w3id.org/ifcp/293/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:293 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C33201-20090401&gt; ;
+    crm:P14_carried_out_by "西大寺会陽保存会" ;
+    crm:P67_refers_to &lt;https://omatsurijapan.com/blog/saidaijieyou-2019/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-02-16" ;
+        crm:P115_finishes "2019-02-16" 
     ] .</v>
       </c>
     </row>
@@ -6904,13 +6904,13 @@
         <v>170</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M69" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N69" s="23">
         <v>2</v>
@@ -6919,16 +6919,16 @@
         <f t="shared" si="1"/>
         <v>ifcp:295
     rdfs:label "常陸大津の御船祭"@ja .
-&lt;https://w3id.org/ifcp/295/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:295 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08215-19981001&gt; ;
-    crm:P14 "常陸大津の御船祭保存会" ;
-    crm:P67 &lt;http://www.kitaibarakishi-kankokyokai.gr.jp/page/page000506.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-05-02" ;
-        crm:P115 "2019-05-03" 
+&lt;https://w3id.org/ifcp/295/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:295 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C08215-19981001&gt; ;
+    crm:P14_carried_out_by "常陸大津の御船祭保存会" ;
+    crm:P67_refers_to &lt;http://www.kitaibarakishi-kankokyokai.gr.jp/page/page000506.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-05-02" ;
+        crm:P115_finishes "2019-05-03" 
     ] .</v>
       </c>
     </row>
@@ -6962,13 +6962,13 @@
         <v>171</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N70" s="23">
         <v>4</v>
@@ -6977,16 +6977,16 @@
         <f t="shared" si="1"/>
         <v>ifcp:301
     rdfs:label "浦佐毘沙門堂の裸押合"@ja .
-&lt;https://w3id.org/ifcp/301/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:301 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15226-20051001&gt; ;
-    crm:P14 "浦佐毘沙門堂裸押合大祭委員会" ;
-    crm:P67 &lt;https://omatsurijapan.com/blog/dairousoku-2019/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-03-03" ;
-        crm:P115 "2019-03-03" 
+&lt;https://w3id.org/ifcp/301/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:301 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C15226-20051001&gt; ;
+    crm:P14_carried_out_by "浦佐毘沙門堂裸押合大祭委員会" ;
+    crm:P67_refers_to &lt;https://omatsurijapan.com/blog/dairousoku-2019/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-03-03" ;
+        crm:P115_finishes "2019-03-03" 
     ] .</v>
       </c>
     </row>
@@ -7020,13 +7020,13 @@
         <v>172</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M71" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N71" s="23">
         <v>4</v>
@@ -7035,16 +7035,16 @@
         <f t="shared" si="1"/>
         <v>ifcp:302
     rdfs:label "村上祭の屋台行事"@ja .
-&lt;https://w3id.org/ifcp/302/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:302 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15212-20100616&gt; ;
-    crm:P14 "村上まつり保存会" ;
-    crm:P67 &lt;https://omatsurijapan.com/blog/murakami-taisai-2019/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-07-06" ;
-        crm:P115 "2019-07-08" 
+&lt;https://w3id.org/ifcp/302/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:302 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C15212-20100616&gt; ;
+    crm:P14_carried_out_by "村上まつり保存会" ;
+    crm:P67_refers_to &lt;https://omatsurijapan.com/blog/murakami-taisai-2019/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-07-06" ;
+        crm:P115_finishes "2019-07-08" 
     ] .</v>
       </c>
     </row>

--- a/list_p6_event_2019.xlsx
+++ b/list_p6_event_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE473822-A2F4-4140-879B-59AB3C281C2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403605CD-36E6-E046-A145-0B7B3635C221}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3012,7 +3012,7 @@
       <c r="O2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
     rdfs:label """&amp;E2&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
+&lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2019/"&amp;B2&amp;"&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of "&amp;D2&amp;" ;
     crm:P17_was_motivated_by ifcp:"&amp;A2&amp;" ;
@@ -3025,7 +3025,7 @@
     ] ."</f>
         <v>ifcp:33
     rdfs:label "日立風流物"@ja .
-&lt;https://w3id.org/ifcp/33/held/2018/&gt;
+&lt;https://w3id.org/ifcp/33/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:33 ;
@@ -3082,7 +3082,7 @@
       <c r="O3" s="4" t="str">
         <f t="shared" ref="O3:O66" si="0">"ifcp:"&amp;A3&amp;"
     rdfs:label """&amp;E3&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
+&lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2019/"&amp;B3&amp;"&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of "&amp;D3&amp;" ;
     crm:P17_was_motivated_by ifcp:"&amp;A3&amp;" ;
@@ -3095,7 +3095,7 @@
     ] ."</f>
         <v>ifcp:63
     rdfs:label "烏山の山あげ行事"@ja .
-&lt;https://w3id.org/ifcp/63/held/2018/&gt;
+&lt;https://w3id.org/ifcp/63/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:63 ;
@@ -3153,7 +3153,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:64
     rdfs:label "秩父祭の屋台行事と神楽"@ja .
-&lt;https://w3id.org/ifcp/64/held/2018/&gt;
+&lt;https://w3id.org/ifcp/64/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:64 ;
@@ -3211,7 +3211,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:66
     rdfs:label "高岡御車山祭の御車山行事"@ja .
-&lt;https://w3id.org/ifcp/66/held/2018/&gt;
+&lt;https://w3id.org/ifcp/66/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:66 ;
@@ -3271,7 +3271,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:69
     rdfs:label "高山祭の屋台行事"@ja .
-&lt;https://w3id.org/ifcp/69/held/2018/1&gt;
+&lt;https://w3id.org/ifcp/69/held/2019/1&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:69 ;
@@ -3331,7 +3331,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:69
     rdfs:label "高山祭の屋台行事"@ja .
-&lt;https://w3id.org/ifcp/69/held/2018/2&gt;
+&lt;https://w3id.org/ifcp/69/held/2019/2&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:69 ;
@@ -3389,7 +3389,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:71
     rdfs:label "長浜曳山祭の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/71/held/2018/&gt;
+&lt;https://w3id.org/ifcp/71/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:71 ;
@@ -3447,7 +3447,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:72
     rdfs:label "京都祇園祭の山鉾行事"@ja .
-&lt;https://w3id.org/ifcp/72/held/2018/&gt;
+&lt;https://w3id.org/ifcp/72/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:72 ;
@@ -3505,7 +3505,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:79
     rdfs:label "博多祇園山笠行事"@ja .
-&lt;https://w3id.org/ifcp/79/held/2018/&gt;
+&lt;https://w3id.org/ifcp/79/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:79 ;
@@ -3563,7 +3563,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:81
     rdfs:label "青森のねぶた"@ja .
-&lt;https://w3id.org/ifcp/81/held/2018/&gt;
+&lt;https://w3id.org/ifcp/81/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:81 ;
@@ -3621,7 +3621,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:82
     rdfs:label "弘前のねぷた"@ja .
-&lt;https://w3id.org/ifcp/82/held/2018/&gt;
+&lt;https://w3id.org/ifcp/82/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:82 ;
@@ -3679,7 +3679,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:84
     rdfs:label "秋田の竿灯"@ja .
-&lt;https://w3id.org/ifcp/84/held/2018/&gt;
+&lt;https://w3id.org/ifcp/84/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:84 ;
@@ -3737,7 +3737,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:85
     rdfs:label "金沢の羽山ごもり"@ja .
-&lt;https://w3id.org/ifcp/85/held/2018/&gt;
+&lt;https://w3id.org/ifcp/85/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:85 ;
@@ -3795,7 +3795,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:90
     rdfs:label "古川祭の起し太鼓・屋台行事"@ja .
-&lt;https://w3id.org/ifcp/90/held/2018/&gt;
+&lt;https://w3id.org/ifcp/90/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:90 ;
@@ -3853,7 +3853,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:91
     rdfs:label "尾張津島天王祭の車楽舟行事"@ja .
-&lt;https://w3id.org/ifcp/91/held/2018/&gt;
+&lt;https://w3id.org/ifcp/91/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:91 ;
@@ -3911,7 +3911,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:92
     rdfs:label "豊橋神明社の鬼祭"@ja .
-&lt;https://w3id.org/ifcp/92/held/2018/&gt;
+&lt;https://w3id.org/ifcp/92/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:92 ;
@@ -3969,7 +3969,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:95
     rdfs:label "戸畑祇園大山笠行事"@ja .
-&lt;https://w3id.org/ifcp/95/held/2018/&gt;
+&lt;https://w3id.org/ifcp/95/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:95 ;
@@ -4027,7 +4027,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:96
     rdfs:label "唐津くんちの曳山行事"@ja .
-&lt;https://w3id.org/ifcp/96/held/2018/&gt;
+&lt;https://w3id.org/ifcp/96/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:96 ;
@@ -4085,7 +4085,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:100
     rdfs:label "田島祇園祭のおとうや行事"@ja .
-&lt;https://w3id.org/ifcp/100/held/2018/&gt;
+&lt;https://w3id.org/ifcp/100/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:100 ;
@@ -4143,7 +4143,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:102
     rdfs:label "熊甲二十日祭の枠旗行事"@ja .
-&lt;https://w3id.org/ifcp/102/held/2018/&gt;
+&lt;https://w3id.org/ifcp/102/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:102 ;
@@ -4201,7 +4201,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:114
     rdfs:label "青柏祭の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/114/held/2018/&gt;
+&lt;https://w3id.org/ifcp/114/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:114 ;
@@ -4259,7 +4259,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:120
     rdfs:label "岩木山の登拝行事"@ja .
-&lt;https://w3id.org/ifcp/120/held/2018/&gt;
+&lt;https://w3id.org/ifcp/120/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:120 ;
@@ -4317,7 +4317,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:122
     rdfs:label "室根神社祭のマツリバ行事"@ja .
-&lt;https://w3id.org/ifcp/122/held/2018/&gt;
+&lt;https://w3id.org/ifcp/122/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:122 ;
@@ -4375,7 +4375,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:126
     rdfs:label "東湖八坂神社のトウニン（統人）行事"@ja .
-&lt;https://w3id.org/ifcp/126/held/2018/&gt;
+&lt;https://w3id.org/ifcp/126/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:126 ;
@@ -4433,7 +4433,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:129
     rdfs:label "涌出宮の宮座行事"@ja .
-&lt;https://w3id.org/ifcp/129/held/2018/&gt;
+&lt;https://w3id.org/ifcp/129/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:129 ;
@@ -4491,7 +4491,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:149
     rdfs:label "角館祭りのやま行事"@ja .
-&lt;https://w3id.org/ifcp/149/held/2018/&gt;
+&lt;https://w3id.org/ifcp/149/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:149 ;
@@ -4549,7 +4549,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:150
     rdfs:label "近江中山の芋競べ祭り"@ja .
-&lt;https://w3id.org/ifcp/150/held/2018/&gt;
+&lt;https://w3id.org/ifcp/150/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:150 ;
@@ -4596,7 +4596,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:153
     rdfs:label "白間津のオオマチ（大祭）行事"@ja .
-&lt;https://w3id.org/ifcp/153/held/2018/&gt;
+&lt;https://w3id.org/ifcp/153/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:153 ;
@@ -4654,7 +4654,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:171
     rdfs:label "発光路の強飯式"@ja .
-&lt;https://w3id.org/ifcp/171/held/2018/&gt;
+&lt;https://w3id.org/ifcp/171/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:171 ;
@@ -4712,7 +4712,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:172
     rdfs:label "貴船神社の船祭り"@ja .
-&lt;https://w3id.org/ifcp/172/held/2018/&gt;
+&lt;https://w3id.org/ifcp/172/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:172 ;
@@ -4770,7 +4770,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:176
     rdfs:label "日田祗園の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/176/held/2018/&gt;
+&lt;https://w3id.org/ifcp/176/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:176 ;
@@ -4828,7 +4828,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:178
     rdfs:label "土崎神明社祭の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/178/held/2018/&gt;
+&lt;https://w3id.org/ifcp/178/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:178 ;
@@ -4886,7 +4886,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:180
     rdfs:label "魚津のタテモン行事"@ja .
-&lt;https://w3id.org/ifcp/180/held/2018/&gt;
+&lt;https://w3id.org/ifcp/180/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:180 ;
@@ -4944,7 +4944,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:182
     rdfs:label "鳥出神社の鯨船行事"@ja .
-&lt;https://w3id.org/ifcp/182/held/2018/&gt;
+&lt;https://w3id.org/ifcp/182/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:182 ;
@@ -5002,7 +5002,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:187
     rdfs:label "塩屋湾のウンガミ"@ja .
-&lt;https://w3id.org/ifcp/187/held/2018/&gt;
+&lt;https://w3id.org/ifcp/187/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:187 ;
@@ -5060,7 +5060,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:192
     rdfs:label "等覚寺の松会"@ja .
-&lt;https://w3id.org/ifcp/192/held/2018/&gt;
+&lt;https://w3id.org/ifcp/192/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:192 ;
@@ -5109,7 +5109,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:197
     rdfs:label "山北のボタモチ祭り"@ja .
-&lt;https://w3id.org/ifcp/197/held/2018/&gt;
+&lt;https://w3id.org/ifcp/197/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:197 ;
@@ -5167,7 +5167,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:198
     rdfs:label "滑川のネブタ流し"@ja .
-&lt;https://w3id.org/ifcp/198/held/2018/&gt;
+&lt;https://w3id.org/ifcp/198/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:198 ;
@@ -5225,7 +5225,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:199
     rdfs:label "大江八幡神社の御船行事"@ja .
-&lt;https://w3id.org/ifcp/199/held/2018/&gt;
+&lt;https://w3id.org/ifcp/199/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:199 ;
@@ -5283,7 +5283,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:201
     rdfs:label "河内祭の御舟行事"@ja .
-&lt;https://w3id.org/ifcp/201/held/2018/&gt;
+&lt;https://w3id.org/ifcp/201/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:201 ;
@@ -5341,7 +5341,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:205
     rdfs:label "片品の猿追い祭"@ja .
-&lt;https://w3id.org/ifcp/205/held/2018/&gt;
+&lt;https://w3id.org/ifcp/205/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:205 ;
@@ -5399,7 +5399,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:206
     rdfs:label "気多の鵜祭の習俗"@ja .
-&lt;https://w3id.org/ifcp/206/held/2018/&gt;
+&lt;https://w3id.org/ifcp/206/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:206 ;
@@ -5457,7 +5457,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:208
     rdfs:label "見付天神裸祭"@ja .
-&lt;https://w3id.org/ifcp/208/held/2018/&gt;
+&lt;https://w3id.org/ifcp/208/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:208 ;
@@ -5515,7 +5515,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:215
     rdfs:label "城端神明宮祭の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/215/held/2018/&gt;
+&lt;https://w3id.org/ifcp/215/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:215 ;
@@ -5573,7 +5573,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:216
     rdfs:label "上野天神祭のダンジリ行事"@ja .
-&lt;https://w3id.org/ifcp/216/held/2018/&gt;
+&lt;https://w3id.org/ifcp/216/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:216 ;
@@ -5631,7 +5631,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:219
     rdfs:label "鹿沼今宮神社祭の屋台行事"@ja .
-&lt;https://w3id.org/ifcp/219/held/2018/&gt;
+&lt;https://w3id.org/ifcp/219/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:219 ;
@@ -5689,7 +5689,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:220
     rdfs:label "八戸三社大祭の山車行事"@ja .
-&lt;https://w3id.org/ifcp/220/held/2018/&gt;
+&lt;https://w3id.org/ifcp/220/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:220 ;
@@ -5747,7 +5747,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:226
     rdfs:label "佐原の山車行事"@ja .
-&lt;https://w3id.org/ifcp/226/held/2018/&gt;
+&lt;https://w3id.org/ifcp/226/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:226 ;
@@ -5805,7 +5805,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:231
     rdfs:label "川越氷川祭の山車行事"@ja .
-&lt;https://w3id.org/ifcp/231/held/2018/&gt;
+&lt;https://w3id.org/ifcp/231/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:231 ;
@@ -5863,7 +5863,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:232
     rdfs:label "茂名の里芋祭"@ja .
-&lt;https://w3id.org/ifcp/232/held/2018/&gt;
+&lt;https://w3id.org/ifcp/232/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:232 ;
@@ -5921,7 +5921,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:234
     rdfs:label "三上のずいき祭"@ja .
-&lt;https://w3id.org/ifcp/234/held/2018/&gt;
+&lt;https://w3id.org/ifcp/234/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:234 ;
@@ -5979,7 +5979,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:243
     rdfs:label "犬山祭の車山行事"@ja .
-&lt;https://w3id.org/ifcp/243/held/2018/&gt;
+&lt;https://w3id.org/ifcp/243/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:243 ;
@@ -6037,7 +6037,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:244
     rdfs:label "亀崎潮干祭の山車行事"@ja .
-&lt;https://w3id.org/ifcp/244/held/2018/&gt;
+&lt;https://w3id.org/ifcp/244/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:244 ;
@@ -6095,7 +6095,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:249
     rdfs:label "桑名石取祭の祭車行事"@ja .
-&lt;https://w3id.org/ifcp/249/held/2018/&gt;
+&lt;https://w3id.org/ifcp/249/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:249 ;
@@ -6153,7 +6153,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:259
     rdfs:label "新庄まつりの山車行事"@ja .
-&lt;https://w3id.org/ifcp/259/held/2018/&gt;
+&lt;https://w3id.org/ifcp/259/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:259 ;
@@ -6211,7 +6211,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:270
     rdfs:label "小菅の柱松行事"@ja .
-&lt;https://w3id.org/ifcp/270/held/2018/&gt;
+&lt;https://w3id.org/ifcp/270/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:270 ;
@@ -6269,7 +6269,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:272
     rdfs:label "八代妙見祭の神幸行事"@ja .
-&lt;https://w3id.org/ifcp/272/held/2018/&gt;
+&lt;https://w3id.org/ifcp/272/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:272 ;
@@ -6327,7 +6327,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:273
     rdfs:label "吉田の火祭"@ja .
-&lt;https://w3id.org/ifcp/273/held/2018/&gt;
+&lt;https://w3id.org/ifcp/273/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:273 ;
@@ -6385,7 +6385,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:275
     rdfs:label "須成祭の車楽船行事と神葭流し"@ja .
-&lt;https://w3id.org/ifcp/275/held/2018/&gt;
+&lt;https://w3id.org/ifcp/275/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:275 ;
@@ -6443,7 +6443,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:276
     rdfs:label "坂越の船祭"@ja .
-&lt;https://w3id.org/ifcp/276/held/2018/&gt;
+&lt;https://w3id.org/ifcp/276/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:276 ;
@@ -6501,7 +6501,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:282
     rdfs:label "花輪祭の屋台行事"@ja .
-&lt;https://w3id.org/ifcp/282/held/2018/&gt;
+&lt;https://w3id.org/ifcp/282/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:282 ;
@@ -6559,7 +6559,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:283
     rdfs:label "松例祭の大松明行事"@ja .
-&lt;https://w3id.org/ifcp/283/held/2018/&gt;
+&lt;https://w3id.org/ifcp/283/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:283 ;
@@ -6617,7 +6617,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:288
     rdfs:label "大垣祭の軕行事"@ja .
-&lt;https://w3id.org/ifcp/288/held/2018/&gt;
+&lt;https://w3id.org/ifcp/288/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:288 ;
@@ -6675,7 +6675,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:290
     rdfs:label "那智の扇祭り"@ja .
-&lt;https://w3id.org/ifcp/290/held/2018/&gt;
+&lt;https://w3id.org/ifcp/290/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:290 ;
@@ -6733,7 +6733,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:291
     rdfs:label "大津祭の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/291/held/2018/&gt;
+&lt;https://w3id.org/ifcp/291/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:291 ;
@@ -6790,7 +6790,7 @@
       <c r="O67" s="4" t="str">
         <f t="shared" ref="O67:O71" si="1">"ifcp:"&amp;A67&amp;"
     rdfs:label """&amp;E67&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A67&amp;"/held/2018/"&amp;B67&amp;"&gt;
+&lt;https://w3id.org/ifcp/"&amp;A67&amp;"/held/2019/"&amp;B67&amp;"&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of "&amp;D67&amp;" ;
     crm:P17_was_motivated_by ifcp:"&amp;A67&amp;" ;
@@ -6803,7 +6803,7 @@
     ] ."</f>
         <v>ifcp:292
     rdfs:label "新宮の速玉祭・御燈祭り"@ja .
-&lt;https://w3id.org/ifcp/292/held/2018/&gt;
+&lt;https://w3id.org/ifcp/292/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:292 ;
@@ -6861,7 +6861,7 @@
         <f t="shared" si="1"/>
         <v>ifcp:293
     rdfs:label "西大寺の会陽"@ja .
-&lt;https://w3id.org/ifcp/293/held/2018/&gt;
+&lt;https://w3id.org/ifcp/293/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:293 ;
@@ -6919,7 +6919,7 @@
         <f t="shared" si="1"/>
         <v>ifcp:295
     rdfs:label "常陸大津の御船祭"@ja .
-&lt;https://w3id.org/ifcp/295/held/2018/&gt;
+&lt;https://w3id.org/ifcp/295/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:295 ;
@@ -6977,7 +6977,7 @@
         <f t="shared" si="1"/>
         <v>ifcp:301
     rdfs:label "浦佐毘沙門堂の裸押合"@ja .
-&lt;https://w3id.org/ifcp/301/held/2018/&gt;
+&lt;https://w3id.org/ifcp/301/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:301 ;
@@ -7035,7 +7035,7 @@
         <f t="shared" si="1"/>
         <v>ifcp:302
     rdfs:label "村上祭の屋台行事"@ja .
-&lt;https://w3id.org/ifcp/302/held/2018/&gt;
+&lt;https://w3id.org/ifcp/302/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:302 ;

--- a/list_p6_event_2019.xlsx
+++ b/list_p6_event_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Dropbox/My Mac (dhcp5-128.slis.tsukuba.ac.jp)/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403605CD-36E6-E046-A145-0B7B3635C221}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34050D2-2837-3C4A-A2C6-ACBE522C6043}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
@@ -3012,27 +3012,29 @@
       <c r="O2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
     rdfs:label """&amp;E2&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2019/"&amp;B2&amp;"&gt;
+&lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of "&amp;D2&amp;" ;
-    crm:P17_was_motivated_by ifcp:"&amp;A2&amp;" ;
+    crm:P21_had_general_purpose ifcp:"&amp;A2&amp;" ;
     crm:P7_took_place_at &lt;"&amp;I2&amp;"&gt; ;
     crm:P14_carried_out_by """&amp;J2&amp;""" ;
     crm:P67_refers_to &lt;"&amp;M2&amp;"&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts """&amp;K2&amp;""" ;
         crm:P115_finishes """&amp;L2&amp;""" 
     ] ."</f>
         <v>ifcp:33
     rdfs:label "日立風流物"@ja .
-&lt;https://w3id.org/ifcp/33/held/2019/&gt;
+&lt;https://w3id.org/ifcp/33/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:33 ;
+    crm:P21_had_general_purpose ifcp:33 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C08202-20041101&gt; ;
     crm:P14_carried_out_by "日立郷土芸能保存会" ;
     crm:P67_refers_to &lt;https://www.ibarakiguide.jp/events/events-140738.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-05-03" ;
         crm:P115_finishes "2019-05-05" 
     ] .</v>
@@ -3082,27 +3084,29 @@
       <c r="O3" s="4" t="str">
         <f t="shared" ref="O3:O66" si="0">"ifcp:"&amp;A3&amp;"
     rdfs:label """&amp;E3&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2019/"&amp;B3&amp;"&gt;
+&lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of "&amp;D3&amp;" ;
-    crm:P17_was_motivated_by ifcp:"&amp;A3&amp;" ;
+    crm:P21_had_general_purpose ifcp:"&amp;A3&amp;" ;
     crm:P7_took_place_at &lt;"&amp;I3&amp;"&gt; ;
     crm:P14_carried_out_by """&amp;J3&amp;""" ;
     crm:P67_refers_to &lt;"&amp;M3&amp;"&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts """&amp;K3&amp;""" ;
         crm:P115_finishes """&amp;L3&amp;""" 
     ] ."</f>
         <v>ifcp:63
     rdfs:label "烏山の山あげ行事"@ja .
-&lt;https://w3id.org/ifcp/63/held/2019/&gt;
+&lt;https://w3id.org/ifcp/63/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:63 ;
+    crm:P21_had_general_purpose ifcp:63 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C09215-20120801&gt; ;
     crm:P14_carried_out_by "烏山山あげ保存会" ;
     crm:P67_refers_to &lt;https://tabi-mag.jp/yamaagesai/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-07-26" ;
         crm:P115_finishes "2019-07-28" 
     ] .</v>
@@ -3153,14 +3157,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:64
     rdfs:label "秩父祭の屋台行事と神楽"@ja .
-&lt;https://w3id.org/ifcp/64/held/2019/&gt;
+&lt;https://w3id.org/ifcp/64/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:64 ;
+    crm:P21_had_general_purpose ifcp:64 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C11207-20050401&gt; ;
     crm:P14_carried_out_by "秩父祭保存委員会" ;
     crm:P67_refers_to &lt;http://www.chichibuji.gr.jp/yomatsuri2019/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-12-02" ;
         crm:P115_finishes "2019-12-03" 
     ] .</v>
@@ -3211,14 +3216,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:66
     rdfs:label "高岡御車山祭の御車山行事"@ja .
-&lt;https://w3id.org/ifcp/66/held/2019/&gt;
+&lt;https://w3id.org/ifcp/66/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:66 ;
+    crm:P21_had_general_purpose ifcp:66 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C16202-20051101&gt; ;
     crm:P14_carried_out_by "高岡御車山保存会" ;
     crm:P67_refers_to &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000019360&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-04-30" ;
         crm:P115_finishes "2019-05-01" 
     ] .</v>
@@ -3271,14 +3277,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:69
     rdfs:label "高山祭の屋台行事"@ja .
-&lt;https://w3id.org/ifcp/69/held/2019/1&gt;
+&lt;https://w3id.org/ifcp/69/held/2018/1&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:69 ;
+    crm:P21_had_general_purpose ifcp:69 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
     crm:P14_carried_out_by "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
     crm:P67_refers_to &lt;https://omatsurijapan.com/blog/spring-takayama-festival-2019/#i-2&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-04-14" ;
         crm:P115_finishes "2019-04-15" 
     ] .</v>
@@ -3331,14 +3338,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:69
     rdfs:label "高山祭の屋台行事"@ja .
-&lt;https://w3id.org/ifcp/69/held/2019/2&gt;
+&lt;https://w3id.org/ifcp/69/held/2018/2&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:69 ;
+    crm:P21_had_general_purpose ifcp:69 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
     crm:P14_carried_out_by "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
     crm:P67_refers_to &lt;https://nanotown01.com/akino-takayama-matsuri/#toc3&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-10-09" ;
         crm:P115_finishes "2019-10-10" 
     ] .</v>
@@ -3389,14 +3397,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:71
     rdfs:label "長浜曳山祭の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/71/held/2019/&gt;
+&lt;https://w3id.org/ifcp/71/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:71 ;
+    crm:P21_had_general_purpose ifcp:71 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C25203-20100101&gt; ;
     crm:P14_carried_out_by "（公益財団法人）長浜曳山文化協会" ;
     crm:P67_refers_to &lt;https://www.my-fav.jp/event/11142/#&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-04-13" ;
         crm:P115_finishes "2019-04-16" 
     ] .</v>
@@ -3447,14 +3456,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:72
     rdfs:label "京都祇園祭の山鉾行事"@ja .
-&lt;https://w3id.org/ifcp/72/held/2019/&gt;
+&lt;https://w3id.org/ifcp/72/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:72 ;
+    crm:P21_had_general_purpose ifcp:72 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C26100-20041220&gt; ;
     crm:P14_carried_out_by "公益財団法人祇園祭山鉾連合会" ;
     crm:P67_refers_to &lt;https://www.okeihan.net/recommend/natsumatsuri_gion/schedule/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-07-01" ;
         crm:P115_finishes "2019-07-31" 
     ] .</v>
@@ -3505,14 +3515,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:79
     rdfs:label "博多祇園山笠行事"@ja .
-&lt;https://w3id.org/ifcp/79/held/2019/&gt;
+&lt;https://w3id.org/ifcp/79/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:79 ;
+    crm:P21_had_general_purpose ifcp:79 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C40132-19720401&gt; ;
     crm:P14_carried_out_by "博多祇園山笠振興会" ;
     crm:P67_refers_to &lt;https://www.hakatayamakasa.com/106019.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-07-01" ;
         crm:P115_finishes "2019-07-15" 
     ] .</v>
@@ -3563,14 +3574,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:81
     rdfs:label "青森のねぶた"@ja .
-&lt;https://w3id.org/ifcp/81/held/2019/&gt;
+&lt;https://w3id.org/ifcp/81/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:81 ;
+    crm:P21_had_general_purpose ifcp:81 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C02201-20070901&gt; ;
     crm:P14_carried_out_by "青森ねぶた祭保存会" ;
     crm:P67_refers_to &lt;https://omatsurijapan.com/blog/aomorinebuta-2019/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-08-02" ;
         crm:P115_finishes "2019-08-07" 
     ] .</v>
@@ -3621,14 +3633,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:82
     rdfs:label "弘前のねぷた"@ja .
-&lt;https://w3id.org/ifcp/82/held/2019/&gt;
+&lt;https://w3id.org/ifcp/82/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:82 ;
+    crm:P21_had_general_purpose ifcp:82 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
     crm:P14_carried_out_by "弘前ねぷた保存会" ;
     crm:P67_refers_to &lt;https://www.hirosaki-kanko.or.jp/web/edit.html?id=cat02_summer_neputa_past&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-08-01" ;
         crm:P115_finishes "2019-08-07" 
     ] .</v>
@@ -3679,14 +3692,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:84
     rdfs:label "秋田の竿灯"@ja .
-&lt;https://w3id.org/ifcp/84/held/2019/&gt;
+&lt;https://w3id.org/ifcp/84/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:84 ;
+    crm:P21_had_general_purpose ifcp:84 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
     crm:P14_carried_out_by "秋田市竿灯会" ;
     crm:P67_refers_to &lt;http://www.kantou.gr.jp/reflect/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-08-04" ;
         crm:P115_finishes "2019-08-07" 
     ] .</v>
@@ -3737,14 +3751,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:85
     rdfs:label "金沢の羽山ごもり"@ja .
-&lt;https://w3id.org/ifcp/85/held/2019/&gt;
+&lt;https://w3id.org/ifcp/85/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:85 ;
+    crm:P21_had_general_purpose ifcp:85 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C07201-20080701&gt; ;
     crm:P14_carried_out_by "羽山ごもり保存会" ;
     crm:P67_refers_to &lt;https://www.matsukawa-kanko.jp/?p=2077&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-12-12" ;
         crm:P115_finishes "2019-12-14" 
     ] .</v>
@@ -3795,14 +3810,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:90
     rdfs:label "古川祭の起し太鼓・屋台行事"@ja .
-&lt;https://w3id.org/ifcp/90/held/2019/&gt;
+&lt;https://w3id.org/ifcp/90/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:90 ;
+    crm:P21_had_general_purpose ifcp:90 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C21217-20040201&gt; ;
     crm:P14_carried_out_by "古川祭保存会" ;
     crm:P67_refers_to &lt;https://www.hida-tourism.com/furukawa-festival&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-04-19" ;
         crm:P115_finishes "2019-04-20" 
     ] .</v>
@@ -3853,14 +3869,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:91
     rdfs:label "尾張津島天王祭の車楽舟行事"@ja .
-&lt;https://w3id.org/ifcp/91/held/2019/&gt;
+&lt;https://w3id.org/ifcp/91/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:91 ;
+    crm:P21_had_general_purpose ifcp:91 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23208-19900401&gt; ;
     crm:P14_carried_out_by "尾張津島天王祭協賛会" ;
     crm:P67_refers_to &lt;http://event.xtone.jp/amp/archives/tsushima_tennosai_2019.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-07-27" ;
         crm:P115_finishes "2019-07-28" 
     ] .</v>
@@ -3911,14 +3928,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:92
     rdfs:label "豊橋神明社の鬼祭"@ja .
-&lt;https://w3id.org/ifcp/92/held/2019/&gt;
+&lt;https://w3id.org/ifcp/92/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:92 ;
+    crm:P21_had_general_purpose ifcp:92 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23201-19990401&gt; ;
     crm:P14_carried_out_by "豊橋鬼祭保存会" ;
     crm:P67_refers_to &lt;http://www.honokuni.or.jp/toyohashi/topics/?Mode=detail&amp;code=463&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-02-10" ;
         crm:P115_finishes "2019-02-11" 
     ] .</v>
@@ -3969,14 +3987,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:95
     rdfs:label "戸畑祇園大山笠行事"@ja .
-&lt;https://w3id.org/ifcp/95/held/2019/&gt;
+&lt;https://w3id.org/ifcp/95/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:95 ;
+    crm:P21_had_general_purpose ifcp:95 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C40100-20081001&gt; ;
     crm:P14_carried_out_by "戸畑祇園大山笠振興会" ;
     crm:P67_refers_to &lt;http://tobatagion.jp/pdf/66_houkoku.pdf&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-07-27" ;
         crm:P115_finishes "2019-07-27" 
     ] .</v>
@@ -4027,14 +4046,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:96
     rdfs:label "唐津くんちの曳山行事"@ja .
-&lt;https://w3id.org/ifcp/96/held/2019/&gt;
+&lt;https://w3id.org/ifcp/96/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:96 ;
+    crm:P21_had_general_purpose ifcp:96 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C41202-20060101&gt; ;
     crm:P14_carried_out_by "唐津曳山取締会" ;
     crm:P67_refers_to &lt;https://omatsurijapan.com/blog/karatsukunchi/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-11-02" ;
         crm:P115_finishes "2019-11-04" 
     ] .</v>
@@ -4085,14 +4105,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:100
     rdfs:label "田島祇園祭のおとうや行事"@ja .
-&lt;https://w3id.org/ifcp/100/held/2019/&gt;
+&lt;https://w3id.org/ifcp/100/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:100 ;
+    crm:P21_had_general_purpose ifcp:100 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C07368-20060320&gt; ;
     crm:P14_carried_out_by "田島祇園祭のおとうや行事保存会" ;
     crm:P67_refers_to &lt;https://tif.ne.jp/jp/event/event_disp.php?id=4995&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-07-22" ;
         crm:P115_finishes "2019-07-24" 
     ] .</v>
@@ -4143,14 +4164,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:102
     rdfs:label "熊甲二十日祭の枠旗行事"@ja .
-&lt;https://w3id.org/ifcp/102/held/2019/&gt;
+&lt;https://w3id.org/ifcp/102/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:102 ;
+    crm:P21_had_general_purpose ifcp:102 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C17202-20090901&gt; ;
     crm:P14_carried_out_by "お熊甲祭奉賛会" ;
     crm:P67_refers_to &lt;https://iijikanazawa.com/news/contributiondetail.php?cid=6926&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-09-20" ;
         crm:P115_finishes "2019-09-20" 
     ] .</v>
@@ -4201,14 +4223,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:114
     rdfs:label "青柏祭の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/114/held/2019/&gt;
+&lt;https://w3id.org/ifcp/114/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:114 ;
+    crm:P21_had_general_purpose ifcp:114 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172020010&gt; ;
     crm:P14_carried_out_by "青柏祭でか山保存会" ;
     crm:P67_refers_to &lt;https://www.city.nanao.lg.jp/shoukan/event/5gatsu/seihakusai.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-05-03" ;
         crm:P115_finishes "2019-05-05" 
     ] .</v>
@@ -4259,14 +4282,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:120
     rdfs:label "岩木山の登拝行事"@ja .
-&lt;https://w3id.org/ifcp/120/held/2019/&gt;
+&lt;https://w3id.org/ifcp/120/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:120 ;
+    crm:P21_had_general_purpose ifcp:120 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
     crm:P14_carried_out_by "お山参詣保存会" ;
     crm:P67_refers_to &lt;https://rurubu.jp/andmore/spot/20003055&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-08-28" ;
         crm:P115_finishes "2019-08-30" 
     ] .</v>
@@ -4317,14 +4341,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:122
     rdfs:label "室根神社祭のマツリバ行事"@ja .
-&lt;https://w3id.org/ifcp/122/held/2019/&gt;
+&lt;https://w3id.org/ifcp/122/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:122 ;
+    crm:P21_had_general_purpose ifcp:122 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C03209-20170904&gt; ;
     crm:P14_carried_out_by "室根神社祭保存会" ;
     crm:P67_refers_to &lt;https://www.nihon-kankou.or.jp/iwate/detail/03425ba2210113854&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "開催せず" ;
         crm:P115_finishes "開催せず" 
     ] .</v>
@@ -4375,14 +4400,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:126
     rdfs:label "東湖八坂神社のトウニン（統人）行事"@ja .
-&lt;https://w3id.org/ifcp/126/held/2019/&gt;
+&lt;https://w3id.org/ifcp/126/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:126 ;
+    crm:P21_had_general_purpose ifcp:126 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05211-20050322&gt; ;
     crm:P14_carried_out_by "東湖八坂神社崇敬会、船越町内連合会" ;
     crm:P67_refers_to &lt;http://www.city.katagami.lg.jp/index.cfm/8,0,36,144,html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-07-07" ;
         crm:P115_finishes "2019-07-08" 
     ] .</v>
@@ -4433,14 +4459,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:129
     rdfs:label "涌出宮の宮座行事"@ja .
-&lt;https://w3id.org/ifcp/129/held/2019/&gt;
+&lt;https://w3id.org/ifcp/129/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:129 ;
+    crm:P21_had_general_purpose ifcp:129 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C26214-20070312&gt; ;
     crm:P14_carried_out_by "涌出宮宮座行事保存会" ;
     crm:P67_refers_to &lt;https://www.kyoto-np.co.jp/articles/-/3714&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-02-17" ;
         crm:P115_finishes "2019-02-17" 
     ] .</v>
@@ -4491,14 +4518,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:149
     rdfs:label "角館祭りのやま行事"@ja .
-&lt;https://w3id.org/ifcp/149/held/2019/&gt;
+&lt;https://w3id.org/ifcp/149/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:149 ;
+    crm:P21_had_general_purpose ifcp:149 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052150130&gt; ;
     crm:P14_carried_out_by "角館のお祭り保存会" ;
     crm:P67_refers_to &lt;https://www.city.semboku.akita.jp/event/event.php?id=1003&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-09-07" ;
         crm:P115_finishes "2019-09-09" 
     ] .</v>
@@ -4549,14 +4577,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:150
     rdfs:label "近江中山の芋競べ祭り"@ja .
-&lt;https://w3id.org/ifcp/150/held/2019/&gt;
+&lt;https://w3id.org/ifcp/150/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:150 ;
+    crm:P21_had_general_purpose ifcp:150 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C25383-19700401&gt; ;
     crm:P14_carried_out_by "芋くらべ祭保存会" ;
     crm:P67_refers_to &lt;https://www.biwako-visitors.jp/event/detail/344&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-09-01" ;
         crm:P115_finishes "2019-09-01" 
     ] .</v>
@@ -4596,14 +4625,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:153
     rdfs:label "白間津のオオマチ（大祭）行事"@ja .
-&lt;https://w3id.org/ifcp/153/held/2019/&gt;
+&lt;https://w3id.org/ifcp/153/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:153 ;
+    crm:P21_had_general_purpose ifcp:153 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C12466-20060320&gt; ;
     crm:P14_carried_out_by "白間津区" ;
     crm:P67_refers_to &lt;&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "" ;
         crm:P115_finishes "" 
     ] .</v>
@@ -4654,14 +4684,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:171
     rdfs:label "発光路の強飯式"@ja .
-&lt;https://w3id.org/ifcp/171/held/2019/&gt;
+&lt;https://w3id.org/ifcp/171/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:171 ;
+    crm:P21_had_general_purpose ifcp:171 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C09205-20120801&gt; ;
     crm:P14_carried_out_by "発光路妙見神社青年部" ;
     crm:P67_refers_to &lt;https://mainichi.jp/articles/20190104/ddl/k09/040/073000c&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-01-03" ;
         crm:P115_finishes "2019-01-03" 
     ] .</v>
@@ -4712,14 +4743,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:172
     rdfs:label "貴船神社の船祭り"@ja .
-&lt;https://w3id.org/ifcp/172/held/2019/&gt;
+&lt;https://w3id.org/ifcp/172/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:172 ;
+    crm:P21_had_general_purpose ifcp:172 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C14383-19700401&gt; ;
     crm:P14_carried_out_by "貴船祭保存会" ;
     crm:P67_refers_to &lt;http://www.town.manazuru.kanagawa.jp/juyo/1239.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-07-27" ;
         crm:P115_finishes "2019-07-28" 
     ] .</v>
@@ -4770,14 +4802,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:176
     rdfs:label "日田祗園の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/176/held/2019/&gt;
+&lt;https://w3id.org/ifcp/176/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:176 ;
+    crm:P21_had_general_purpose ifcp:176 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C44204-20050322&gt; ;
     crm:P14_carried_out_by "日田祗園山鉾振興会" ;
     crm:P67_refers_to &lt;https://www.city.hita.oita.jp/event/10768.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-07-27" ;
         crm:P115_finishes "2019-07-28" 
     ] .</v>
@@ -4828,14 +4861,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:178
     rdfs:label "土崎神明社祭の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/178/held/2019/&gt;
+&lt;https://w3id.org/ifcp/178/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:178 ;
+    crm:P21_had_general_purpose ifcp:178 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
     crm:P14_carried_out_by "土崎神明社奉賛会" ;
     crm:P67_refers_to &lt;https://www.city.akita.lg.jp/kurashi/kyodo-chiiki/1005328/1004620/1009756/1004625.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-07-20" ;
         crm:P115_finishes "2019-07-21" 
     ] .</v>
@@ -4886,14 +4920,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:180
     rdfs:label "魚津のタテモン行事"@ja .
-&lt;https://w3id.org/ifcp/180/held/2019/&gt;
+&lt;https://w3id.org/ifcp/180/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:180 ;
+    crm:P21_had_general_purpose ifcp:180 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C16204-19890601&gt; ;
     crm:P14_carried_out_by "魚津たてもん保存会" ;
     crm:P67_refers_to &lt;https://toyama-asbb.com/archives/34473&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-08-02" ;
         crm:P115_finishes "2019-08-03" 
     ] .</v>
@@ -4944,14 +4979,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:182
     rdfs:label "鳥出神社の鯨船行事"@ja .
-&lt;https://w3id.org/ifcp/182/held/2019/&gt;
+&lt;https://w3id.org/ifcp/182/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:182 ;
+    crm:P21_had_general_purpose ifcp:182 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C24202-20001101&gt; ;
     crm:P14_carried_out_by "富田鯨船保存会連合会" ;
     crm:P67_refers_to &lt;https://www.kankomie.or.jp/event/detail_17783.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-08-14" ;
         crm:P115_finishes "2019-08-15" 
     ] .</v>
@@ -5002,14 +5038,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:187
     rdfs:label "塩屋湾のウンガミ"@ja .
-&lt;https://w3id.org/ifcp/187/held/2019/&gt;
+&lt;https://w3id.org/ifcp/187/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:187 ;
+    crm:P21_had_general_purpose ifcp:187 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C47302-19780601&gt; ;
     crm:P14_carried_out_by "田港区、屋古区、塩屋区、白浜区" ;
     crm:P67_refers_to &lt;https://ryukyushimpo.jp/photo/entry-973995.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-08-18" ;
         crm:P115_finishes "2019-08-18" 
     ] .</v>
@@ -5060,14 +5097,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:192
     rdfs:label "等覚寺の松会"@ja .
-&lt;https://w3id.org/ifcp/192/held/2019/&gt;
+&lt;https://w3id.org/ifcp/192/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:192 ;
+    crm:P21_had_general_purpose ifcp:192 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C40621-19700401&gt; ;
     crm:P14_carried_out_by "等覚寺松会保存会" ;
     crm:P67_refers_to &lt;http://blowinthewind.net/digitalshot/shot152-tokakuji.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-04-21" ;
         crm:P115_finishes "2019-04-21" 
     ] .</v>
@@ -5109,14 +5147,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:197
     rdfs:label "山北のボタモチ祭り"@ja .
-&lt;https://w3id.org/ifcp/197/held/2019/&gt;
+&lt;https://w3id.org/ifcp/197/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:197 ;
+    crm:P21_had_general_purpose ifcp:197 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C15212-20080401&gt; ;
     crm:P14_carried_out_by "中浜ボタモチ祭保存会、杉平ボタモチ祭保存会、岩石ボタモチ保存会" ;
     crm:P67_refers_to &lt;&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "" ;
         crm:P115_finishes "" 
     ] .</v>
@@ -5167,14 +5206,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:198
     rdfs:label "滑川のネブタ流し"@ja .
-&lt;https://w3id.org/ifcp/198/held/2019/&gt;
+&lt;https://w3id.org/ifcp/198/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:198 ;
+    crm:P21_had_general_purpose ifcp:198 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C16206-19910325&gt; ;
     crm:P14_carried_out_by "中川原、常盤町一区・二区・三区" ;
     crm:P67_refers_to &lt;https://vr-hokuriku.jp/namerikawa-nebuta/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-07-31" ;
         crm:P115_finishes "2019-07-31" 
     ] .</v>
@@ -5225,14 +5265,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:199
     rdfs:label "大江八幡神社の御船行事"@ja .
-&lt;https://w3id.org/ifcp/199/held/2019/&gt;
+&lt;https://w3id.org/ifcp/199/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:199 ;
+    crm:P21_had_general_purpose ifcp:199 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C22226-20051011&gt; ;
     crm:P14_carried_out_by "大江氏子会" ;
     crm:P67_refers_to &lt;https://shizuoka-hamamatsu-izu.com/hamamatsu/makinohara-city/ooe-ofunesinji/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-09-15" ;
         crm:P115_finishes "2019-09-15" 
     ] .</v>
@@ -5283,14 +5324,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:201
     rdfs:label "河内祭の御舟行事"@ja .
-&lt;https://w3id.org/ifcp/201/held/2019/&gt;
+&lt;https://w3id.org/ifcp/201/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:201 ;
+    crm:P21_had_general_purpose ifcp:201 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C30423-20050401&gt; ;
     crm:P14_carried_out_by "古座川河内祭保存会、古座獅子舞保存会" ;
     crm:P67_refers_to &lt;https://www.agara.co.jp/article/16037&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-07-28" ;
         crm:P115_finishes "2019-07-29" 
     ] .</v>
@@ -5341,14 +5383,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:205
     rdfs:label "片品の猿追い祭"@ja .
-&lt;https://w3id.org/ifcp/205/held/2019/&gt;
+&lt;https://w3id.org/ifcp/205/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:205 ;
+    crm:P21_had_general_purpose ifcp:205 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C10443-19700401&gt; ;
     crm:P14_carried_out_by "猿追い祭保存会" ;
     crm:P67_refers_to &lt;https://matsuri-no-hi.com/matsuri/7807&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-10-14" ;
         crm:P115_finishes "2019-10-14" 
     ] .</v>
@@ -5399,14 +5442,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:206
     rdfs:label "気多の鵜祭の習俗"@ja .
-&lt;https://w3id.org/ifcp/206/held/2019/&gt;
+&lt;https://w3id.org/ifcp/206/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:206 ;
+    crm:P21_had_general_purpose ifcp:206 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172021060&gt; ;
     crm:P14_carried_out_by "気多大社、鵜浦町会" ;
     crm:P67_refers_to &lt;https://iko-yo.net/events/212195&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-12-16" ;
         crm:P115_finishes "2019-12-16" 
     ] .</v>
@@ -5457,14 +5501,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:208
     rdfs:label "見付天神裸祭"@ja .
-&lt;https://w3id.org/ifcp/208/held/2019/&gt;
+&lt;https://w3id.org/ifcp/208/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:208 ;
+    crm:P21_had_general_purpose ifcp:208 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C22211-20090217&gt; ;
     crm:P14_carried_out_by "見付天神裸祭保存会" ;
     crm:P67_refers_to &lt;http://www.at-s.com/event/article/festival/122649.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-09-07" ;
         crm:P115_finishes "2019-09-08" 
     ] .</v>
@@ -5515,14 +5560,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:215
     rdfs:label "城端神明宮祭の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/215/held/2019/&gt;
+&lt;https://w3id.org/ifcp/215/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:215 ;
+    crm:P21_had_general_purpose ifcp:215 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C16210-20041101&gt; ;
     crm:P14_carried_out_by "城端曳山祭保存会" ;
     crm:P67_refers_to &lt;https://tabigurashi.net/festivals/chubu/jyohanaf/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-05-05" ;
         crm:P115_finishes "2019-05-05" 
     ] .</v>
@@ -5573,14 +5619,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:216
     rdfs:label "上野天神祭のダンジリ行事"@ja .
-&lt;https://w3id.org/ifcp/216/held/2019/&gt;
+&lt;https://w3id.org/ifcp/216/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:216 ;
+    crm:P21_had_general_purpose ifcp:216 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C24216-20041101&gt; ;
     crm:P14_carried_out_by "上野文化美術保存会" ;
     crm:P67_refers_to &lt;https://www.city.iga.lg.jp/cmsfiles/contents/0000007/7137/004-005.pdf&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-10-20" ;
         crm:P115_finishes "2019-10-20" 
     ] .</v>
@@ -5631,14 +5678,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:219
     rdfs:label "鹿沼今宮神社祭の屋台行事"@ja .
-&lt;https://w3id.org/ifcp/219/held/2019/&gt;
+&lt;https://w3id.org/ifcp/219/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:219 ;
+    crm:P21_had_general_purpose ifcp:219 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S092050100&gt; ;
     crm:P14_carried_out_by "鹿沼いまみや付け祭り保存会" ;
     crm:P67_refers_to &lt;https://afun7.com/archives/18013.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "開催せず" ;
         crm:P115_finishes "開催せず" 
     ] .</v>
@@ -5689,14 +5737,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:220
     rdfs:label "八戸三社大祭の山車行事"@ja .
-&lt;https://w3id.org/ifcp/220/held/2019/&gt;
+&lt;https://w3id.org/ifcp/220/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:220 ;
+    crm:P21_had_general_purpose ifcp:220 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C02203-20170101&gt; ;
     crm:P14_carried_out_by "八戸三社大祭山車祭り行事保存会" ;
     crm:P67_refers_to &lt;https://www.aptinet.jp/Detail_display_00000028.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-07-31" ;
         crm:P115_finishes "2019-08-04" 
     ] .</v>
@@ -5747,14 +5796,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:226
     rdfs:label "佐原の山車行事"@ja .
-&lt;https://w3id.org/ifcp/226/held/2019/&gt;
+&lt;https://w3id.org/ifcp/226/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:226 ;
+    crm:P21_had_general_purpose ifcp:226 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C12236-20060327&gt; ;
     crm:P14_carried_out_by "佐原山車行事伝承保存会" ;
     crm:P67_refers_to &lt;http://www.aoyagi-food.co.jp/『2019年佐原の大祭秋祭り』が行われます！/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-10-11" ;
         crm:P115_finishes "2019-10-13" 
     ] .</v>
@@ -5805,14 +5855,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:231
     rdfs:label "川越氷川祭の山車行事"@ja .
-&lt;https://w3id.org/ifcp/231/held/2019/&gt;
+&lt;https://w3id.org/ifcp/231/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:231 ;
+    crm:P21_had_general_purpose ifcp:231 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C11201-20030401&gt; ;
     crm:P14_carried_out_by "川越氷川祭の山車行事保存会" ;
     crm:P67_refers_to &lt;https://kanko-bank.com/event_spots/detail/3850/2019_10_19～10_20%E3%80%80川越まつり（川越氷川祭）&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-10-19" ;
         crm:P115_finishes "2019-10-20" 
     ] .</v>
@@ -5863,14 +5914,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:232
     rdfs:label "茂名の里芋祭"@ja .
-&lt;https://w3id.org/ifcp/232/held/2019/&gt;
+&lt;https://w3id.org/ifcp/232/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:232 ;
+    crm:P21_had_general_purpose ifcp:232 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S122050440&gt; ;
     crm:P14_carried_out_by "茂名区" ;
     crm:P67_refers_to &lt;http://yagimitinomise.livedoor.blog/archives/1793266.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-02-19" ;
         crm:P115_finishes "2019-02-21" 
     ] .</v>
@@ -5921,14 +5973,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:234
     rdfs:label "三上のずいき祭"@ja .
-&lt;https://w3id.org/ifcp/234/held/2019/&gt;
+&lt;https://w3id.org/ifcp/234/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:234 ;
+    crm:P21_had_general_purpose ifcp:234 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S252100330&gt; ;
     crm:P14_carried_out_by "ずいき祭保存会" ;
     crm:P67_refers_to &lt;http://www.photoland-aris.com/myanmar/oumi/59/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-10-14" ;
         crm:P115_finishes "2019-10-14" 
     ] .</v>
@@ -5979,14 +6032,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:243
     rdfs:label "犬山祭の車山行事"@ja .
-&lt;https://w3id.org/ifcp/243/held/2019/&gt;
+&lt;https://w3id.org/ifcp/243/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:243 ;
+    crm:P21_had_general_purpose ifcp:243 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23215-19830301&gt; ;
     crm:P14_carried_out_by "犬山祭保存会" ;
     crm:P67_refers_to &lt;https://yuu-goannai.com/?p=3935&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-04-06" ;
         crm:P115_finishes "2019-04-07" 
     ] .</v>
@@ -6037,14 +6091,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:244
     rdfs:label "亀崎潮干祭の山車行事"@ja .
-&lt;https://w3id.org/ifcp/244/held/2019/&gt;
+&lt;https://w3id.org/ifcp/244/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:244 ;
+    crm:P21_had_general_purpose ifcp:244 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23205-19950901&gt; ;
     crm:P14_carried_out_by "亀崎潮干祭保存会" ;
     crm:P67_refers_to &lt;https://dashimatsuri.jp/matsuri/kamezaki&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-05-03" ;
         crm:P115_finishes "2019-05-04" 
     ] .</v>
@@ -6095,14 +6150,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:249
     rdfs:label "桑名石取祭の祭車行事"@ja .
-&lt;https://w3id.org/ifcp/249/held/2019/&gt;
+&lt;https://w3id.org/ifcp/249/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:249 ;
+    crm:P21_had_general_purpose ifcp:249 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C24205-20041206&gt; ;
     crm:P14_carried_out_by "桑名石取祭保存会" ;
     crm:P67_refers_to &lt;https://www.city.kuwana.lg.jp/index.cfm/26,62805,234,790,html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-08-03" ;
         crm:P115_finishes "2019-08-04" 
     ] .</v>
@@ -6153,14 +6209,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:259
     rdfs:label "新庄まつりの山車行事"@ja .
-&lt;https://w3id.org/ifcp/259/held/2019/&gt;
+&lt;https://w3id.org/ifcp/259/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:259 ;
+    crm:P21_had_general_purpose ifcp:259 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C06205-20050218&gt; ;
     crm:P14_carried_out_by "新庄まつり山車行事保存会" ;
     crm:P67_refers_to &lt;https://www.kankokeizai.com/豪華絢爛「新庄まつり」、時代絵巻に観客ら感動/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-08-24" ;
         crm:P115_finishes "2019-08-26" 
     ] .</v>
@@ -6211,14 +6268,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:270
     rdfs:label "小菅の柱松行事"@ja .
-&lt;https://w3id.org/ifcp/270/held/2019/&gt;
+&lt;https://w3id.org/ifcp/270/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:270 ;
+    crm:P21_had_general_purpose ifcp:270 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C20213-20000401&gt; ;
     crm:P14_carried_out_by "小菅柱松保存会" ;
     crm:P67_refers_to &lt;http://kosugejinja.jp/post349/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-07-21" ;
         crm:P115_finishes "2019-07-21" 
     ] .</v>
@@ -6269,14 +6327,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:272
     rdfs:label "八代妙見祭の神幸行事"@ja .
-&lt;https://w3id.org/ifcp/272/held/2019/&gt;
+&lt;https://w3id.org/ifcp/272/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:272 ;
+    crm:P21_had_general_purpose ifcp:272 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C43202-20050801&gt; ;
     crm:P14_carried_out_by "八代妙見祭保存振興会" ;
     crm:P67_refers_to &lt;https://omatsurijapan.com/search/m/1410/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-11-22" ;
         crm:P115_finishes "2019-11-23" 
     ] .</v>
@@ -6327,14 +6386,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:273
     rdfs:label "吉田の火祭"@ja .
-&lt;https://w3id.org/ifcp/273/held/2019/&gt;
+&lt;https://w3id.org/ifcp/273/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:273 ;
+    crm:P21_had_general_purpose ifcp:273 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C19202-19700401&gt; ;
     crm:P14_carried_out_by "吉田の火祭保存会" ;
     crm:P67_refers_to &lt;https://nanotown01.com/yoshidano-himatsuri/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-08-26" ;
         crm:P115_finishes "2019-08-27" 
     ] .</v>
@@ -6385,14 +6445,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:275
     rdfs:label "須成祭の車楽船行事と神葭流し"@ja .
-&lt;https://w3id.org/ifcp/275/held/2019/&gt;
+&lt;https://w3id.org/ifcp/275/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:275 ;
+    crm:P21_had_general_purpose ifcp:275 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23425-19960701&gt; ;
     crm:P14_carried_out_by "須成文化財保護委員会" ;
     crm:P67_refers_to &lt;https://www.jalan.net/event/evt_239782/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-08-03" ;
         crm:P115_finishes "2019-08-04" 
     ] .</v>
@@ -6443,14 +6504,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:276
     rdfs:label "坂越の船祭"@ja .
-&lt;https://w3id.org/ifcp/276/held/2019/&gt;
+&lt;https://w3id.org/ifcp/276/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:276 ;
+    crm:P21_had_general_purpose ifcp:276 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C28212-19700401&gt; ;
     crm:P14_carried_out_by "坂越の船渡御祭保存会" ;
     crm:P67_refers_to &lt;http://www.city.ako.lg.jp/channelako/funamaturi.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-10-13" ;
         crm:P115_finishes "2019-10-13" 
     ] .</v>
@@ -6501,14 +6563,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:282
     rdfs:label "花輪祭の屋台行事"@ja .
-&lt;https://w3id.org/ifcp/282/held/2019/&gt;
+&lt;https://w3id.org/ifcp/282/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:282 ;
+    crm:P21_had_general_purpose ifcp:282 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05209-19980601&gt; ;
     crm:P14_carried_out_by "花輪ばやし祭典委員会" ;
     crm:P67_refers_to &lt;https://www.kahoku.co.jp/tohokunews/201908/20190820_45020.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-08-19" ;
         crm:P115_finishes "2019-08-21" 
     ] .</v>
@@ -6559,14 +6622,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:283
     rdfs:label "松例祭の大松明行事"@ja .
-&lt;https://w3id.org/ifcp/283/held/2019/&gt;
+&lt;https://w3id.org/ifcp/283/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:283 ;
+    crm:P21_had_general_purpose ifcp:283 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C06203-20180131&gt; ;
     crm:P14_carried_out_by "松例祭保存会" ;
     crm:P67_refers_to &lt;https://hagurokanko.jp/p3644/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-12-31" ;
         crm:P115_finishes "2020-01-01" 
     ] .</v>
@@ -6617,14 +6681,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:288
     rdfs:label "大垣祭の軕行事"@ja .
-&lt;https://w3id.org/ifcp/288/held/2019/&gt;
+&lt;https://w3id.org/ifcp/288/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:288 ;
+    crm:P21_had_general_purpose ifcp:288 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C21202-20091031&gt; ;
     crm:P14_carried_out_by "大垣祭保存会" ;
     crm:P67_refers_to &lt;https://www.asahi.com/articles/ASM5C3FPKM5COHGB001.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-05-11" ;
         crm:P115_finishes "2019-05-12" 
     ] .</v>
@@ -6675,14 +6740,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:290
     rdfs:label "那智の扇祭り"@ja .
-&lt;https://w3id.org/ifcp/290/held/2019/&gt;
+&lt;https://w3id.org/ifcp/290/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:290 ;
+    crm:P21_had_general_purpose ifcp:290 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C30421-19700401&gt; ;
     crm:P14_carried_out_by "那智の扇祭り保存会" ;
     crm:P67_refers_to &lt;https://www.ticwakayama.jp/tour/nachi-ougimaturi2019/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-07-14" ;
         crm:P115_finishes "2019-07-14" 
     ] .</v>
@@ -6733,14 +6799,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:291
     rdfs:label "大津祭の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/291/held/2019/&gt;
+&lt;https://w3id.org/ifcp/291/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:291 ;
+    crm:P21_had_general_purpose ifcp:291 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C25201-20090401&gt; ;
     crm:P14_carried_out_by "大津祭保存会" ;
     crm:P67_refers_to &lt;https://www.kyoto-np.co.jp/articles/-/32789&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "開催せず" ;
         crm:P115_finishes "開催せず" 
     ] .</v>
@@ -6790,27 +6857,29 @@
       <c r="O67" s="4" t="str">
         <f t="shared" ref="O67:O71" si="1">"ifcp:"&amp;A67&amp;"
     rdfs:label """&amp;E67&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A67&amp;"/held/2019/"&amp;B67&amp;"&gt;
+&lt;https://w3id.org/ifcp/"&amp;A67&amp;"/held/2018/"&amp;B67&amp;"&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of "&amp;D67&amp;" ;
-    crm:P17_was_motivated_by ifcp:"&amp;A67&amp;" ;
+    crm:P21_had_general_purpose ifcp:"&amp;A67&amp;" ;
     crm:P7_took_place_at &lt;"&amp;I67&amp;"&gt; ;
     crm:P14_carried_out_by """&amp;J67&amp;""" ;
     crm:P67_refers_to &lt;"&amp;M67&amp;"&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts """&amp;K67&amp;""" ;
         crm:P115_finishes """&amp;L67&amp;""" 
     ] ."</f>
         <v>ifcp:292
     rdfs:label "新宮の速玉祭・御燈祭り"@ja .
-&lt;https://w3id.org/ifcp/292/held/2019/&gt;
+&lt;https://w3id.org/ifcp/292/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:292 ;
+    crm:P21_had_general_purpose ifcp:292 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C30207-20051001&gt; ;
     crm:P14_carried_out_by "熊野速玉大社祭事保存会" ;
     crm:P67_refers_to &lt;https://www.asahi.com/articles/ASM264PQ6M26PXLB007.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-02-06" ;
         crm:P115_finishes "2019-02-06" 
     ] .</v>
@@ -6861,14 +6930,15 @@
         <f t="shared" si="1"/>
         <v>ifcp:293
     rdfs:label "西大寺の会陽"@ja .
-&lt;https://w3id.org/ifcp/293/held/2019/&gt;
+&lt;https://w3id.org/ifcp/293/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:293 ;
+    crm:P21_had_general_purpose ifcp:293 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C33201-20090401&gt; ;
     crm:P14_carried_out_by "西大寺会陽保存会" ;
     crm:P67_refers_to &lt;https://omatsurijapan.com/blog/saidaijieyou-2019/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-02-16" ;
         crm:P115_finishes "2019-02-16" 
     ] .</v>
@@ -6919,14 +6989,15 @@
         <f t="shared" si="1"/>
         <v>ifcp:295
     rdfs:label "常陸大津の御船祭"@ja .
-&lt;https://w3id.org/ifcp/295/held/2019/&gt;
+&lt;https://w3id.org/ifcp/295/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:295 ;
+    crm:P21_had_general_purpose ifcp:295 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C08215-19981001&gt; ;
     crm:P14_carried_out_by "常陸大津の御船祭保存会" ;
     crm:P67_refers_to &lt;http://www.kitaibarakishi-kankokyokai.gr.jp/page/page000506.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-05-02" ;
         crm:P115_finishes "2019-05-03" 
     ] .</v>
@@ -6977,14 +7048,15 @@
         <f t="shared" si="1"/>
         <v>ifcp:301
     rdfs:label "浦佐毘沙門堂の裸押合"@ja .
-&lt;https://w3id.org/ifcp/301/held/2019/&gt;
+&lt;https://w3id.org/ifcp/301/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:301 ;
+    crm:P21_had_general_purpose ifcp:301 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C15226-20051001&gt; ;
     crm:P14_carried_out_by "浦佐毘沙門堂裸押合大祭委員会" ;
     crm:P67_refers_to &lt;https://omatsurijapan.com/blog/dairousoku-2019/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-03-03" ;
         crm:P115_finishes "2019-03-03" 
     ] .</v>
@@ -7035,14 +7107,15 @@
         <f t="shared" si="1"/>
         <v>ifcp:302
     rdfs:label "村上祭の屋台行事"@ja .
-&lt;https://w3id.org/ifcp/302/held/2019/&gt;
+&lt;https://w3id.org/ifcp/302/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:302 ;
+    crm:P21_had_general_purpose ifcp:302 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C15212-20100616&gt; ;
     crm:P14_carried_out_by "村上まつり保存会" ;
     crm:P67_refers_to &lt;https://omatsurijapan.com/blog/murakami-taisai-2019/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-07-06" ;
         crm:P115_finishes "2019-07-08" 
     ] .</v>

--- a/list_p6_event_2019.xlsx
+++ b/list_p6_event_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Dropbox/My Mac (dhcp5-128.slis.tsukuba.ac.jp)/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34050D2-2837-3C4A-A2C6-ACBE522C6043}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97860D64-E8B2-7440-8C68-8A612D5C8C5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3012,7 +3012,7 @@
       <c r="O2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
     rdfs:label """&amp;E2&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
+&lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2019/"&amp;B2&amp;"&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of "&amp;D2&amp;" ;
     crm:P21_had_general_purpose ifcp:"&amp;A2&amp;" ;
@@ -3026,7 +3026,7 @@
     ] ."</f>
         <v>ifcp:33
     rdfs:label "日立風流物"@ja .
-&lt;https://w3id.org/ifcp/33/held/2018/&gt;
+&lt;https://w3id.org/ifcp/33/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:33 ;
@@ -3084,7 +3084,7 @@
       <c r="O3" s="4" t="str">
         <f t="shared" ref="O3:O66" si="0">"ifcp:"&amp;A3&amp;"
     rdfs:label """&amp;E3&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
+&lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2019/"&amp;B3&amp;"&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of "&amp;D3&amp;" ;
     crm:P21_had_general_purpose ifcp:"&amp;A3&amp;" ;
@@ -3098,7 +3098,7 @@
     ] ."</f>
         <v>ifcp:63
     rdfs:label "烏山の山あげ行事"@ja .
-&lt;https://w3id.org/ifcp/63/held/2018/&gt;
+&lt;https://w3id.org/ifcp/63/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:63 ;
@@ -3157,7 +3157,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:64
     rdfs:label "秩父祭の屋台行事と神楽"@ja .
-&lt;https://w3id.org/ifcp/64/held/2018/&gt;
+&lt;https://w3id.org/ifcp/64/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:64 ;
@@ -3216,7 +3216,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:66
     rdfs:label "高岡御車山祭の御車山行事"@ja .
-&lt;https://w3id.org/ifcp/66/held/2018/&gt;
+&lt;https://w3id.org/ifcp/66/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:66 ;
@@ -3277,7 +3277,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:69
     rdfs:label "高山祭の屋台行事"@ja .
-&lt;https://w3id.org/ifcp/69/held/2018/1&gt;
+&lt;https://w3id.org/ifcp/69/held/2019/1&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:69 ;
@@ -3338,7 +3338,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:69
     rdfs:label "高山祭の屋台行事"@ja .
-&lt;https://w3id.org/ifcp/69/held/2018/2&gt;
+&lt;https://w3id.org/ifcp/69/held/2019/2&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:69 ;
@@ -3397,7 +3397,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:71
     rdfs:label "長浜曳山祭の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/71/held/2018/&gt;
+&lt;https://w3id.org/ifcp/71/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:71 ;
@@ -3456,7 +3456,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:72
     rdfs:label "京都祇園祭の山鉾行事"@ja .
-&lt;https://w3id.org/ifcp/72/held/2018/&gt;
+&lt;https://w3id.org/ifcp/72/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:72 ;
@@ -3515,7 +3515,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:79
     rdfs:label "博多祇園山笠行事"@ja .
-&lt;https://w3id.org/ifcp/79/held/2018/&gt;
+&lt;https://w3id.org/ifcp/79/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:79 ;
@@ -3574,7 +3574,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:81
     rdfs:label "青森のねぶた"@ja .
-&lt;https://w3id.org/ifcp/81/held/2018/&gt;
+&lt;https://w3id.org/ifcp/81/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:81 ;
@@ -3633,7 +3633,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:82
     rdfs:label "弘前のねぷた"@ja .
-&lt;https://w3id.org/ifcp/82/held/2018/&gt;
+&lt;https://w3id.org/ifcp/82/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:82 ;
@@ -3692,7 +3692,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:84
     rdfs:label "秋田の竿灯"@ja .
-&lt;https://w3id.org/ifcp/84/held/2018/&gt;
+&lt;https://w3id.org/ifcp/84/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:84 ;
@@ -3751,7 +3751,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:85
     rdfs:label "金沢の羽山ごもり"@ja .
-&lt;https://w3id.org/ifcp/85/held/2018/&gt;
+&lt;https://w3id.org/ifcp/85/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:85 ;
@@ -3810,7 +3810,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:90
     rdfs:label "古川祭の起し太鼓・屋台行事"@ja .
-&lt;https://w3id.org/ifcp/90/held/2018/&gt;
+&lt;https://w3id.org/ifcp/90/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:90 ;
@@ -3869,7 +3869,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:91
     rdfs:label "尾張津島天王祭の車楽舟行事"@ja .
-&lt;https://w3id.org/ifcp/91/held/2018/&gt;
+&lt;https://w3id.org/ifcp/91/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:91 ;
@@ -3928,7 +3928,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:92
     rdfs:label "豊橋神明社の鬼祭"@ja .
-&lt;https://w3id.org/ifcp/92/held/2018/&gt;
+&lt;https://w3id.org/ifcp/92/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:92 ;
@@ -3987,7 +3987,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:95
     rdfs:label "戸畑祇園大山笠行事"@ja .
-&lt;https://w3id.org/ifcp/95/held/2018/&gt;
+&lt;https://w3id.org/ifcp/95/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:95 ;
@@ -4046,7 +4046,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:96
     rdfs:label "唐津くんちの曳山行事"@ja .
-&lt;https://w3id.org/ifcp/96/held/2018/&gt;
+&lt;https://w3id.org/ifcp/96/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:96 ;
@@ -4105,7 +4105,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:100
     rdfs:label "田島祇園祭のおとうや行事"@ja .
-&lt;https://w3id.org/ifcp/100/held/2018/&gt;
+&lt;https://w3id.org/ifcp/100/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:100 ;
@@ -4164,7 +4164,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:102
     rdfs:label "熊甲二十日祭の枠旗行事"@ja .
-&lt;https://w3id.org/ifcp/102/held/2018/&gt;
+&lt;https://w3id.org/ifcp/102/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:102 ;
@@ -4223,7 +4223,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:114
     rdfs:label "青柏祭の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/114/held/2018/&gt;
+&lt;https://w3id.org/ifcp/114/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:114 ;
@@ -4282,7 +4282,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:120
     rdfs:label "岩木山の登拝行事"@ja .
-&lt;https://w3id.org/ifcp/120/held/2018/&gt;
+&lt;https://w3id.org/ifcp/120/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:120 ;
@@ -4341,7 +4341,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:122
     rdfs:label "室根神社祭のマツリバ行事"@ja .
-&lt;https://w3id.org/ifcp/122/held/2018/&gt;
+&lt;https://w3id.org/ifcp/122/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:122 ;
@@ -4400,7 +4400,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:126
     rdfs:label "東湖八坂神社のトウニン（統人）行事"@ja .
-&lt;https://w3id.org/ifcp/126/held/2018/&gt;
+&lt;https://w3id.org/ifcp/126/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:126 ;
@@ -4459,7 +4459,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:129
     rdfs:label "涌出宮の宮座行事"@ja .
-&lt;https://w3id.org/ifcp/129/held/2018/&gt;
+&lt;https://w3id.org/ifcp/129/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:129 ;
@@ -4518,7 +4518,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:149
     rdfs:label "角館祭りのやま行事"@ja .
-&lt;https://w3id.org/ifcp/149/held/2018/&gt;
+&lt;https://w3id.org/ifcp/149/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:149 ;
@@ -4577,7 +4577,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:150
     rdfs:label "近江中山の芋競べ祭り"@ja .
-&lt;https://w3id.org/ifcp/150/held/2018/&gt;
+&lt;https://w3id.org/ifcp/150/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:150 ;
@@ -4625,7 +4625,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:153
     rdfs:label "白間津のオオマチ（大祭）行事"@ja .
-&lt;https://w3id.org/ifcp/153/held/2018/&gt;
+&lt;https://w3id.org/ifcp/153/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:153 ;
@@ -4684,7 +4684,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:171
     rdfs:label "発光路の強飯式"@ja .
-&lt;https://w3id.org/ifcp/171/held/2018/&gt;
+&lt;https://w3id.org/ifcp/171/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:171 ;
@@ -4743,7 +4743,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:172
     rdfs:label "貴船神社の船祭り"@ja .
-&lt;https://w3id.org/ifcp/172/held/2018/&gt;
+&lt;https://w3id.org/ifcp/172/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:172 ;
@@ -4802,7 +4802,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:176
     rdfs:label "日田祗園の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/176/held/2018/&gt;
+&lt;https://w3id.org/ifcp/176/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:176 ;
@@ -4861,7 +4861,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:178
     rdfs:label "土崎神明社祭の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/178/held/2018/&gt;
+&lt;https://w3id.org/ifcp/178/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:178 ;
@@ -4920,7 +4920,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:180
     rdfs:label "魚津のタテモン行事"@ja .
-&lt;https://w3id.org/ifcp/180/held/2018/&gt;
+&lt;https://w3id.org/ifcp/180/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:180 ;
@@ -4979,7 +4979,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:182
     rdfs:label "鳥出神社の鯨船行事"@ja .
-&lt;https://w3id.org/ifcp/182/held/2018/&gt;
+&lt;https://w3id.org/ifcp/182/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:182 ;
@@ -5038,7 +5038,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:187
     rdfs:label "塩屋湾のウンガミ"@ja .
-&lt;https://w3id.org/ifcp/187/held/2018/&gt;
+&lt;https://w3id.org/ifcp/187/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:187 ;
@@ -5097,7 +5097,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:192
     rdfs:label "等覚寺の松会"@ja .
-&lt;https://w3id.org/ifcp/192/held/2018/&gt;
+&lt;https://w3id.org/ifcp/192/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:192 ;
@@ -5147,7 +5147,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:197
     rdfs:label "山北のボタモチ祭り"@ja .
-&lt;https://w3id.org/ifcp/197/held/2018/&gt;
+&lt;https://w3id.org/ifcp/197/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:197 ;
@@ -5206,7 +5206,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:198
     rdfs:label "滑川のネブタ流し"@ja .
-&lt;https://w3id.org/ifcp/198/held/2018/&gt;
+&lt;https://w3id.org/ifcp/198/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:198 ;
@@ -5265,7 +5265,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:199
     rdfs:label "大江八幡神社の御船行事"@ja .
-&lt;https://w3id.org/ifcp/199/held/2018/&gt;
+&lt;https://w3id.org/ifcp/199/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:199 ;
@@ -5324,7 +5324,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:201
     rdfs:label "河内祭の御舟行事"@ja .
-&lt;https://w3id.org/ifcp/201/held/2018/&gt;
+&lt;https://w3id.org/ifcp/201/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:201 ;
@@ -5383,7 +5383,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:205
     rdfs:label "片品の猿追い祭"@ja .
-&lt;https://w3id.org/ifcp/205/held/2018/&gt;
+&lt;https://w3id.org/ifcp/205/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:205 ;
@@ -5442,7 +5442,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:206
     rdfs:label "気多の鵜祭の習俗"@ja .
-&lt;https://w3id.org/ifcp/206/held/2018/&gt;
+&lt;https://w3id.org/ifcp/206/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:206 ;
@@ -5501,7 +5501,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:208
     rdfs:label "見付天神裸祭"@ja .
-&lt;https://w3id.org/ifcp/208/held/2018/&gt;
+&lt;https://w3id.org/ifcp/208/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:208 ;
@@ -5560,7 +5560,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:215
     rdfs:label "城端神明宮祭の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/215/held/2018/&gt;
+&lt;https://w3id.org/ifcp/215/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:215 ;
@@ -5619,7 +5619,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:216
     rdfs:label "上野天神祭のダンジリ行事"@ja .
-&lt;https://w3id.org/ifcp/216/held/2018/&gt;
+&lt;https://w3id.org/ifcp/216/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:216 ;
@@ -5678,7 +5678,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:219
     rdfs:label "鹿沼今宮神社祭の屋台行事"@ja .
-&lt;https://w3id.org/ifcp/219/held/2018/&gt;
+&lt;https://w3id.org/ifcp/219/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:219 ;
@@ -5737,7 +5737,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:220
     rdfs:label "八戸三社大祭の山車行事"@ja .
-&lt;https://w3id.org/ifcp/220/held/2018/&gt;
+&lt;https://w3id.org/ifcp/220/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:220 ;
@@ -5796,7 +5796,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:226
     rdfs:label "佐原の山車行事"@ja .
-&lt;https://w3id.org/ifcp/226/held/2018/&gt;
+&lt;https://w3id.org/ifcp/226/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:226 ;
@@ -5855,7 +5855,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:231
     rdfs:label "川越氷川祭の山車行事"@ja .
-&lt;https://w3id.org/ifcp/231/held/2018/&gt;
+&lt;https://w3id.org/ifcp/231/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:231 ;
@@ -5914,7 +5914,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:232
     rdfs:label "茂名の里芋祭"@ja .
-&lt;https://w3id.org/ifcp/232/held/2018/&gt;
+&lt;https://w3id.org/ifcp/232/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:232 ;
@@ -5973,7 +5973,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:234
     rdfs:label "三上のずいき祭"@ja .
-&lt;https://w3id.org/ifcp/234/held/2018/&gt;
+&lt;https://w3id.org/ifcp/234/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:234 ;
@@ -6032,7 +6032,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:243
     rdfs:label "犬山祭の車山行事"@ja .
-&lt;https://w3id.org/ifcp/243/held/2018/&gt;
+&lt;https://w3id.org/ifcp/243/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:243 ;
@@ -6091,7 +6091,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:244
     rdfs:label "亀崎潮干祭の山車行事"@ja .
-&lt;https://w3id.org/ifcp/244/held/2018/&gt;
+&lt;https://w3id.org/ifcp/244/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:244 ;
@@ -6150,7 +6150,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:249
     rdfs:label "桑名石取祭の祭車行事"@ja .
-&lt;https://w3id.org/ifcp/249/held/2018/&gt;
+&lt;https://w3id.org/ifcp/249/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:249 ;
@@ -6209,7 +6209,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:259
     rdfs:label "新庄まつりの山車行事"@ja .
-&lt;https://w3id.org/ifcp/259/held/2018/&gt;
+&lt;https://w3id.org/ifcp/259/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:259 ;
@@ -6268,7 +6268,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:270
     rdfs:label "小菅の柱松行事"@ja .
-&lt;https://w3id.org/ifcp/270/held/2018/&gt;
+&lt;https://w3id.org/ifcp/270/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:270 ;
@@ -6327,7 +6327,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:272
     rdfs:label "八代妙見祭の神幸行事"@ja .
-&lt;https://w3id.org/ifcp/272/held/2018/&gt;
+&lt;https://w3id.org/ifcp/272/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:272 ;
@@ -6386,7 +6386,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:273
     rdfs:label "吉田の火祭"@ja .
-&lt;https://w3id.org/ifcp/273/held/2018/&gt;
+&lt;https://w3id.org/ifcp/273/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:273 ;
@@ -6445,7 +6445,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:275
     rdfs:label "須成祭の車楽船行事と神葭流し"@ja .
-&lt;https://w3id.org/ifcp/275/held/2018/&gt;
+&lt;https://w3id.org/ifcp/275/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:275 ;
@@ -6504,7 +6504,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:276
     rdfs:label "坂越の船祭"@ja .
-&lt;https://w3id.org/ifcp/276/held/2018/&gt;
+&lt;https://w3id.org/ifcp/276/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:276 ;
@@ -6563,7 +6563,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:282
     rdfs:label "花輪祭の屋台行事"@ja .
-&lt;https://w3id.org/ifcp/282/held/2018/&gt;
+&lt;https://w3id.org/ifcp/282/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:282 ;
@@ -6622,7 +6622,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:283
     rdfs:label "松例祭の大松明行事"@ja .
-&lt;https://w3id.org/ifcp/283/held/2018/&gt;
+&lt;https://w3id.org/ifcp/283/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:283 ;
@@ -6681,7 +6681,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:288
     rdfs:label "大垣祭の軕行事"@ja .
-&lt;https://w3id.org/ifcp/288/held/2018/&gt;
+&lt;https://w3id.org/ifcp/288/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:288 ;
@@ -6740,7 +6740,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:290
     rdfs:label "那智の扇祭り"@ja .
-&lt;https://w3id.org/ifcp/290/held/2018/&gt;
+&lt;https://w3id.org/ifcp/290/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:290 ;
@@ -6799,7 +6799,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:291
     rdfs:label "大津祭の曳山行事"@ja .
-&lt;https://w3id.org/ifcp/291/held/2018/&gt;
+&lt;https://w3id.org/ifcp/291/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:291 ;
@@ -6857,7 +6857,7 @@
       <c r="O67" s="4" t="str">
         <f t="shared" ref="O67:O71" si="1">"ifcp:"&amp;A67&amp;"
     rdfs:label """&amp;E67&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A67&amp;"/held/2018/"&amp;B67&amp;"&gt;
+&lt;https://w3id.org/ifcp/"&amp;A67&amp;"/held/2019/"&amp;B67&amp;"&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of "&amp;D67&amp;" ;
     crm:P21_had_general_purpose ifcp:"&amp;A67&amp;" ;
@@ -6871,7 +6871,7 @@
     ] ."</f>
         <v>ifcp:292
     rdfs:label "新宮の速玉祭・御燈祭り"@ja .
-&lt;https://w3id.org/ifcp/292/held/2018/&gt;
+&lt;https://w3id.org/ifcp/292/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:292 ;
@@ -6930,7 +6930,7 @@
         <f t="shared" si="1"/>
         <v>ifcp:293
     rdfs:label "西大寺の会陽"@ja .
-&lt;https://w3id.org/ifcp/293/held/2018/&gt;
+&lt;https://w3id.org/ifcp/293/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:293 ;
@@ -6989,7 +6989,7 @@
         <f t="shared" si="1"/>
         <v>ifcp:295
     rdfs:label "常陸大津の御船祭"@ja .
-&lt;https://w3id.org/ifcp/295/held/2018/&gt;
+&lt;https://w3id.org/ifcp/295/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:295 ;
@@ -7048,7 +7048,7 @@
         <f t="shared" si="1"/>
         <v>ifcp:301
     rdfs:label "浦佐毘沙門堂の裸押合"@ja .
-&lt;https://w3id.org/ifcp/301/held/2018/&gt;
+&lt;https://w3id.org/ifcp/301/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:301 ;
@@ -7107,7 +7107,7 @@
         <f t="shared" si="1"/>
         <v>ifcp:302
     rdfs:label "村上祭の屋台行事"@ja .
-&lt;https://w3id.org/ifcp/302/held/2018/&gt;
+&lt;https://w3id.org/ifcp/302/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:302 ;
